--- a/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.01159282199615976</v>
+        <v>0.01159014295012655</v>
       </c>
       <c r="F3">
         <v>0.5294679887898095</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>128</v>
       </c>
       <c r="E4">
-        <v>0.00941108988905837</v>
+        <v>0.009308189864017435</v>
       </c>
       <c r="F4">
         <v>0.5047801195446818</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.01042848144180441</v>
+        <v>0.01037384191797291</v>
       </c>
       <c r="F5">
         <v>0.5260067546718552</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.009488428567724</v>
+        <v>0.009306357821202302</v>
       </c>
       <c r="F6">
         <v>0.542291662413573</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>0.01159282199615976</v>
+        <v>0.01159014295012655</v>
       </c>
       <c r="F3">
         <v>0.7035513398915354</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>140</v>
       </c>
       <c r="E4">
-        <v>0.00941108988905837</v>
+        <v>0.009308189864017435</v>
       </c>
       <c r="F4">
         <v>0.7029111383017957</v>
       </c>
       <c r="G4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.01042848144180441</v>
+        <v>0.01037384191797291</v>
       </c>
       <c r="F5">
         <v>0.7056063225846911</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.009488428567724</v>
+        <v>0.009306357821202302</v>
       </c>
       <c r="F6">
         <v>0.7043497100222643</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.01159282199615976</v>
+        <v>0.01159014295012655</v>
       </c>
       <c r="F3">
         <v>0.8037060926098745</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.00941108988905837</v>
+        <v>0.009308189864017435</v>
       </c>
       <c r="F4">
         <v>0.8036314818135848</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.01042848144180441</v>
+        <v>0.01037384191797291</v>
       </c>
       <c r="F5">
         <v>0.8046246300323895</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.009488428567724</v>
+        <v>0.009306357821202302</v>
       </c>
       <c r="F6">
         <v>0.8072605020353467</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>172</v>
       </c>
       <c r="E3">
-        <v>0.01159282199615976</v>
+        <v>0.01159014295012655</v>
       </c>
       <c r="F3">
         <v>0.9057653810670008</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.00941108988905837</v>
+        <v>0.009308189864017435</v>
       </c>
       <c r="F4">
         <v>0.9037819864210825</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>170</v>
       </c>
       <c r="E5">
-        <v>0.01042848144180441</v>
+        <v>0.01037384191797291</v>
       </c>
       <c r="F5">
         <v>0.9035212762119064</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.009488428567724</v>
+        <v>0.009306357821202302</v>
       </c>
       <c r="F6">
         <v>0.9030288113317968</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>6</v>

--- a/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001303007654382914</v>
+        <v>3.094771366037016E-05</v>
       </c>
       <c r="C2">
-        <v>0.0001972869882340586</v>
+        <v>9.909780668884764E-05</v>
       </c>
       <c r="D2">
-        <v>0.0002084037186980314</v>
+        <v>0.0001104076877908484</v>
       </c>
       <c r="E2">
-        <v>0.0001225005751127391</v>
+        <v>2.301199681980502E-05</v>
       </c>
       <c r="F2">
-        <v>9.037873377208752E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.621129734606001E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.801890475204512E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.21831085084797E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.482534861875742E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.761745198738342E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.616061001340252E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.98815781687025E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.531195397798261E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001154717348193803</v>
+        <v>1.586103204104482E-05</v>
       </c>
       <c r="P2">
-        <v>0.0001382431057697765</v>
+        <v>3.902805033056588E-05</v>
       </c>
       <c r="Q2">
-        <v>0.000217137129062533</v>
+        <v>0.0001192928391541562</v>
       </c>
       <c r="R2">
-        <v>0.0002385142499547381</v>
+        <v>0.0001410413826110183</v>
       </c>
       <c r="S2">
-        <v>0.0001458227560861242</v>
+        <v>4.673939532992991E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001355369956568331</v>
+        <v>3.627492217606944E-05</v>
       </c>
       <c r="U2">
-        <v>8.920343372303467E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>5.273569520100071E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.447886185638981E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2.212066592323807E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.782395074390843E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>6.743936681467978E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3.337581939298823E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.389222708399926E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0001441830160176873</v>
+        <v>4.50711651544921E-05</v>
       </c>
       <c r="AD2">
-        <v>0.0001199540050064544</v>
+        <v>2.042118064293269E-05</v>
       </c>
       <c r="AE2">
-        <v>0.0001339563055908607</v>
+        <v>3.466676798332375E-05</v>
       </c>
       <c r="AF2">
-        <v>0.0001441830160176873</v>
+        <v>4.50711651544921E-05</v>
       </c>
       <c r="AG2">
-        <v>0.0001459240460903517</v>
+        <v>4.684244522471207E-05</v>
       </c>
       <c r="AH2">
-        <v>0.0002084037186980314</v>
+        <v>0.0001104076877908484</v>
       </c>
       <c r="AI2">
-        <v>0.0002600969308555226</v>
+        <v>0.0001629990576343867</v>
       </c>
       <c r="AJ2">
-        <v>0.0002328729097192886</v>
+        <v>0.000135302025384931</v>
       </c>
       <c r="AK2">
-        <v>0.000209657718750369</v>
+        <v>0.000111683475806021</v>
       </c>
       <c r="AL2">
-        <v>0.0001270214353014238</v>
+        <v>2.761140591571642E-05</v>
       </c>
       <c r="AM2">
-        <v>6.176095757768313E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.901841721112572E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.523840647072599E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.188874991355872E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.376644599192709E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.999850283466652E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.103167329515189E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>3.605139650465731E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.54481798968457E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0001195458549894196</v>
+        <v>2.000593911311397E-05</v>
       </c>
       <c r="AW2">
-        <v>0.0002314236296588008</v>
+        <v>0.0001338275644163272</v>
       </c>
       <c r="AX2">
-        <v>0.000210374168780271</v>
+        <v>0.0001124123739906066</v>
       </c>
       <c r="AY2">
-        <v>0.0002420996901043817</v>
+        <v>0.000144689118959599</v>
       </c>
       <c r="AZ2">
-        <v>0.0002571723407334606</v>
+        <v>0.0001600236534308034</v>
       </c>
       <c r="BA2">
-        <v>0.0002594957908304331</v>
+        <v>0.0001623874729394578</v>
       </c>
       <c r="BB2">
-        <v>0.0002091180087278433</v>
+        <v>0.0001111343884458385</v>
       </c>
       <c r="BC2">
-        <v>0.0001120795686778033</v>
+        <v>1.240992779202109E-05</v>
       </c>
       <c r="BD2">
-        <v>7.990222733483533E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>5.723687638886405E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>2.36417159867213E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>8.925668872525734E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>9.010028376046601E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>3.10783952971019E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>5.995664750237763E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0001349620656328375</v>
+        <v>3.56900028749824E-05</v>
       </c>
       <c r="BL2">
-        <v>0.0002328729097192886</v>
+        <v>0.000135302025384931</v>
       </c>
       <c r="BM2">
-        <v>0.0002399855400161446</v>
+        <v>0.0001425382359992505</v>
       </c>
       <c r="BN2">
-        <v>0.0002829594718097239</v>
+        <v>0.000186258829985585</v>
       </c>
       <c r="BO2">
-        <v>0.000440356138378902</v>
+        <v>0.0003463902274785565</v>
       </c>
       <c r="BP2">
-        <v>0.0003556869148451092</v>
+        <v>0.000260249895636446</v>
       </c>
       <c r="BQ2">
-        <v>0.0002829594718097239</v>
+        <v>0.000186258829985585</v>
       </c>
       <c r="BR2">
-        <v>0.0002728386113873151</v>
+        <v>0.0001759621219383449</v>
       </c>
       <c r="BS2">
-        <v>0.0001940516580990274</v>
+        <v>9.580626343595435E-05</v>
       </c>
       <c r="BT2">
-        <v>0.0001480270461781234</v>
+        <v>4.898198445589853E-05</v>
       </c>
       <c r="BU2">
-        <v>0.0001140130887585016</v>
+        <v>1.437704233994485E-05</v>
       </c>
       <c r="BV2">
-        <v>9.709563405242709E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>2.901841721112572E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>1.463559961083797E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.532806263973892E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.40653240044012E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>8.277030345453865E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001724226671963101</v>
+        <v>7.380147378500811E-05</v>
       </c>
       <c r="CC2">
-        <v>0.0001724226671963101</v>
+        <v>7.380147378500811E-05</v>
       </c>
       <c r="CD2">
-        <v>0.0003335292739203279</v>
+        <v>0.0002377072707907461</v>
       </c>
       <c r="CE2">
-        <v>0.0003137668330955138</v>
+        <v>0.0002176014620965147</v>
       </c>
       <c r="CF2">
-        <v>0.0002990909724829955</v>
+        <v>0.0002026706117772563</v>
       </c>
       <c r="CG2">
-        <v>0.0003194254633316849</v>
+        <v>0.0002233584097331141</v>
       </c>
       <c r="CH2">
-        <v>0.0003031043626505001</v>
+        <v>0.0002067537336769479</v>
       </c>
       <c r="CI2">
-        <v>0.0002266109094579349</v>
+        <v>0.0001289312243075703</v>
       </c>
       <c r="CJ2">
-        <v>0.0001204960690290782</v>
+        <v>2.09726629034243E-05</v>
       </c>
       <c r="CK2">
-        <v>9.446706394271991E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>4.54481798968457E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.701587171018208E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.06235001860226844</v>
+        <v>0.06333171885452155</v>
       </c>
       <c r="CO2">
-        <v>0.005734837839351773</v>
+        <v>0.005732862331734492</v>
       </c>
       <c r="CP2">
-        <v>0.1231472551397293</v>
+        <v>0.1251852934102154</v>
       </c>
       <c r="CQ2">
-        <v>0.006260895261307543</v>
+        <v>0.006268059880548548</v>
       </c>
       <c r="CR2">
-        <v>3.523840647072599E-05</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.008075981337062792</v>
+        <v>0.008114682659900585</v>
       </c>
       <c r="CT2">
-        <v>0.03258026135978446</v>
+        <v>0.03304471891878737</v>
       </c>
       <c r="CU2">
-        <v>0.002241815793565433</v>
+        <v>0.002179149830334815</v>
       </c>
       <c r="CV2">
-        <v>0.009286670387592656</v>
+        <v>0.009346407154558657</v>
       </c>
       <c r="CW2">
-        <v>0.03060209927722299</v>
+        <v>0.03103218672447339</v>
       </c>
       <c r="CX2">
-        <v>0.006176538557786794</v>
+        <v>0.006182237498682914</v>
       </c>
       <c r="CY2">
-        <v>0.0008016681834587843</v>
+        <v>0.0007139799863395289</v>
       </c>
       <c r="CZ2">
-        <v>0.00481394820091711</v>
+        <v>0.004795972447382795</v>
       </c>
       <c r="DA2">
-        <v>0.01371268157231865</v>
+        <v>0.01384931926685675</v>
       </c>
       <c r="DB2">
-        <v>0.01773087974002398</v>
+        <v>0.01793733270464801</v>
       </c>
       <c r="DC2">
-        <v>0.0006086527254030042</v>
+        <v>0.0005176109290403793</v>
       </c>
       <c r="DD2">
-        <v>0.01740244672631635</v>
+        <v>0.01760319324277627</v>
       </c>
       <c r="DE2">
-        <v>0.004563948190482997</v>
+        <v>0.004541628744198478</v>
       </c>
       <c r="DF2">
-        <v>0.003452458144093347</v>
+        <v>0.003410826813589131</v>
       </c>
       <c r="DG2">
-        <v>0.02585695407917748</v>
+        <v>0.0262045957186872</v>
       </c>
       <c r="DH2">
-        <v>0.00220540149204563</v>
+        <v>0.002142102838691356</v>
       </c>
       <c r="DI2">
-        <v>0.005370177224132134</v>
+        <v>0.005361865822096833</v>
       </c>
       <c r="DJ2">
-        <v>0.0001292172253930683</v>
+        <v>2.984534735577682E-05</v>
       </c>
       <c r="DK2">
-        <v>8.2459073441549E-06</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001448011660434866</v>
+        <v>0.001371553532747239</v>
       </c>
       <c r="DM2">
-        <v>0.004029770168188302</v>
+        <v>0.003998169501480109</v>
       </c>
       <c r="DN2">
-        <v>0.003704423454609485</v>
+        <v>0.003667169963492921</v>
       </c>
       <c r="DO2">
-        <v>0.001286952453712827</v>
+        <v>0.001207695959307625</v>
       </c>
       <c r="DP2">
-        <v>0.003511674646564834</v>
+        <v>0.003471072189187587</v>
       </c>
       <c r="DQ2">
-        <v>0.008919812372281304</v>
+        <v>0.008973175065507488</v>
       </c>
       <c r="DR2">
-        <v>0.00448034818699383</v>
+        <v>0.004456576209853643</v>
       </c>
       <c r="DS2">
-        <v>0.008509597355160386</v>
+        <v>0.008555832656700469</v>
       </c>
       <c r="DT2">
-        <v>0.0005365382223932008</v>
+        <v>0.0004442434531072375</v>
       </c>
       <c r="DU2">
-        <v>0.003311235638199221</v>
+        <v>0.003267150599097342</v>
       </c>
       <c r="DV2">
-        <v>0.000320977513396462</v>
+        <v>0.000224937426311223</v>
       </c>
       <c r="DW2">
-        <v>0.01828958176334222</v>
+        <v>0.01850574204727395</v>
       </c>
       <c r="DX2">
-        <v>0.005860314444588722</v>
+        <v>0.005860519064162402</v>
       </c>
       <c r="DY2">
-        <v>0.0425390467754288</v>
+        <v>0.04317653594325308</v>
       </c>
       <c r="DZ2">
-        <v>0.007233960301919824</v>
+        <v>0.007258031702704738</v>
       </c>
       <c r="EA2">
-        <v>0.04043106868744929</v>
+        <v>0.04103193222024881</v>
       </c>
       <c r="EB2">
-        <v>0.0470347499630635</v>
+        <v>0.04775035094100046</v>
       </c>
       <c r="EC2">
-        <v>8.649370360994014E-05</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001195009249875444</v>
+        <v>0.001114155263425159</v>
       </c>
       <c r="EE2">
-        <v>0.0006904008588148811</v>
+        <v>0.0006007794174907511</v>
       </c>
       <c r="EF2">
-        <v>0.003468973044782621</v>
+        <v>0.003427628656884006</v>
       </c>
       <c r="EG2">
-        <v>0.01080097645079442</v>
+        <v>0.01088702393773558</v>
       </c>
       <c r="EH2">
-        <v>0.007596698317059221</v>
+        <v>0.007627072207527429</v>
       </c>
       <c r="EI2">
-        <v>0.01793163374840274</v>
+        <v>0.01814157476780427</v>
       </c>
       <c r="EJ2">
-        <v>0.0393152146408775</v>
+        <v>0.03989669046595667</v>
       </c>
       <c r="EK2">
-        <v>0.02193069691530944</v>
+        <v>0.02221012073855381</v>
       </c>
       <c r="EL2">
-        <v>0.0007232273601849426</v>
+        <v>0.000634176271781071</v>
       </c>
       <c r="EM2">
-        <v>0.007866899828336472</v>
+        <v>0.007901968407991258</v>
       </c>
       <c r="EN2">
-        <v>0.01237258151638763</v>
+        <v>0.01248593528030753</v>
       </c>
       <c r="EO2">
-        <v>0.002972657024068152</v>
+        <v>0.002922689259325496</v>
       </c>
       <c r="EP2">
-        <v>0.003811273459069025</v>
+        <v>0.003775876462233898</v>
       </c>
       <c r="EQ2">
-        <v>0.01217081050796643</v>
+        <v>0.01228065854696672</v>
       </c>
       <c r="ER2">
-        <v>0.01633243868165802</v>
+        <v>0.0165145940541489</v>
       </c>
       <c r="ES2">
-        <v>0.007454466811122982</v>
+        <v>0.007482369461849587</v>
       </c>
       <c r="ET2">
-        <v>0.00700950029255166</v>
+        <v>0.007029671752237731</v>
       </c>
       <c r="EU2">
-        <v>0.003690868954043768</v>
+        <v>0.003653379956593674</v>
       </c>
       <c r="EV2">
-        <v>0.0009852464411206892</v>
+        <v>0.0009007478740559146</v>
       </c>
       <c r="EW2">
-        <v>0.01031676043058496</v>
+        <v>0.01039439477541119</v>
       </c>
       <c r="EX2">
-        <v>0.0095532393987183</v>
+        <v>0.009617607741015216</v>
       </c>
       <c r="EY2">
-        <v>0.00696047289050543</v>
+        <v>0.006979792510343735</v>
       </c>
       <c r="EZ2">
-        <v>0.006058296952851809</v>
+        <v>0.006061941473025158</v>
       </c>
       <c r="FA2">
-        <v>0.01080097645079442</v>
+        <v>0.01088702393773558</v>
       </c>
       <c r="FB2">
-        <v>0.006664588878156282</v>
+        <v>0.006678767581251781</v>
       </c>
       <c r="FC2">
-        <v>0.003766267757190647</v>
+        <v>0.003730088796624289</v>
       </c>
       <c r="FD2">
-        <v>0.01277361953312553</v>
+        <v>0.01289394124045806</v>
       </c>
       <c r="FE2">
-        <v>0.004443654485462364</v>
+        <v>0.004419244963687504</v>
       </c>
       <c r="FF2">
-        <v>0.001493793862345653</v>
+        <v>0.001418131189898939</v>
       </c>
       <c r="FG2">
-        <v>0.005780908241274589</v>
+        <v>0.005779733196307224</v>
       </c>
       <c r="FH2">
-        <v>0.01985150482853134</v>
+        <v>0.02009480316690898</v>
       </c>
       <c r="FI2">
-        <v>0.01855756577452692</v>
+        <v>0.01877838221909053</v>
       </c>
       <c r="FJ2">
-        <v>0.00644988776919542</v>
+        <v>0.006460336089844795</v>
       </c>
       <c r="FK2">
-        <v>2.609190008898329E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0001771199973923599</v>
+        <v>7.858041901412325E-05</v>
       </c>
       <c r="FM2">
-        <v>0.005860314444588722</v>
+        <v>0.005860519064162402</v>
       </c>
       <c r="FN2">
-        <v>0.004465440186371622</v>
+        <v>0.004441409186145356</v>
       </c>
       <c r="FO2">
-        <v>0.009309783388557312</v>
+        <v>0.009369921738605454</v>
       </c>
       <c r="FP2">
-        <v>0.003676830153457838</v>
+        <v>0.003639097235072617</v>
       </c>
       <c r="FQ2">
-        <v>0.004029770168188302</v>
+        <v>0.003998169501480109</v>
       </c>
       <c r="FR2">
-        <v>0.004005946167193973</v>
+        <v>0.003973931563941457</v>
       </c>
       <c r="FS2">
-        <v>0.001211053850545089</v>
+        <v>0.001130478635345604</v>
       </c>
       <c r="FT2">
-        <v>0.002647438010494665</v>
+        <v>0.002591819640101894</v>
       </c>
       <c r="FU2">
-        <v>0.0007634241318626132</v>
+        <v>0.0006750714531324641</v>
       </c>
       <c r="FV2">
-        <v>0.001062950444363778</v>
+        <v>0.000979801966504851</v>
       </c>
       <c r="FW2">
-        <v>0.006267096261566351</v>
+        <v>0.006274368621762331</v>
       </c>
       <c r="FX2">
-        <v>0.007105949596577111</v>
+        <v>0.00712779684076387</v>
       </c>
       <c r="FY2">
-        <v>0.003539140147711146</v>
+        <v>0.003499014897106823</v>
       </c>
       <c r="FZ2">
-        <v>0.000103967754339245</v>
+        <v>4.15717254281153E-06</v>
       </c>
       <c r="GA2">
-        <v>0.0001908430679651122</v>
+        <v>9.25419247855537E-05</v>
       </c>
       <c r="GB2">
-        <v>2.651594110668125E-06</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>1.21831085084797E-06</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002997931725123028</v>
+        <v>0.002948403102504986</v>
       </c>
       <c r="GE2">
-        <v>0.01047088643701763</v>
+        <v>0.01055119868579914</v>
       </c>
       <c r="GF2">
-        <v>0.005522280230480374</v>
+        <v>0.00551661158323861</v>
       </c>
       <c r="GG2">
-        <v>0.002183731491141201</v>
+        <v>0.00212005632649934</v>
       </c>
       <c r="GH2">
-        <v>0.0008532243356105549</v>
+        <v>0.0007664319147912334</v>
       </c>
       <c r="GI2">
-        <v>0.0001348646656287724</v>
+        <v>3.559091056822177E-05</v>
       </c>
       <c r="GJ2">
-        <v>0.0007281262303894041</v>
+        <v>0.0006391602587299453</v>
       </c>
       <c r="GK2">
-        <v>0.0001635389668255359</v>
+        <v>6.476342116109403E-05</v>
       </c>
       <c r="GL2">
-        <v>0.001978966282595028</v>
+        <v>0.00191173336949423</v>
       </c>
       <c r="GM2">
-        <v>0.004975171207645985</v>
+        <v>0.004959996666816735</v>
       </c>
       <c r="GN2">
-        <v>0.009007404375937084</v>
+        <v>0.00906228896010477</v>
       </c>
       <c r="GO2">
-        <v>0.00672135528052551</v>
+        <v>0.00673652028682155</v>
       </c>
       <c r="GP2">
-        <v>0.001043247943541466</v>
+        <v>0.0009597571392568951</v>
       </c>
       <c r="GQ2">
-        <v>4.144726172986158E-05</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.0001771199973923599</v>
+        <v>7.858041901412325E-05</v>
       </c>
       <c r="GS2">
-        <v>0.0003088138328887932</v>
+        <v>0.0002125624046490269</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.646825617451357E-05</v>
+        <v>3.004086102958167E-05</v>
       </c>
       <c r="C3">
-        <v>1.55485573534814E-05</v>
+        <v>9.096218008689418E-06</v>
       </c>
       <c r="D3">
-        <v>0.0001166814201569636</v>
+        <v>0.0001103496694670931</v>
       </c>
       <c r="E3">
-        <v>5.304041161709783E-05</v>
+        <v>4.663277675461589E-05</v>
       </c>
       <c r="F3">
-        <v>6.562626571267982E-05</v>
+        <v>5.923363795248246E-05</v>
       </c>
       <c r="G3">
-        <v>2.385895707689072E-05</v>
+        <v>1.741652687435702E-05</v>
       </c>
       <c r="H3">
-        <v>6.463172562610642E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.56281622308977E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.4830655643423E-07</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.391857643451452E-05</v>
+        <v>6.753583624763822E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001944179369238248</v>
+        <v>0.0001881788775880339</v>
       </c>
       <c r="M3">
-        <v>0.0001072696853376845</v>
+        <v>0.0001009267122972262</v>
       </c>
       <c r="N3">
-        <v>0.0002371694806452903</v>
+        <v>0.0002309813973326265</v>
       </c>
       <c r="O3">
-        <v>0.0004043032851940673</v>
+        <v>0.0003983144886426378</v>
       </c>
       <c r="P3">
-        <v>0.0004280787672636917</v>
+        <v>0.0004221183200867722</v>
       </c>
       <c r="Q3">
-        <v>0.0006450101561472828</v>
+        <v>0.000639308373302318</v>
       </c>
       <c r="R3">
-        <v>0.0002998689261031943</v>
+        <v>0.0002937556042635325</v>
       </c>
       <c r="S3">
-        <v>0.0001174842202268463</v>
+        <v>0.0001111534267785481</v>
       </c>
       <c r="T3">
-        <v>0.0001065743692771582</v>
+        <v>0.0001002305671567533</v>
       </c>
       <c r="U3">
-        <v>2.823761545804716E-05</v>
+        <v>2.180040627378494E-05</v>
       </c>
       <c r="V3">
-        <v>1.052698291635997E-08</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>9.234695303868038E-06</v>
+        <v>2.77482744548694E-06</v>
       </c>
       <c r="X3">
-        <v>3.091876269143748E-05</v>
+        <v>2.448475044958902E-05</v>
       </c>
       <c r="Y3">
-        <v>3.551459809149889E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>8.477256737934009E-07</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>5.167922149860802E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002769169441052545</v>
+        <v>0.0002707762548148928</v>
       </c>
       <c r="AC3">
-        <v>0.0005185235451367902</v>
+        <v>0.000512670942371727</v>
       </c>
       <c r="AD3">
-        <v>8.628472751097165E-05</v>
+        <v>7.991673245721557E-05</v>
       </c>
       <c r="AE3">
-        <v>7.697308270040526E-05</v>
+        <v>7.05939846412394E-05</v>
       </c>
       <c r="AF3">
-        <v>0.0002231241694226645</v>
+        <v>0.0002169193387823632</v>
       </c>
       <c r="AG3">
-        <v>0.0001631844942049949</v>
+        <v>0.0001569081927824912</v>
       </c>
       <c r="AH3">
-        <v>2.407842909599547E-05</v>
+        <v>1.763626058718667E-05</v>
       </c>
       <c r="AI3">
-        <v>1.95812607045229E-05</v>
+        <v>1.313372986864997E-05</v>
       </c>
       <c r="AJ3">
-        <v>1.252954659068049E-05</v>
+        <v>6.073607442254093E-06</v>
       </c>
       <c r="AK3">
-        <v>5.031763438008367E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.050514365543249E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.106743096340526E-05</v>
+        <v>4.609748419687306E-06</v>
       </c>
       <c r="AN3">
-        <v>1.925580767619264E-07</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.906510862348695E-06</v>
+        <v>3.447444062419882E-06</v>
       </c>
       <c r="AP3">
-        <v>5.425833972311686E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>6.4830655643423E-07</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.102630983031252E-05</v>
+        <v>1.458050204000108E-05</v>
       </c>
       <c r="AS3">
-        <v>3.416482497400292E-07</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1.380647520183544E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.154294900479848E-05</v>
+        <v>5.085833458586705E-06</v>
       </c>
       <c r="AV3">
-        <v>0.0003010344762046538</v>
+        <v>0.000294922544141916</v>
       </c>
       <c r="AW3">
-        <v>0.0005299730461334541</v>
+        <v>0.0005241340955076308</v>
       </c>
       <c r="AX3">
-        <v>0.0002740561238562238</v>
+        <v>0.000267912023385201</v>
       </c>
       <c r="AY3">
-        <v>0.000512066844574743</v>
+        <v>0.0005062065429785143</v>
       </c>
       <c r="AZ3">
-        <v>0.0004626019402688883</v>
+        <v>0.0004566826577824652</v>
       </c>
       <c r="BA3">
-        <v>0.0002371694806452903</v>
+        <v>0.0002309813973326265</v>
       </c>
       <c r="BB3">
-        <v>0.0003432531098797302</v>
+        <v>0.0003371915184096185</v>
       </c>
       <c r="BC3">
-        <v>0.0001353666717834901</v>
+        <v>0.0001290572009866045</v>
       </c>
       <c r="BD3">
-        <v>5.358212066425288E-05</v>
+        <v>4.71751317240117E-05</v>
       </c>
       <c r="BE3">
-        <v>3.897420739265331E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>5.583595486044618E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.320657602010181E-05</v>
+        <v>1.67633679323985E-05</v>
       </c>
       <c r="BH3">
-        <v>5.206548753223197E-05</v>
+        <v>4.565669019119672E-05</v>
       </c>
       <c r="BI3">
-        <v>0.0002567823923525683</v>
+        <v>0.0002506176950548587</v>
       </c>
       <c r="BJ3">
-        <v>0.0002184614590167817</v>
+        <v>0.0002122510686606715</v>
       </c>
       <c r="BK3">
-        <v>5.174252450411847E-05</v>
+        <v>4.533334206890048E-05</v>
       </c>
       <c r="BL3">
-        <v>0.0001046601631105291</v>
+        <v>9.831407853177706E-05</v>
       </c>
       <c r="BM3">
-        <v>0.0002285132598917777</v>
+        <v>0.000222314855087282</v>
       </c>
       <c r="BN3">
-        <v>0.0002034877977133442</v>
+        <v>0.0001972595530848859</v>
       </c>
       <c r="BO3">
-        <v>0.0002503579517933293</v>
+        <v>0.0002441855941305891</v>
       </c>
       <c r="BP3">
-        <v>0.0003671984019641362</v>
+        <v>0.0003611653623463514</v>
       </c>
       <c r="BQ3">
-        <v>0.000130121961326945</v>
+        <v>0.0001238062368498818</v>
       </c>
       <c r="BR3">
-        <v>4.092829856275437E-05</v>
+        <v>3.450622147663719E-05</v>
       </c>
       <c r="BS3">
-        <v>5.385974968842012E-05</v>
+        <v>4.745309178706841E-05</v>
       </c>
       <c r="BT3">
-        <v>1.047893291217728E-05</v>
+        <v>4.020548656014386E-06</v>
       </c>
       <c r="BU3">
-        <v>3.302539487481704E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>8.389584730302278E-08</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1.250218008829828E-09</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.55759673558674E-05</v>
+        <v>9.12366069417395E-06</v>
       </c>
       <c r="BY3">
-        <v>0.0001340659116702607</v>
+        <v>0.0001277548898749351</v>
       </c>
       <c r="BZ3">
-        <v>0.0002583327824875277</v>
+        <v>0.0002521699338417379</v>
       </c>
       <c r="CA3">
-        <v>0.0001812113757742111</v>
+        <v>0.000174956569218367</v>
       </c>
       <c r="CB3">
-        <v>0.0002554587822373498</v>
+        <v>0.0002492925066953484</v>
       </c>
       <c r="CC3">
-        <v>0.0004458826788134987</v>
+        <v>0.0004399434606385733</v>
       </c>
       <c r="CD3">
-        <v>0.000325628728345551</v>
+        <v>0.0003195461219411823</v>
       </c>
       <c r="CE3">
-        <v>0.0002659536231509119</v>
+        <v>0.0002597998614319577</v>
       </c>
       <c r="CF3">
-        <v>0.0002169104888817718</v>
+        <v>0.0002106982491821621</v>
       </c>
       <c r="CG3">
-        <v>4.271253771807004E-05</v>
+        <v>3.629258812042528E-05</v>
       </c>
       <c r="CH3">
-        <v>1.469198627891801E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.309103462150449E-05</v>
+        <v>4.668346012080645E-05</v>
       </c>
       <c r="CJ3">
-        <v>5.623942089556736E-05</v>
+        <v>4.98356004630865E-05</v>
       </c>
       <c r="CK3">
-        <v>6.4830655643423E-07</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>2.030739476773192E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>2.030739476773192E-06</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08414821732499125</v>
+        <v>0.08424208297408667</v>
       </c>
       <c r="CO3">
-        <v>0.01982685872590188</v>
+        <v>0.01984402896757806</v>
       </c>
       <c r="CP3">
-        <v>0.09515142828280625</v>
+        <v>0.09525841392447815</v>
       </c>
       <c r="CQ3">
-        <v>0.001068091692975972</v>
+        <v>0.001062894383474627</v>
       </c>
       <c r="CR3">
-        <v>0.000604123852588184</v>
+        <v>0.0005983733177924266</v>
       </c>
       <c r="CS3">
-        <v>0.001274232010920215</v>
+        <v>0.001269280498709452</v>
       </c>
       <c r="CT3">
-        <v>0.05167079049787412</v>
+        <v>0.05172593076030661</v>
       </c>
       <c r="CU3">
-        <v>0.00468251200760649</v>
+        <v>0.004681624455309478</v>
       </c>
       <c r="CV3">
-        <v>0.02316204701622562</v>
+        <v>0.0231831940648337</v>
       </c>
       <c r="CW3">
-        <v>0.02488492216619963</v>
+        <v>0.02490812353415726</v>
       </c>
       <c r="CX3">
-        <v>0.002260270196753537</v>
+        <v>0.002256494415311535</v>
       </c>
       <c r="CY3">
-        <v>9.010614784362124E-06</v>
+        <v>2.550479737179164E-06</v>
       </c>
       <c r="CZ3">
-        <v>0.004402034883191326</v>
+        <v>0.004400812895991239</v>
       </c>
       <c r="DA3">
-        <v>0.006857674196951487</v>
+        <v>0.006859380261362023</v>
       </c>
       <c r="DB3">
-        <v>0.01696727747697911</v>
+        <v>0.01698103801535126</v>
       </c>
       <c r="DC3">
-        <v>0.002214680592785023</v>
+        <v>0.00221085045127777</v>
       </c>
       <c r="DD3">
-        <v>0.01109360196568341</v>
+        <v>0.0111003588594467</v>
       </c>
       <c r="DE3">
-        <v>0.001099592495718075</v>
+        <v>0.001094432747097796</v>
       </c>
       <c r="DF3">
-        <v>0.005377268868084158</v>
+        <v>0.005377209728955527</v>
       </c>
       <c r="DG3">
-        <v>0.02379849907162793</v>
+        <v>0.02382040501200626</v>
       </c>
       <c r="DH3">
-        <v>0.002765234540710017</v>
+        <v>0.002762060867913346</v>
       </c>
       <c r="DI3">
-        <v>0.001359371718331514</v>
+        <v>0.001354521724880456</v>
       </c>
       <c r="DJ3">
-        <v>0.000870182315748222</v>
+        <v>0.0008647490233533377</v>
       </c>
       <c r="DK3">
-        <v>0.001106523096321375</v>
+        <v>0.001101371611600499</v>
       </c>
       <c r="DL3">
-        <v>4.04992435254057E-05</v>
+        <v>3.40766548432711E-05</v>
       </c>
       <c r="DM3">
-        <v>0.002058968179230462</v>
+        <v>0.002054952369583452</v>
       </c>
       <c r="DN3">
-        <v>0.0002285132598917777</v>
+        <v>0.000222314855087282</v>
       </c>
       <c r="DO3">
-        <v>0.003017061662631236</v>
+        <v>0.003014188263089601</v>
       </c>
       <c r="DP3">
-        <v>0.002949350756737091</v>
+        <v>0.002946396620164595</v>
       </c>
       <c r="DQ3">
-        <v>0.006987640308264867</v>
+        <v>0.006989501341476978</v>
       </c>
       <c r="DR3">
-        <v>0.004991124834470829</v>
+        <v>0.004990605265484597</v>
       </c>
       <c r="DS3">
-        <v>0.006366906354230795</v>
+        <v>0.006368027237599364</v>
       </c>
       <c r="DT3">
-        <v>3.912884340611418E-05</v>
+        <v>3.270462068829119E-05</v>
       </c>
       <c r="DU3">
-        <v>0.004242889069337894</v>
+        <v>0.004241477320085225</v>
       </c>
       <c r="DV3">
-        <v>0.002916576153884105</v>
+        <v>0.002913582937578631</v>
       </c>
       <c r="DW3">
-        <v>0.02160627188079745</v>
+        <v>0.02162556385652674</v>
       </c>
       <c r="DX3">
-        <v>0.007464502649775103</v>
+        <v>0.007466932283408002</v>
       </c>
       <c r="DY3">
-        <v>0.02600145026339193</v>
+        <v>0.02602598295548783</v>
       </c>
       <c r="DZ3">
-        <v>0.005850760809301006</v>
+        <v>0.005851266251800193</v>
       </c>
       <c r="EA3">
-        <v>0.03645704617353775</v>
+        <v>0.03649404589378115</v>
       </c>
       <c r="EB3">
-        <v>0.02283338998761646</v>
+        <v>0.02285414515263782</v>
       </c>
       <c r="EC3">
-        <v>0.002867156849582219</v>
+        <v>0.002864104706759017</v>
       </c>
       <c r="ED3">
-        <v>0.001675906645885461</v>
+        <v>0.001671434081888008</v>
       </c>
       <c r="EE3">
-        <v>6.006680522873612E-07</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.008432624734048853</v>
+        <v>0.008436208735675559</v>
       </c>
       <c r="EG3">
-        <v>0.01580824437608681</v>
+        <v>0.01582062290826659</v>
       </c>
       <c r="EH3">
-        <v>0.0153438903356654</v>
+        <v>0.01535571518205415</v>
       </c>
       <c r="EI3">
-        <v>0.02560787122913139</v>
+        <v>0.0256319346260345</v>
       </c>
       <c r="EJ3">
-        <v>0.03762038027480445</v>
+        <v>0.03765876712966074</v>
       </c>
       <c r="EK3">
-        <v>0.01937401668648258</v>
+        <v>0.01939064696903062</v>
       </c>
       <c r="EL3">
-        <v>0.0003837012134006842</v>
+        <v>0.0003776878513810449</v>
       </c>
       <c r="EM3">
-        <v>0.009332919812418352</v>
+        <v>0.009337577306572843</v>
       </c>
       <c r="EN3">
-        <v>0.014802648288551</v>
+        <v>0.01481382776953982</v>
       </c>
       <c r="EO3">
-        <v>0.003732195324882677</v>
+        <v>0.003730174635370497</v>
       </c>
       <c r="EP3">
-        <v>0.00955071183137686</v>
+        <v>0.009555629016060134</v>
       </c>
       <c r="EQ3">
-        <v>0.02553371522267621</v>
+        <v>0.02555769019754888</v>
       </c>
       <c r="ER3">
-        <v>0.0238538550764466</v>
+        <v>0.02387582702213693</v>
       </c>
       <c r="ES3">
-        <v>0.01122145197681258</v>
+        <v>0.01122836131618501</v>
       </c>
       <c r="ET3">
-        <v>0.01306775213753058</v>
+        <v>0.01307686296558621</v>
       </c>
       <c r="EU3">
-        <v>0.006009555523123876</v>
+        <v>0.006010250309031504</v>
       </c>
       <c r="EV3">
-        <v>0.0003599330313316953</v>
+        <v>0.0003538913286419101</v>
       </c>
       <c r="EW3">
-        <v>0.006825582594157957</v>
+        <v>0.006827250393230126</v>
       </c>
       <c r="EX3">
-        <v>0.004923265828563792</v>
+        <v>0.004922665345955422</v>
       </c>
       <c r="EY3">
-        <v>0.00432901037683464</v>
+        <v>0.004327701316780549</v>
       </c>
       <c r="EZ3">
-        <v>0.004099135356824323</v>
+        <v>0.004097552198730339</v>
       </c>
       <c r="FA3">
-        <v>0.006480079564082373</v>
+        <v>0.006481335392757253</v>
       </c>
       <c r="FB3">
-        <v>0.004135090359954159</v>
+        <v>0.00413355007383418</v>
       </c>
       <c r="FC3">
-        <v>0.005976050220207284</v>
+        <v>0.005976705055110862</v>
       </c>
       <c r="FD3">
-        <v>0.01357919418205093</v>
+        <v>0.01358891484262301</v>
       </c>
       <c r="FE3">
-        <v>0.005061042940557108</v>
+        <v>0.005060606740419872</v>
       </c>
       <c r="FF3">
-        <v>0.0007725827272523067</v>
+        <v>0.0007670330592029482</v>
       </c>
       <c r="FG3">
-        <v>0.004183240364145553</v>
+        <v>0.004181757491057095</v>
       </c>
       <c r="FH3">
-        <v>0.01410210522756965</v>
+        <v>0.0141124493960488</v>
       </c>
       <c r="FI3">
-        <v>0.01243753558267106</v>
+        <v>0.01244589495403346</v>
       </c>
       <c r="FJ3">
-        <v>0.001444383725731697</v>
+        <v>0.001439635098773591</v>
       </c>
       <c r="FK3">
-        <v>0.001478391728692049</v>
+        <v>0.001473683652146735</v>
       </c>
       <c r="FL3">
-        <v>2.843926547560052E-05</v>
+        <v>2.200229673449108E-05</v>
       </c>
       <c r="FM3">
-        <v>0.002859132848883741</v>
+        <v>0.002856071138414331</v>
       </c>
       <c r="FN3">
-        <v>0.002428459411394187</v>
+        <v>0.002424884175161759</v>
       </c>
       <c r="FO3">
-        <v>0.006658675579628921</v>
+        <v>0.006660144362359407</v>
       </c>
       <c r="FP3">
-        <v>0.0009416801319720126</v>
+        <v>0.000936332092038586</v>
       </c>
       <c r="FQ3">
-        <v>0.006141793034634978</v>
+        <v>0.006142645497713025</v>
       </c>
       <c r="FR3">
-        <v>0.005108992444731049</v>
+        <v>0.005108613418553416</v>
       </c>
       <c r="FS3">
-        <v>0.001448381826079726</v>
+        <v>0.001443637966370661</v>
       </c>
       <c r="FT3">
-        <v>0.002250360495890911</v>
+        <v>0.002246572898334299</v>
       </c>
       <c r="FU3">
-        <v>0.0002985855259914759</v>
+        <v>0.0002924706738530674</v>
       </c>
       <c r="FV3">
-        <v>0.0003762735327541144</v>
+        <v>0.0003702513141274977</v>
       </c>
       <c r="FW3">
-        <v>0.003808843031554759</v>
+        <v>0.003806913735122871</v>
       </c>
       <c r="FX3">
-        <v>0.003292312286591439</v>
+        <v>0.003289767089985918</v>
       </c>
       <c r="FY3">
-        <v>0.0006882284599093791</v>
+        <v>0.0006825782096421954</v>
       </c>
       <c r="FZ3">
-        <v>0.0003366409493041503</v>
+        <v>0.0003305714736356897</v>
       </c>
       <c r="GA3">
-        <v>0.001321875515067519</v>
+        <v>0.001316980811948496</v>
       </c>
       <c r="GB3">
-        <v>0.000392226234142776</v>
+        <v>0.0003862230371748911</v>
       </c>
       <c r="GC3">
-        <v>0.0003864766636422835</v>
+        <v>0.0003804666110099408</v>
       </c>
       <c r="GD3">
-        <v>0.007014477310600992</v>
+        <v>0.007016370343678668</v>
       </c>
       <c r="GE3">
-        <v>0.01410210522756965</v>
+        <v>0.0141124493960488</v>
       </c>
       <c r="GF3">
-        <v>0.007890643686870117</v>
+        <v>0.007893581441929086</v>
       </c>
       <c r="GG3">
-        <v>0.002816149245142075</v>
+        <v>0.00281303628194615</v>
       </c>
       <c r="GH3">
-        <v>0.0006252401544263302</v>
+        <v>0.0006195147982556506</v>
       </c>
       <c r="GI3">
-        <v>0.0001502792130816071</v>
+        <v>0.0001439875236788871</v>
       </c>
       <c r="GJ3">
-        <v>0.0006872351598229137</v>
+        <v>0.0006815837251660269</v>
       </c>
       <c r="GK3">
-        <v>4.931708429298709E-06</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.00318137207693424</v>
+        <v>0.003178694597603911</v>
       </c>
       <c r="GM3">
-        <v>0.00760593336208646</v>
+        <v>0.007608531634665093</v>
       </c>
       <c r="GN3">
-        <v>0.01433111124750432</v>
+        <v>0.01434172847784633</v>
       </c>
       <c r="GO3">
-        <v>0.01169332401788842</v>
+        <v>0.01170079600735451</v>
       </c>
       <c r="GP3">
-        <v>0.003139789073314495</v>
+        <v>0.003137062011303174</v>
       </c>
       <c r="GQ3">
-        <v>0.001136313598914599</v>
+        <v>0.0011311976357496</v>
       </c>
       <c r="GR3">
-        <v>0.0001379054420044867</v>
+        <v>0.0001315989983827212</v>
       </c>
       <c r="GS3">
-        <v>8.611442749614726E-06</v>
+        <v>2.150831738265242E-06</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002966240502964991</v>
+        <v>0.0002852931269658209</v>
       </c>
       <c r="C4">
-        <v>0.0005331894864834879</v>
+        <v>0.0005223867832208226</v>
       </c>
       <c r="D4">
-        <v>0.0003218760220243652</v>
+        <v>0.0003106014830854162</v>
       </c>
       <c r="E4">
-        <v>2.322956558948291E-05</v>
+        <v>1.128818768169507E-05</v>
       </c>
       <c r="F4">
-        <v>1.819639124508798E-05</v>
+        <v>6.243774908993077E-06</v>
       </c>
       <c r="G4">
-        <v>9.157723626617192E-05</v>
+        <v>7.97884698803176E-05</v>
       </c>
       <c r="H4">
-        <v>6.153700721066941E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.310011989637564E-05</v>
+        <v>1.136124244511628E-06</v>
       </c>
       <c r="J4">
-        <v>4.63273531699489E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.654303681620716E-05</v>
+        <v>1.460905746175387E-05</v>
       </c>
       <c r="L4">
-        <v>8.620450589854288E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1.660402513613033E-05</v>
+        <v>4.647853252158567E-06</v>
       </c>
       <c r="N4">
-        <v>1.196652681880954E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.93194067959299E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5.657764387132499E-05</v>
+        <v>4.471072791563827E-05</v>
       </c>
       <c r="Q4">
-        <v>6.472230442862335E-05</v>
+        <v>5.287357444812751E-05</v>
       </c>
       <c r="R4">
-        <v>2.549647974459649E-05</v>
+        <v>1.35601635633588E-05</v>
       </c>
       <c r="S4">
-        <v>0.0001975925535202695</v>
+        <v>0.0001860405056466077</v>
       </c>
       <c r="T4">
-        <v>0.0006679276457029458</v>
+        <v>0.0006574257953492007</v>
       </c>
       <c r="U4">
-        <v>0.0004068730878402889</v>
+        <v>0.0003957883363724509</v>
       </c>
       <c r="V4">
-        <v>0.0002092975343211827</v>
+        <v>0.0001977716221580221</v>
       </c>
       <c r="W4">
-        <v>0.0002216446851660364</v>
+        <v>0.0002101463425961526</v>
       </c>
       <c r="X4">
-        <v>0.000108468783421976</v>
+        <v>9.671773367947959E-05</v>
       </c>
       <c r="Y4">
-        <v>1.938720332656929E-05</v>
+        <v>7.437245920066171E-06</v>
       </c>
       <c r="Z4">
-        <v>0.000110185043539411</v>
+        <v>9.84378259841123E-05</v>
       </c>
       <c r="AA4">
-        <v>0.0001297192088760362</v>
+        <v>0.0001180156085892151</v>
       </c>
       <c r="AB4">
-        <v>1.045597371544995E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.324807590649953E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.712103554000667E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>8.904250609273302E-05</v>
+        <v>7.724807998174646E-05</v>
       </c>
       <c r="AF4">
-        <v>0.0002906470798875249</v>
+        <v>0.000279302810753813</v>
       </c>
       <c r="AG4">
-        <v>0.0002172708748667585</v>
+        <v>0.0002057627661433275</v>
       </c>
       <c r="AH4">
-        <v>6.285584430091082E-05</v>
+        <v>5.100294675599182E-05</v>
       </c>
       <c r="AI4">
-        <v>3.748613956498891E-05</v>
+        <v>2.557659474573824E-05</v>
       </c>
       <c r="AJ4">
-        <v>0.000195180183355203</v>
+        <v>0.0001836227489705057</v>
       </c>
       <c r="AK4">
-        <v>0.0002100730343742463</v>
+        <v>0.000198548853802553</v>
       </c>
       <c r="AL4">
-        <v>2.767644589376067E-05</v>
+        <v>1.574499729540464E-05</v>
       </c>
       <c r="AM4">
-        <v>3.193019218482324E-05</v>
+        <v>2.000824165258959E-05</v>
       </c>
       <c r="AN4">
-        <v>3.711022053926665E-05</v>
+        <v>2.51998363413792E-05</v>
       </c>
       <c r="AO4">
-        <v>2.035757939296727E-05</v>
+        <v>8.409788710902228E-06</v>
       </c>
       <c r="AP4">
-        <v>0.0001680993415021966</v>
+        <v>0.000156481439094968</v>
       </c>
       <c r="AQ4">
-        <v>0.0002021203838300862</v>
+        <v>0.0001905784460167645</v>
       </c>
       <c r="AR4">
-        <v>5.276350861034281E-07</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.039168639530104E-06</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.138864446351789E-05</v>
+        <v>9.443156016599583E-06</v>
       </c>
       <c r="AU4">
-        <v>9.421379644657854E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001798401023055581</v>
+        <v>0.0001682484155009554</v>
       </c>
       <c r="AW4">
-        <v>0.0001341972791824481</v>
+        <v>0.0001225036778483056</v>
       </c>
       <c r="AX4">
-        <v>0.0001674057114547349</v>
+        <v>0.0001557862602611886</v>
       </c>
       <c r="AY4">
-        <v>0.0002967618503059281</v>
+        <v>0.0002854312346648749</v>
       </c>
       <c r="AZ4">
-        <v>9.542400152938682E-05</v>
+        <v>8.364382447357884E-05</v>
       </c>
       <c r="BA4">
-        <v>1.357895692914006E-05</v>
+        <v>1.616030458531311E-06</v>
       </c>
       <c r="BB4">
-        <v>2.654303681620716E-05</v>
+        <v>1.460905746175387E-05</v>
       </c>
       <c r="BC4">
-        <v>6.327455132956085E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>7.987973546577049E-05</v>
+        <v>6.806485007129023E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0001668751914184341</v>
+        <v>0.0001552545556421601</v>
       </c>
       <c r="BF4">
-        <v>0.0001315954490044179</v>
+        <v>0.0001198960381194984</v>
       </c>
       <c r="BG4">
-        <v>0.0002732134186946268</v>
+        <v>0.0002618302224469229</v>
       </c>
       <c r="BH4">
-        <v>0.0002293471056930745</v>
+        <v>0.0002178659616335066</v>
       </c>
       <c r="BI4">
-        <v>7.553923516877178E-05</v>
+        <v>6.371465799767763E-05</v>
       </c>
       <c r="BJ4">
-        <v>1.963689334365433E-07</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>9.660112660993158E-07</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>5.224631757495401E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.935198432415943E-05</v>
+        <v>7.40194827817225E-06</v>
       </c>
       <c r="BN4">
-        <v>6.886901471236199E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>2.566355375602853E-05</v>
+        <v>1.372761062948177E-05</v>
       </c>
       <c r="BP4">
-        <v>0.0002443794167216604</v>
+        <v>0.0002329318378712874</v>
       </c>
       <c r="BQ4">
-        <v>0.0001553170106275657</v>
+        <v>0.0001436705669262547</v>
       </c>
       <c r="BR4">
-        <v>5.529019878323157E-05</v>
+        <v>4.342040812892886E-05</v>
       </c>
       <c r="BS4">
-        <v>4.693590021158873E-05</v>
+        <v>3.504745548748258E-05</v>
       </c>
       <c r="BT4">
-        <v>1.908215130569611E-05</v>
+        <v>7.131512757426E-06</v>
       </c>
       <c r="BU4">
-        <v>9.878216675916926E-05</v>
+        <v>8.70094880526327E-05</v>
       </c>
       <c r="BV4">
-        <v>0.0001926088531792598</v>
+        <v>0.0001810456773463512</v>
       </c>
       <c r="BW4">
-        <v>0.0001083854574162744</v>
+        <v>9.663422161756831E-05</v>
       </c>
       <c r="BX4">
-        <v>5.822694598417848E-05</v>
+        <v>4.636371270711238E-05</v>
       </c>
       <c r="BY4">
-        <v>7.056133982815931E-05</v>
+        <v>5.872564765963459E-05</v>
       </c>
       <c r="BZ4">
-        <v>1.676062114684542E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>1.800754223216598E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>5.448379872805364E-09</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1.523755204262942E-09</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>2.601712678022177E-05</v>
+        <v>1.408197313657622E-05</v>
       </c>
       <c r="CE4">
-        <v>5.086500848043795E-05</v>
+        <v>3.898533694767562E-05</v>
       </c>
       <c r="CF4">
-        <v>0.0002631338180049302</v>
+        <v>0.0002517281153106055</v>
       </c>
       <c r="CG4">
-        <v>0.0002352889260996436</v>
+        <v>0.0002238210493576934</v>
       </c>
       <c r="CH4">
-        <v>0.0001112645376132754</v>
+        <v>9.95197304288335E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0002274865255657644</v>
+        <v>0.0002160012270710548</v>
       </c>
       <c r="CJ4">
-        <v>0.0001674057114547349</v>
+        <v>0.0001557862602611886</v>
       </c>
       <c r="CK4">
-        <v>1.065595872913392E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>9.224406631179977E-05</v>
+        <v>8.045678887132028E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0003092617811612358</v>
+        <v>0.0002979590762514922</v>
       </c>
       <c r="CN4">
-        <v>0.1071921513346224</v>
+        <v>0.107419504318808</v>
       </c>
       <c r="CO4">
-        <v>0.0428476889318529</v>
+        <v>0.04293136904119054</v>
       </c>
       <c r="CP4">
-        <v>0.09739346666414746</v>
+        <v>0.09759894045090463</v>
       </c>
       <c r="CQ4">
-        <v>0.0004952255338858047</v>
+        <v>0.0004843380620198032</v>
       </c>
       <c r="CR4">
-        <v>0.002599876177896514</v>
+        <v>0.002593688119115711</v>
       </c>
       <c r="CS4">
-        <v>0.0007104758486143062</v>
+        <v>0.0007000690029028196</v>
       </c>
       <c r="CT4">
-        <v>0.03827752261913929</v>
+        <v>0.03835099813730992</v>
       </c>
       <c r="CU4">
-        <v>0.00385329426366164</v>
+        <v>0.003849904925595</v>
       </c>
       <c r="CV4">
-        <v>0.02306495057821913</v>
+        <v>0.02310445838763389</v>
       </c>
       <c r="CW4">
-        <v>0.01404204296082672</v>
+        <v>0.01406140378278569</v>
       </c>
       <c r="CX4">
-        <v>0.002033115739115934</v>
+        <v>0.00202566217746901</v>
       </c>
       <c r="CY4">
-        <v>1.908215130569611E-05</v>
+        <v>7.131512757426E-06</v>
       </c>
       <c r="CZ4">
-        <v>0.006479239043341899</v>
+        <v>0.006481713100843427</v>
       </c>
       <c r="DA4">
-        <v>0.001070453973245808</v>
+        <v>0.00106085091219763</v>
       </c>
       <c r="DB4">
-        <v>0.01651529913005926</v>
+        <v>0.01654018241363808</v>
       </c>
       <c r="DC4">
-        <v>0.004045912776841561</v>
+        <v>0.004042953531039338</v>
       </c>
       <c r="DD4">
-        <v>0.00456813231257443</v>
+        <v>0.004566339115554009</v>
       </c>
       <c r="DE4">
-        <v>0.002075531142018208</v>
+        <v>0.002068172288488272</v>
       </c>
       <c r="DF4">
-        <v>0.005849568100256667</v>
+        <v>0.005850636183860473</v>
       </c>
       <c r="DG4">
-        <v>0.02253637954205166</v>
+        <v>0.0225747071206044</v>
       </c>
       <c r="DH4">
-        <v>0.001142100878148247</v>
+        <v>0.001132657795385952</v>
       </c>
       <c r="DI4">
-        <v>0.002929431400446329</v>
+        <v>0.002923979195917419</v>
       </c>
       <c r="DJ4">
-        <v>0.0001904479430313995</v>
+        <v>0.0001788799421651993</v>
       </c>
       <c r="DK4">
-        <v>0.0005646197386341027</v>
+        <v>0.000553887215065463</v>
       </c>
       <c r="DL4">
-        <v>0.0004707024522078129</v>
+        <v>0.0004597602234674319</v>
       </c>
       <c r="DM4">
-        <v>0.003263847623328757</v>
+        <v>0.003259142127037715</v>
       </c>
       <c r="DN4">
-        <v>8.604587588768861E-05</v>
+        <v>7.424475868845083E-05</v>
       </c>
       <c r="DO4">
-        <v>0.002653505381566092</v>
+        <v>0.002647437069871196</v>
       </c>
       <c r="DP4">
-        <v>0.004510915308659357</v>
+        <v>0.004508994353458423</v>
       </c>
       <c r="DQ4">
-        <v>0.006950971475620188</v>
+        <v>0.006954498850721609</v>
       </c>
       <c r="DR4">
-        <v>0.003699475953136623</v>
+        <v>0.003695743158647283</v>
       </c>
       <c r="DS4">
-        <v>0.00436602429874519</v>
+        <v>0.004363779820630913</v>
       </c>
       <c r="DT4">
-        <v>0.0001984587435795385</v>
+        <v>0.0001869086297964159</v>
       </c>
       <c r="DU4">
-        <v>0.00366261525061443</v>
+        <v>0.003658800150936694</v>
       </c>
       <c r="DV4">
-        <v>0.003733247555447445</v>
+        <v>0.003729590168584667</v>
       </c>
       <c r="DW4">
-        <v>0.01712195917156997</v>
+        <v>0.01714819704867501</v>
       </c>
       <c r="DX4">
-        <v>0.01572444407594501</v>
+        <v>0.01574756148232213</v>
       </c>
       <c r="DY4">
-        <v>0.02812154592421664</v>
+        <v>0.02817234445801036</v>
       </c>
       <c r="DZ4">
-        <v>0.009373282641366817</v>
+        <v>0.009382218724474541</v>
       </c>
       <c r="EA4">
-        <v>0.04198565587286829</v>
+        <v>0.04206741117371156</v>
       </c>
       <c r="EB4">
-        <v>0.02165198148153672</v>
+        <v>0.02168833431343499</v>
       </c>
       <c r="EC4">
-        <v>0.004653971018447943</v>
+        <v>0.004652369488172189</v>
       </c>
       <c r="ED4">
-        <v>0.002492836170572302</v>
+        <v>0.002486409105278713</v>
       </c>
       <c r="EE4">
-        <v>0.0001064715072853123</v>
+        <v>9.471599788313892E-05</v>
       </c>
       <c r="EF4">
-        <v>0.00646374094228144</v>
+        <v>0.006466180394524786</v>
       </c>
       <c r="EG4">
-        <v>0.01518526503905168</v>
+        <v>0.01520717852827113</v>
       </c>
       <c r="EH4">
-        <v>0.01283640037833063</v>
+        <v>0.01285306915610432</v>
       </c>
       <c r="EI4">
-        <v>0.02360718161532128</v>
+        <v>0.02364790015661604</v>
       </c>
       <c r="EJ4">
-        <v>0.04023684875320617</v>
+        <v>0.04031469919359908</v>
       </c>
       <c r="EK4">
-        <v>0.01953738333684536</v>
+        <v>0.01956901454417407</v>
       </c>
       <c r="EL4">
-        <v>0.0001020719269842711</v>
+        <v>9.030659388746457E-05</v>
       </c>
       <c r="EM4">
-        <v>0.01096955075059145</v>
+        <v>0.01098205109423872</v>
       </c>
       <c r="EN4">
-        <v>0.01091803574706654</v>
+        <v>0.01093042106436379</v>
       </c>
       <c r="EO4">
-        <v>0.002286653456464251</v>
+        <v>0.002279766011797307</v>
       </c>
       <c r="EP4">
-        <v>0.007543664916175234</v>
+        <v>0.007548515699186647</v>
       </c>
       <c r="EQ4">
-        <v>0.02069663541616717</v>
+        <v>0.02073085508367863</v>
       </c>
       <c r="ER4">
-        <v>0.01946114333162863</v>
+        <v>0.01949260430487163</v>
       </c>
       <c r="ES4">
-        <v>0.01045776571557257</v>
+        <v>0.01046912330933057</v>
       </c>
       <c r="ET4">
-        <v>0.01316718590096463</v>
+        <v>0.01318459328009141</v>
       </c>
       <c r="EU4">
-        <v>0.005117636350174241</v>
+        <v>0.005117070124704664</v>
       </c>
       <c r="EV4">
-        <v>0.0005265772360310447</v>
+        <v>0.0005157597684670511</v>
       </c>
       <c r="EW4">
-        <v>0.008494277581220899</v>
+        <v>0.008501250959547494</v>
       </c>
       <c r="EX4">
-        <v>0.006158948821426042</v>
+        <v>0.006160707712225573</v>
       </c>
       <c r="EY4">
-        <v>0.003100661212162728</v>
+        <v>0.003095591341690088</v>
       </c>
       <c r="EZ4">
-        <v>0.004231503289540591</v>
+        <v>0.004228958443385334</v>
       </c>
       <c r="FA4">
-        <v>0.005960898907874477</v>
+        <v>0.005962215578793994</v>
       </c>
       <c r="FB4">
-        <v>0.002431749766392466</v>
+        <v>0.002425186303047281</v>
       </c>
       <c r="FC4">
-        <v>0.006064311414950478</v>
+        <v>0.006065858992643197</v>
       </c>
       <c r="FD4">
-        <v>0.01244196585134145</v>
+        <v>0.0124577539077552</v>
       </c>
       <c r="FE4">
-        <v>0.002347501360627769</v>
+        <v>0.002340749781472683</v>
       </c>
       <c r="FF4">
-        <v>0.00152551360438326</v>
+        <v>0.001516926632723218</v>
       </c>
       <c r="FG4">
-        <v>0.006042584413463808</v>
+        <v>0.006044083477568118</v>
       </c>
       <c r="FH4">
-        <v>0.01635849611933001</v>
+        <v>0.01638302928203603</v>
       </c>
       <c r="FI4">
-        <v>0.01187278581239531</v>
+        <v>0.01188730296328825</v>
       </c>
       <c r="FJ4">
-        <v>0.0008761050599474842</v>
+        <v>0.0008660680428748955</v>
       </c>
       <c r="FK4">
-        <v>0.001411995796615805</v>
+        <v>0.001403155354351155</v>
       </c>
       <c r="FL4">
-        <v>6.327455132956085E-06</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002388827863455534</v>
+        <v>0.002382168561044195</v>
       </c>
       <c r="FN4">
-        <v>0.002220422151932374</v>
+        <v>0.002213386821315781</v>
       </c>
       <c r="FO4">
-        <v>0.005689050889273278</v>
+        <v>0.005689760558674783</v>
       </c>
       <c r="FP4">
-        <v>0.0001631851111659404</v>
+        <v>0.0001515562359170141</v>
       </c>
       <c r="FQ4">
-        <v>0.006544823447829511</v>
+        <v>0.006547443946836432</v>
       </c>
       <c r="FR4">
-        <v>0.006029210912548726</v>
+        <v>0.006030680115352599</v>
       </c>
       <c r="FS4">
-        <v>0.001756956820219762</v>
+        <v>0.001748886631371193</v>
       </c>
       <c r="FT4">
-        <v>0.001822927124733779</v>
+        <v>0.001815004239055526</v>
       </c>
       <c r="FU4">
-        <v>0.0007894561540185334</v>
+        <v>0.0007792256611291865</v>
       </c>
       <c r="FV4">
-        <v>0.0006280343429732467</v>
+        <v>0.0006174434160264845</v>
       </c>
       <c r="FW4">
-        <v>0.003905690767246871</v>
+        <v>0.003902418423806045</v>
       </c>
       <c r="FX4">
-        <v>0.003479461938082165</v>
+        <v>0.003475237880710685</v>
       </c>
       <c r="FY4">
-        <v>0.0008415980275863408</v>
+        <v>0.0008314839607668638</v>
       </c>
       <c r="FZ4">
-        <v>0.0002852123495156536</v>
+        <v>0.0002738559453308838</v>
       </c>
       <c r="GA4">
-        <v>0.0008258335865076589</v>
+        <v>0.0008156843197271353</v>
       </c>
       <c r="GB4">
-        <v>0.0002334043359706905</v>
+        <v>0.0002219322511823658</v>
       </c>
       <c r="GC4">
-        <v>0.0008240655863866835</v>
+        <v>0.0008139123718902162</v>
       </c>
       <c r="GD4">
-        <v>0.008495016581271466</v>
+        <v>0.008501991609689737</v>
       </c>
       <c r="GE4">
-        <v>0.01473702800838107</v>
+        <v>0.01475794064219812</v>
       </c>
       <c r="GF4">
-        <v>0.00747609891155203</v>
+        <v>0.00748079882840086</v>
       </c>
       <c r="GG4">
-        <v>0.003286615724886664</v>
+        <v>0.003281961066826038</v>
       </c>
       <c r="GH4">
-        <v>0.001037812971012347</v>
+        <v>0.00102813702682157</v>
       </c>
       <c r="GI4">
-        <v>9.660112660993158E-07</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0007707686127398384</v>
+        <v>0.0007604963929841989</v>
       </c>
       <c r="GK4">
-        <v>2.322956558948291E-05</v>
+        <v>1.128818768169507E-05</v>
       </c>
       <c r="GL4">
-        <v>0.003112097012945222</v>
+        <v>0.003107052677138865</v>
       </c>
       <c r="GM4">
-        <v>0.006928751674099798</v>
+        <v>0.006932229435253976</v>
       </c>
       <c r="GN4">
-        <v>0.01191442631524456</v>
+        <v>0.01192903644400274</v>
       </c>
       <c r="GO4">
-        <v>0.007438198208958675</v>
+        <v>0.00744281349843326</v>
       </c>
       <c r="GP4">
-        <v>0.001660281113604727</v>
+        <v>0.001651995060388369</v>
       </c>
       <c r="GQ4">
-        <v>0.001089745974565863</v>
+        <v>0.001080185990065187</v>
       </c>
       <c r="GR4">
-        <v>0.0001014509869417833</v>
+        <v>8.968426736605252E-05</v>
       </c>
       <c r="GS4">
-        <v>1.566540107190499E-05</v>
+        <v>3.707133361615417E-06</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001696075602529913</v>
+        <v>0.0001463772912672021</v>
       </c>
       <c r="C5">
-        <v>6.889960310277255E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.715547702558958E-07</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.060433012023165E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001146350101709928</v>
+        <v>9.117420575308478E-05</v>
       </c>
       <c r="G5">
-        <v>2.384156003556273E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.767522010094622E-05</v>
+        <v>4.401748293242256E-05</v>
       </c>
       <c r="I5">
-        <v>1.468443952190372E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001788965602668471</v>
+        <v>0.000155705246061743</v>
       </c>
       <c r="K5">
-        <v>9.308132613884268E-05</v>
+        <v>6.953013319330241E-05</v>
       </c>
       <c r="L5">
-        <v>6.701999509996889E-05</v>
+        <v>4.335951014953389E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002169912603236702</v>
+        <v>0.000193959701817109</v>
       </c>
       <c r="N5">
-        <v>0.0002896076804319868</v>
+        <v>0.000266880649508076</v>
       </c>
       <c r="O5">
-        <v>0.0003438314005128684</v>
+        <v>0.000321331764692901</v>
       </c>
       <c r="P5">
-        <v>0.000526113200784765</v>
+        <v>0.0005043779903649362</v>
       </c>
       <c r="Q5">
-        <v>0.0004476691206677557</v>
+        <v>0.0004256049435203517</v>
       </c>
       <c r="R5">
-        <v>0.0001704996002543219</v>
+        <v>0.0001472730721687978</v>
       </c>
       <c r="S5">
-        <v>0.0001601531802388889</v>
+        <v>0.0001368832629271859</v>
       </c>
       <c r="T5">
-        <v>0.000208649900311228</v>
+        <v>0.0001855833610909823</v>
       </c>
       <c r="U5">
-        <v>2.084022703108586E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>4.346518006483387E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>9.261912013815324E-07</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>5.37215150801325E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0001416315402112615</v>
+        <v>0.000118283949692095</v>
       </c>
       <c r="Z5">
-        <v>0.0004324623406450728</v>
+        <v>0.0004103343916406523</v>
       </c>
       <c r="AA5">
-        <v>0.0001935668302887296</v>
+        <v>0.0001704370380074539</v>
       </c>
       <c r="AB5">
-        <v>2.077438203098764E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>5.225900607795098E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001771361902642213</v>
+        <v>0.0001539374936899413</v>
       </c>
       <c r="AE5">
-        <v>4.378409706530957E-05</v>
+        <v>2.002616897668836E-05</v>
       </c>
       <c r="AF5">
-        <v>0.0001118786401668813</v>
+        <v>8.84062765080607E-05</v>
       </c>
       <c r="AG5">
-        <v>0.0001341712602001336</v>
+        <v>0.0001107923839051839</v>
       </c>
       <c r="AH5">
-        <v>1.198136301787173E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>7.049148010514706E-05</v>
+        <v>4.68455533350142E-05</v>
       </c>
       <c r="AJ5">
-        <v>6.715356010016811E-05</v>
+        <v>4.349363527410411E-05</v>
       </c>
       <c r="AK5">
-        <v>4.808906007173097E-05</v>
+        <v>2.434918547536108E-05</v>
       </c>
       <c r="AL5">
-        <v>4.533915006762913E-05</v>
+        <v>2.158774332130189E-05</v>
       </c>
       <c r="AM5">
-        <v>3.548092005292433E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.083716701616502E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>4.648714006934151E-05</v>
+        <v>2.274054758705546E-05</v>
       </c>
       <c r="AP5">
-        <v>8.735395013029958E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000277130800413376</v>
+        <v>0.000254351445867543</v>
       </c>
       <c r="AR5">
-        <v>0.0002573993003839439</v>
+        <v>0.0002345371989057082</v>
       </c>
       <c r="AS5">
-        <v>0.0001537854702293907</v>
+        <v>0.0001304888489940665</v>
       </c>
       <c r="AT5">
-        <v>0.0002331932503478375</v>
+        <v>0.000210229637257049</v>
       </c>
       <c r="AU5">
-        <v>0.0001652859202465451</v>
+        <v>0.0001420375278310648</v>
       </c>
       <c r="AV5">
-        <v>0.0001439674102147458</v>
+        <v>0.0001206296155082134</v>
       </c>
       <c r="AW5">
-        <v>0.0003005208304482652</v>
+        <v>0.0002778395654157133</v>
       </c>
       <c r="AX5">
-        <v>0.0003525250605258362</v>
+        <v>0.0003300618828411525</v>
       </c>
       <c r="AY5">
-        <v>0.0001286436601918884</v>
+        <v>0.0001052416030975292</v>
       </c>
       <c r="AZ5">
-        <v>0.0001806001702693882</v>
+        <v>0.0001574160004020947</v>
       </c>
       <c r="BA5">
-        <v>0.0001828842002727951</v>
+        <v>0.0001597096088195105</v>
       </c>
       <c r="BB5">
-        <v>2.983348204450045E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>3.316884604947557E-05</v>
+        <v>9.366401352541032E-06</v>
       </c>
       <c r="BD5">
-        <v>6.801800510145754E-07</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>4.181654706237472E-06</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>2.571077903835091E-07</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>4.491235406699251E-05</v>
+        <v>2.115915748918963E-05</v>
       </c>
       <c r="BH5">
-        <v>7.685218611463485E-05</v>
+        <v>5.323293389582426E-05</v>
       </c>
       <c r="BI5">
-        <v>2.746153404096239E-05</v>
+        <v>3.635154896050511E-06</v>
       </c>
       <c r="BJ5">
-        <v>7.947339011854472E-05</v>
+        <v>5.586513030224795E-05</v>
       </c>
       <c r="BK5">
-        <v>0.0001571575602344206</v>
+        <v>0.0001338750803519224</v>
       </c>
       <c r="BL5">
-        <v>0.0002166077303230981</v>
+        <v>0.000193574563427363</v>
       </c>
       <c r="BM5">
-        <v>0.0004930210007354038</v>
+        <v>0.0004711470133327579</v>
       </c>
       <c r="BN5">
-        <v>0.0004254444206346046</v>
+        <v>0.000403287040955788</v>
       </c>
       <c r="BO5">
-        <v>6.039099809008088E-05</v>
+        <v>3.670271347075823E-05</v>
       </c>
       <c r="BP5">
-        <v>2.507421203740139E-05</v>
+        <v>1.237821308364772E-06</v>
       </c>
       <c r="BQ5">
-        <v>8.406915012539987E-05</v>
+        <v>6.048016330112393E-05</v>
       </c>
       <c r="BR5">
-        <v>4.890860307295343E-08</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>7.560041011276766E-05</v>
+        <v>5.197590838813869E-05</v>
       </c>
       <c r="BT5">
-        <v>2.704472504034066E-05</v>
+        <v>3.216597945898959E-06</v>
       </c>
       <c r="BU5">
-        <v>4.900836207310223E-05</v>
+        <v>2.527234270418345E-05</v>
       </c>
       <c r="BV5">
-        <v>0.0001432060802136102</v>
+        <v>0.0001198650927583234</v>
       </c>
       <c r="BW5">
-        <v>2.384156003556273E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>3.406087505080614E-07</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.312382401957586E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.979030802951977E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0001020745901522573</v>
+        <v>7.856111177521344E-05</v>
       </c>
       <c r="CB5">
-        <v>0.000256720200382931</v>
+        <v>0.000233855250999478</v>
       </c>
       <c r="CC5">
-        <v>0.0001898224402831444</v>
+        <v>0.000166676945354517</v>
       </c>
       <c r="CD5">
-        <v>0.0002351377203507379</v>
+        <v>0.0002121822616794132</v>
       </c>
       <c r="CE5">
-        <v>0.0002649286503951749</v>
+        <v>0.0002420981243478738</v>
       </c>
       <c r="CF5">
-        <v>0.0001652859202465451</v>
+        <v>0.0001420375278310648</v>
       </c>
       <c r="CG5">
-        <v>3.597328305365875E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.232865203330603E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>1.462485002181483E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>5.872433608759485E-08</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.406087505080614E-07</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>5.429891508099376E-05</v>
+        <v>3.058508242020481E-05</v>
       </c>
       <c r="CM5">
-        <v>0.0002478968203697697</v>
+        <v>0.0002249948688512321</v>
       </c>
       <c r="CN5">
-        <v>0.09660904014410472</v>
+        <v>0.09699024274626729</v>
       </c>
       <c r="CO5">
-        <v>0.01180376901760683</v>
+        <v>0.01182932830695352</v>
       </c>
       <c r="CP5">
-        <v>0.1060667261582121</v>
+        <v>0.1064875909504832</v>
       </c>
       <c r="CQ5">
-        <v>0.006122109009131907</v>
+        <v>0.00612384142591671</v>
       </c>
       <c r="CR5">
-        <v>0.0002439877103639388</v>
+        <v>0.0002210693654206274</v>
       </c>
       <c r="CS5">
-        <v>0.00143797960214493</v>
+        <v>0.001420068436899622</v>
       </c>
       <c r="CT5">
-        <v>0.03865398505765736</v>
+        <v>0.03879214465657752</v>
       </c>
       <c r="CU5">
-        <v>0.01122830001674844</v>
+        <v>0.01125144599263985</v>
       </c>
       <c r="CV5">
-        <v>0.01157199501726111</v>
+        <v>0.01159658232842516</v>
       </c>
       <c r="CW5">
-        <v>0.01535159802289887</v>
+        <v>0.01539203565228251</v>
       </c>
       <c r="CX5">
-        <v>0.0002456445403664102</v>
+        <v>0.0002227331435821344</v>
       </c>
       <c r="CY5">
-        <v>0.0006941560010354223</v>
+        <v>0.0006731255026857531</v>
       </c>
       <c r="CZ5">
-        <v>0.006293976009388269</v>
+        <v>0.006296429175585495</v>
       </c>
       <c r="DA5">
-        <v>0.002130654003178143</v>
+        <v>0.002115647669382742</v>
       </c>
       <c r="DB5">
-        <v>0.008855545013209176</v>
+        <v>0.008868740493821817</v>
       </c>
       <c r="DC5">
-        <v>0.003492675005209771</v>
+        <v>0.003483380505771516</v>
       </c>
       <c r="DD5">
-        <v>0.006857132010228288</v>
+        <v>0.00686194685351363</v>
       </c>
       <c r="DE5">
-        <v>8.77990601309635E-05</v>
+        <v>6.422571523004047E-05</v>
       </c>
       <c r="DF5">
-        <v>0.005565349008301429</v>
+        <v>0.005564746570559991</v>
       </c>
       <c r="DG5">
-        <v>0.02174271603243203</v>
+        <v>0.02180995575030989</v>
       </c>
       <c r="DH5">
-        <v>0.004264620006361226</v>
+        <v>0.004258562771233012</v>
       </c>
       <c r="DI5">
-        <v>0.001764474702631939</v>
+        <v>0.001747932742361899</v>
       </c>
       <c r="DJ5">
-        <v>3.812629405687024E-05</v>
+        <v>1.434463914350744E-05</v>
       </c>
       <c r="DK5">
-        <v>0.0006529384409739411</v>
+        <v>0.0006317350907553758</v>
       </c>
       <c r="DL5">
-        <v>0.0005201890607759283</v>
+        <v>0.0004984290066081774</v>
       </c>
       <c r="DM5">
-        <v>0.004786953007140352</v>
+        <v>0.00478308625187645</v>
       </c>
       <c r="DN5">
-        <v>0.0005148893707680232</v>
+        <v>0.000493107091574796</v>
       </c>
       <c r="DO5">
-        <v>0.002409002703593335</v>
+        <v>0.002395163665799925</v>
       </c>
       <c r="DP5">
-        <v>0.003974816305928946</v>
+        <v>0.003967543736580124</v>
       </c>
       <c r="DQ5">
-        <v>0.01110744401656817</v>
+        <v>0.01113008316513969</v>
       </c>
       <c r="DR5">
-        <v>0.007657459511422078</v>
+        <v>0.007665630645184197</v>
       </c>
       <c r="DS5">
-        <v>0.00588544300877889</v>
+        <v>0.005886182932063249</v>
       </c>
       <c r="DT5">
-        <v>1.083716701616502E-05</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.003496430805215373</v>
+        <v>0.003487152056273974</v>
       </c>
       <c r="DV5">
-        <v>0.001958109702920771</v>
+        <v>0.001942379779356293</v>
       </c>
       <c r="DW5">
-        <v>0.02284549503407697</v>
+        <v>0.02291735941705216</v>
       </c>
       <c r="DX5">
-        <v>0.005399137708053503</v>
+        <v>0.005397838238905145</v>
       </c>
       <c r="DY5">
-        <v>0.03470577005176809</v>
+        <v>0.034827372233375</v>
       </c>
       <c r="DZ5">
-        <v>0.0124237430185316</v>
+        <v>0.01245190225956313</v>
       </c>
       <c r="EA5">
-        <v>0.03585936005348882</v>
+        <v>0.03598579998355634</v>
       </c>
       <c r="EB5">
-        <v>0.02801344404178563</v>
+        <v>0.02810698097507698</v>
       </c>
       <c r="EC5">
-        <v>0.001415397702111246</v>
+        <v>0.00139739183636406</v>
       </c>
       <c r="ED5">
-        <v>0.00275507760410955</v>
+        <v>0.002742689882047664</v>
       </c>
       <c r="EE5">
-        <v>0.0002764261404123249</v>
+        <v>0.0002536438307716746</v>
       </c>
       <c r="EF5">
-        <v>0.002475744303692889</v>
+        <v>0.002462185156564844</v>
       </c>
       <c r="EG5">
-        <v>0.01624592402423287</v>
+        <v>0.01629011214055709</v>
       </c>
       <c r="EH5">
-        <v>0.01618120402413633</v>
+        <v>0.01622512072767059</v>
       </c>
       <c r="EI5">
-        <v>0.01972982102942955</v>
+        <v>0.01978861937759407</v>
       </c>
       <c r="EJ5">
-        <v>0.03887080405798077</v>
+        <v>0.03900987291910282</v>
       </c>
       <c r="EK5">
-        <v>0.02022370703016624</v>
+        <v>0.02028457656153815</v>
       </c>
       <c r="EL5">
-        <v>4.18804940624701E-07</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01178536751757938</v>
+        <v>0.01181084963754328</v>
       </c>
       <c r="EN5">
-        <v>0.01158619401728229</v>
+        <v>0.01161084087403047</v>
       </c>
       <c r="EO5">
-        <v>0.002732038304075184</v>
+        <v>0.002719553963337591</v>
       </c>
       <c r="EP5">
-        <v>0.007307999310900814</v>
+        <v>0.007314704932180514</v>
       </c>
       <c r="EQ5">
-        <v>0.02111956303150253</v>
+        <v>0.02118418946609388</v>
       </c>
       <c r="ER5">
-        <v>0.02404269403586275</v>
+        <v>0.024119579048021</v>
       </c>
       <c r="ES5">
-        <v>0.01074272201602414</v>
+        <v>0.01076383164952181</v>
       </c>
       <c r="ET5">
-        <v>0.01083290801615867</v>
+        <v>0.01085439585784353</v>
       </c>
       <c r="EU5">
-        <v>0.006064249709045602</v>
+        <v>0.006065739484389767</v>
       </c>
       <c r="EV5">
-        <v>0.0005670883008458847</v>
+        <v>0.0005455249255034646</v>
       </c>
       <c r="EW5">
-        <v>0.01156516201725092</v>
+        <v>0.01158972067322965</v>
       </c>
       <c r="EX5">
-        <v>0.009144855013640719</v>
+        <v>0.009159263758070779</v>
       </c>
       <c r="EY5">
-        <v>0.004939065307367247</v>
+        <v>0.004935836457290772</v>
       </c>
       <c r="EZ5">
-        <v>0.004677688206977369</v>
+        <v>0.004673363233786823</v>
       </c>
       <c r="FA5">
-        <v>0.0069605840103826</v>
+        <v>0.006965832694767246</v>
       </c>
       <c r="FB5">
-        <v>0.004967385007409489</v>
+        <v>0.00496427492013876</v>
       </c>
       <c r="FC5">
-        <v>0.008356570012464893</v>
+        <v>0.008367672968404011</v>
       </c>
       <c r="FD5">
-        <v>0.01674914202498349</v>
+        <v>0.01679544045962257</v>
       </c>
       <c r="FE5">
-        <v>0.005423705608090149</v>
+        <v>0.005422509168025265</v>
       </c>
       <c r="FF5">
-        <v>0.00129553130193245</v>
+        <v>0.001277022758897771</v>
       </c>
       <c r="FG5">
-        <v>0.007122712010624434</v>
+        <v>0.007128640602499975</v>
       </c>
       <c r="FH5">
-        <v>0.01607424202397678</v>
+        <v>0.01611771016671315</v>
       </c>
       <c r="FI5">
-        <v>0.01068353701593586</v>
+        <v>0.01070439844847596</v>
       </c>
       <c r="FJ5">
-        <v>0.001647479002457425</v>
+        <v>0.00163044640360039</v>
       </c>
       <c r="FK5">
-        <v>0.0009164517013670047</v>
+        <v>0.0008963534325620382</v>
       </c>
       <c r="FL5">
-        <v>1.502973202241877E-05</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.003492675005209771</v>
+        <v>0.003483380505771516</v>
       </c>
       <c r="FN5">
-        <v>0.003260127004862895</v>
+        <v>0.00324985728135975</v>
       </c>
       <c r="FO5">
-        <v>0.007253786510819949</v>
+        <v>0.007260264782790324</v>
       </c>
       <c r="FP5">
-        <v>0.001977114202949118</v>
+        <v>0.001961463977536167</v>
       </c>
       <c r="FQ5">
-        <v>0.003775757505632024</v>
+        <v>0.003767650154078718</v>
       </c>
       <c r="FR5">
-        <v>0.003498647105218679</v>
+        <v>0.003489377650655623</v>
       </c>
       <c r="FS5">
-        <v>0.0007353538010968741</v>
+        <v>0.0007144960717496495</v>
       </c>
       <c r="FT5">
-        <v>0.002058706703070824</v>
+        <v>0.0020433986477454</v>
       </c>
       <c r="FU5">
-        <v>0.0007086096010569818</v>
+        <v>0.0006876397159937922</v>
       </c>
       <c r="FV5">
-        <v>0.0001125516701678852</v>
+        <v>8.908212895884873E-05</v>
       </c>
       <c r="FW5">
-        <v>0.003343814804987727</v>
+        <v>0.003333896038519248</v>
       </c>
       <c r="FX5">
-        <v>0.003538847705278644</v>
+        <v>0.003529746837813921</v>
       </c>
       <c r="FY5">
-        <v>0.0009286735413852351</v>
+        <v>0.0009086265266546327</v>
       </c>
       <c r="FZ5">
-        <v>4.536868306767319E-08</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0006896994010287747</v>
+        <v>0.0006686502132749069</v>
       </c>
       <c r="GB5">
-        <v>0.0003450105005146272</v>
+        <v>0.0003225158094230381</v>
       </c>
       <c r="GC5">
-        <v>0.000353718960527617</v>
+        <v>0.0003312607896372772</v>
       </c>
       <c r="GD5">
-        <v>0.006843109010207371</v>
+        <v>0.006847865045990341</v>
       </c>
       <c r="GE5">
-        <v>0.01461089402179401</v>
+        <v>0.01464822540057237</v>
       </c>
       <c r="GF5">
-        <v>0.006598317509842233</v>
+        <v>0.006602046976651569</v>
       </c>
       <c r="GG5">
-        <v>0.002520445003759566</v>
+        <v>0.002507073315557666</v>
       </c>
       <c r="GH5">
-        <v>0.0005702346008505777</v>
+        <v>0.0005486844199775806</v>
       </c>
       <c r="GI5">
-        <v>0.0003052274004552857</v>
+        <v>0.0002825658731127035</v>
       </c>
       <c r="GJ5">
-        <v>0.0002117202203158077</v>
+        <v>0.0001886665569317374</v>
       </c>
       <c r="GK5">
-        <v>1.559071602325554E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003677503405485466</v>
+        <v>0.003668984010987073</v>
       </c>
       <c r="GM5">
-        <v>0.007787734711616401</v>
+        <v>0.007796452173491846</v>
       </c>
       <c r="GN5">
-        <v>0.01298893601937466</v>
+        <v>0.01301946547995186</v>
       </c>
       <c r="GO5">
-        <v>0.01346386202008307</v>
+        <v>0.0134963831523334</v>
       </c>
       <c r="GP5">
-        <v>0.003796607505663125</v>
+        <v>0.003788587591635633</v>
       </c>
       <c r="GQ5">
-        <v>0.0008528418012721225</v>
+        <v>0.0008324767750439777</v>
       </c>
       <c r="GR5">
-        <v>0.0001679567402505289</v>
+        <v>0.0001447195483095184</v>
       </c>
       <c r="GS5">
-        <v>1.192229501778363E-06</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.068102856129162E-05</v>
+        <v>1.327836142554637E-06</v>
       </c>
       <c r="C6">
-        <v>1.001089258881652E-05</v>
+        <v>6.565276635030724E-07</v>
       </c>
       <c r="D6">
-        <v>2.616422792534075E-05</v>
+        <v>1.683812575966402E-05</v>
       </c>
       <c r="E6">
-        <v>9.834834596047855E-05</v>
+        <v>8.914854107862053E-05</v>
       </c>
       <c r="F6">
-        <v>6.979432213329536E-05</v>
+        <v>6.05445575684817E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001483700939059049</v>
+        <v>0.0001392578098121279</v>
       </c>
       <c r="H6">
-        <v>0.000173087592890668</v>
+        <v>0.0001640185558859951</v>
       </c>
       <c r="I6">
-        <v>0.0002401166901375411</v>
+        <v>0.0002311649309101624</v>
       </c>
       <c r="J6">
-        <v>0.0001415287541869034</v>
+        <v>0.0001324045001107022</v>
       </c>
       <c r="K6">
-        <v>0.0001572675935404525</v>
+        <v>0.0001481708769990293</v>
       </c>
       <c r="L6">
-        <v>2.463688898807407E-05</v>
+        <v>1.530811450659578E-05</v>
       </c>
       <c r="M6">
-        <v>8.2776876600055E-07</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.197862868652233E-05</v>
+        <v>2.266269971466108E-05</v>
       </c>
       <c r="O6">
-        <v>4.573969812130555E-05</v>
+        <v>3.644784626972175E-05</v>
       </c>
       <c r="P6">
-        <v>9.35551161573538E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>4.784342103489806E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.650762150050026E-05</v>
+        <v>2.719961670235491E-05</v>
       </c>
       <c r="S6">
-        <v>3.339399862838798E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1.58951363471294E-05</v>
+        <v>6.551066816761973E-06</v>
       </c>
       <c r="U6">
-        <v>5.290277782709203E-05</v>
+        <v>4.362345889182338E-05</v>
       </c>
       <c r="V6">
-        <v>0.0001219484449911373</v>
+        <v>0.0001127899321342643</v>
       </c>
       <c r="W6">
-        <v>7.674516084779934E-05</v>
+        <v>6.750755785084575E-05</v>
       </c>
       <c r="X6">
-        <v>4.885015799354774E-05</v>
+        <v>3.956374837280342E-05</v>
       </c>
       <c r="Y6">
-        <v>0.0001444461640670748</v>
+        <v>0.0001353270144508806</v>
       </c>
       <c r="Z6">
-        <v>6.510912732573321E-05</v>
+        <v>5.585116528764616E-05</v>
       </c>
       <c r="AA6">
-        <v>1.207852750389129E-05</v>
+        <v>2.727780225794586E-06</v>
       </c>
       <c r="AB6">
-        <v>4.471291816347912E-09</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.707704288784815E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.098643531653921E-05</v>
+        <v>3.168626689618849E-05</v>
       </c>
       <c r="AE6">
-        <v>6.633766727527265E-05</v>
+        <v>5.708185475792385E-05</v>
       </c>
       <c r="AF6">
-        <v>1.470974839581756E-05</v>
+        <v>5.363604845809839E-06</v>
       </c>
       <c r="AG6">
-        <v>6.06043955107588E-05</v>
+        <v>5.133855174732758E-05</v>
       </c>
       <c r="AH6">
-        <v>1.799963026069024E-05</v>
+        <v>8.659242868060735E-06</v>
       </c>
       <c r="AI6">
-        <v>2.216366108965846E-05</v>
+        <v>1.283055931328017E-05</v>
       </c>
       <c r="AJ6">
-        <v>8.989677630761501E-05</v>
+        <v>8.068218409690659E-05</v>
       </c>
       <c r="AK6">
-        <v>0.0001040647657256846</v>
+        <v>9.487496260472859E-05</v>
       </c>
       <c r="AL6">
-        <v>0.0003439346158733643</v>
+        <v>0.000335164502171193</v>
       </c>
       <c r="AM6">
-        <v>0.0002514003896740789</v>
+        <v>0.000242468373025008</v>
       </c>
       <c r="AN6">
-        <v>1.118203554071345E-05</v>
+        <v>1.829719711209641E-06</v>
       </c>
       <c r="AO6">
-        <v>2.81922688420418E-07</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002864851882330196</v>
+        <v>0.0002776145578678286</v>
       </c>
       <c r="AQ6">
-        <v>0.0002219803308824668</v>
+        <v>0.0002129968392882653</v>
       </c>
       <c r="AR6">
-        <v>6.436535735628252E-05</v>
+        <v>5.510609397754762E-05</v>
       </c>
       <c r="AS6">
-        <v>0.0001232320349384157</v>
+        <v>0.00011407576792077</v>
       </c>
       <c r="AT6">
-        <v>0.0001637469332743226</v>
+        <v>0.0001546615533403361</v>
       </c>
       <c r="AU6">
-        <v>0.0001296212546759874</v>
+        <v>0.0001204761665869002</v>
       </c>
       <c r="AV6">
-        <v>0.0001630205433041581</v>
+        <v>0.0001539338924385217</v>
       </c>
       <c r="AW6">
-        <v>0.0001379460643340574</v>
+        <v>0.0001288155417875957</v>
       </c>
       <c r="AX6">
-        <v>1.800927526029408E-05</v>
+        <v>8.668904743083794E-06</v>
       </c>
       <c r="AY6">
-        <v>2.313741504966288E-08</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>8.802793038437527E-07</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>8.844431036727304E-05</v>
+        <v>7.922717684265656E-05</v>
       </c>
       <c r="BB6">
-        <v>0.0002854856882740726</v>
+        <v>0.0002766133091290471</v>
       </c>
       <c r="BC6">
-        <v>0.000335166486233503</v>
+        <v>0.0003263810313318016</v>
       </c>
       <c r="BD6">
-        <v>0.0002327997904380726</v>
+        <v>0.0002238352291624987</v>
       </c>
       <c r="BE6">
-        <v>0.0004349454621352204</v>
+        <v>0.0004263345859910299</v>
       </c>
       <c r="BF6">
-        <v>0.0007022643711554683</v>
+        <v>0.0006941212108058547</v>
       </c>
       <c r="BG6">
-        <v>0.0004500871815132954</v>
+        <v>0.0004415027981500912</v>
       </c>
       <c r="BH6">
-        <v>3.027515875648999E-05</v>
+        <v>2.095624930040192E-05</v>
       </c>
       <c r="BI6">
-        <v>3.168562969855686E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>8.56169314834037E-05</v>
+        <v>7.639485102193906E-05</v>
       </c>
       <c r="BK6">
-        <v>5.250966584323856E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>2.420069500599014E-07</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.028201657768048E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>7.462265693497822E-05</v>
+        <v>6.538134028900625E-05</v>
       </c>
       <c r="BO6">
-        <v>5.250671784335964E-05</v>
+        <v>4.322670593986562E-05</v>
       </c>
       <c r="BP6">
-        <v>4.886604599289517E-05</v>
+        <v>3.957966417066411E-05</v>
       </c>
       <c r="BQ6">
-        <v>4.234607826069377E-05</v>
+        <v>3.304828874605645E-05</v>
       </c>
       <c r="BR6">
-        <v>6.270450742449962E-05</v>
+        <v>5.34423381318196E-05</v>
       </c>
       <c r="BS6">
-        <v>0.000171843752941757</v>
+        <v>0.0001627725396466296</v>
       </c>
       <c r="BT6">
-        <v>0.0001703570630028207</v>
+        <v>0.000161283248513604</v>
       </c>
       <c r="BU6">
-        <v>3.404629660159575E-05</v>
+        <v>2.473398533468984E-05</v>
       </c>
       <c r="BV6">
-        <v>0.0001279016647466171</v>
+        <v>0.00011875356796887</v>
       </c>
       <c r="BW6">
-        <v>0.0004712765806429704</v>
+        <v>0.0004627292714122578</v>
       </c>
       <c r="BX6">
-        <v>0.0003204609268375134</v>
+        <v>0.000311649742284203</v>
       </c>
       <c r="BY6">
-        <v>0.0001093476055086993</v>
+        <v>0.0001001670455333771</v>
       </c>
       <c r="BZ6">
-        <v>0.0001296212546759874</v>
+        <v>0.0001204761665869002</v>
       </c>
       <c r="CA6">
-        <v>7.413255695510839E-05</v>
+        <v>6.489038280338664E-05</v>
       </c>
       <c r="CB6">
-        <v>1.228480249541883E-05</v>
+        <v>2.934416127337499E-06</v>
       </c>
       <c r="CC6">
-        <v>3.437869458794296E-05</v>
+        <v>2.506696490274734E-05</v>
       </c>
       <c r="CD6">
-        <v>9.685123602197028E-05</v>
+        <v>8.764881171462146E-05</v>
       </c>
       <c r="CE6">
-        <v>2.563926594690283E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>6.780522721499465E-07</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>4.909450398351157E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>9.571367606869396E-05</v>
+        <v>8.650926142418801E-05</v>
       </c>
       <c r="CI6">
-        <v>0.0002501644397248438</v>
+        <v>0.0002412302605900936</v>
       </c>
       <c r="CJ6">
-        <v>0.00016034213341417</v>
+        <v>0.0001512507962559908</v>
       </c>
       <c r="CK6">
-        <v>9.889009593822694E-05</v>
+        <v>8.969123893178196E-05</v>
       </c>
       <c r="CL6">
-        <v>8.318065058347055E-05</v>
+        <v>7.39543074715967E-05</v>
       </c>
       <c r="CM6">
-        <v>0.0003839897542281552</v>
+        <v>0.0003752897231884157</v>
       </c>
       <c r="CN6">
-        <v>0.09306293617756942</v>
+        <v>0.09321639230385433</v>
       </c>
       <c r="CO6">
-        <v>0.01639520532658976</v>
+        <v>0.01641451939466862</v>
       </c>
       <c r="CP6">
-        <v>0.09685179202194744</v>
+        <v>0.0970118773377958</v>
       </c>
       <c r="CQ6">
-        <v>0.004257393825133474</v>
+        <v>0.004255470913861957</v>
       </c>
       <c r="CR6">
-        <v>0.0004622730310127786</v>
+        <v>0.0004537099686788354</v>
       </c>
       <c r="CS6">
-        <v>0.002706777388822885</v>
+        <v>0.002702141434163413</v>
       </c>
       <c r="CT6">
-        <v>0.04776033603831067</v>
+        <v>0.04783452825581265</v>
       </c>
       <c r="CU6">
-        <v>0.005040528492967307</v>
+        <v>0.005039975796974496</v>
       </c>
       <c r="CV6">
-        <v>0.01642889132520615</v>
+        <v>0.01644826433215195</v>
       </c>
       <c r="CW6">
-        <v>0.01556407736072718</v>
+        <v>0.01558193724182625</v>
       </c>
       <c r="CX6">
-        <v>0.001867825323281674</v>
+        <v>0.001861721492169373</v>
       </c>
       <c r="CY6">
-        <v>0.0002839259583381364</v>
+        <v>0.0002750508502042452</v>
       </c>
       <c r="CZ6">
-        <v>0.007892872675811239</v>
+        <v>0.007897310597320106</v>
       </c>
       <c r="DA6">
-        <v>0.006571673730077647</v>
+        <v>0.006573800009596941</v>
       </c>
       <c r="DB6">
-        <v>0.009343938616210726</v>
+        <v>0.009350915402111134</v>
       </c>
       <c r="DC6">
-        <v>0.002257092307293075</v>
+        <v>0.002251669559002025</v>
       </c>
       <c r="DD6">
-        <v>0.01047510956974945</v>
+        <v>0.01048406551426335</v>
       </c>
       <c r="DE6">
-        <v>0.0005938587756080773</v>
+        <v>0.0005855259428950537</v>
       </c>
       <c r="DF6">
-        <v>0.003509836155838364</v>
+        <v>0.003506605276752046</v>
       </c>
       <c r="DG6">
-        <v>0.02506338897055618</v>
+        <v>0.02509786936718035</v>
       </c>
       <c r="DH6">
-        <v>0.002871831782043506</v>
+        <v>0.002867484615584451</v>
       </c>
       <c r="DI6">
-        <v>0.003217538667844077</v>
+        <v>0.003213796369074238</v>
       </c>
       <c r="DJ6">
-        <v>0.0001683848930838248</v>
+        <v>0.0001593076279781737</v>
       </c>
       <c r="DK6">
-        <v>0.0009140416124570128</v>
+        <v>0.000906268989160134</v>
       </c>
       <c r="DL6">
-        <v>0.0004753481804757351</v>
+        <v>0.0004668079951389437</v>
       </c>
       <c r="DM6">
-        <v>0.005006962794345971</v>
+        <v>0.005006351369969677</v>
       </c>
       <c r="DN6">
-        <v>0.0005248969284405891</v>
+        <v>0.0005164434363052237</v>
       </c>
       <c r="DO6">
-        <v>0.001272325847740986</v>
+        <v>0.001265180098152385</v>
       </c>
       <c r="DP6">
-        <v>0.004909592798345309</v>
+        <v>0.004908811010094592</v>
       </c>
       <c r="DQ6">
-        <v>0.01006790158647495</v>
+        <v>0.01007614505761332</v>
       </c>
       <c r="DR6">
-        <v>0.006625346127873129</v>
+        <v>0.006627566315557294</v>
       </c>
       <c r="DS6">
-        <v>0.009300043618013652</v>
+        <v>0.009306943602822679</v>
       </c>
       <c r="DT6">
-        <v>0.0005728141164724574</v>
+        <v>0.0005644444628719579</v>
       </c>
       <c r="DU6">
-        <v>0.003016748376091259</v>
+        <v>0.003012654763636972</v>
       </c>
       <c r="DV6">
-        <v>0.002574289894264625</v>
+        <v>0.002569422132233141</v>
       </c>
       <c r="DW6">
-        <v>0.0203050871659968</v>
+        <v>0.02033124217734422</v>
       </c>
       <c r="DX6">
-        <v>0.007363528697553306</v>
+        <v>0.007367040449864854</v>
       </c>
       <c r="DY6">
-        <v>0.03037453175240838</v>
+        <v>0.03041830481514222</v>
       </c>
       <c r="DZ6">
-        <v>0.01061711606391673</v>
+        <v>0.01062632047076537</v>
       </c>
       <c r="EA6">
-        <v>0.04585118011672659</v>
+        <v>0.04592203197053298</v>
       </c>
       <c r="EB6">
-        <v>0.0381457234332175</v>
+        <v>0.03820309339826221</v>
       </c>
       <c r="EC6">
-        <v>0.001095729354994442</v>
+        <v>0.00108827462251635</v>
       </c>
       <c r="ED6">
-        <v>0.003056288374467208</v>
+        <v>0.003052263943358251</v>
       </c>
       <c r="EE6">
-        <v>5.14143628882266E-05</v>
+        <v>4.213243974071444E-05</v>
       </c>
       <c r="EF6">
-        <v>0.00227140600670516</v>
+        <v>0.002266008302446043</v>
       </c>
       <c r="EG6">
-        <v>0.009409972613498472</v>
+        <v>0.009417064936094821</v>
       </c>
       <c r="EH6">
-        <v>0.01097905554905057</v>
+        <v>0.01098889322503269</v>
       </c>
       <c r="EI6">
-        <v>0.02045110715999924</v>
+        <v>0.02047751765592037</v>
       </c>
       <c r="EJ6">
-        <v>0.03972628536829811</v>
+        <v>0.03978642077101446</v>
       </c>
       <c r="EK6">
-        <v>0.02537285995784509</v>
+        <v>0.02540788182184712</v>
       </c>
       <c r="EL6">
-        <v>0.0002794368885225187</v>
+        <v>0.0002705539260663747</v>
       </c>
       <c r="EM6">
-        <v>0.0112187685392047</v>
+        <v>0.01122902563015477</v>
       </c>
       <c r="EN6">
-        <v>0.01390709642878537</v>
+        <v>0.0139220571653532</v>
       </c>
       <c r="EO6">
-        <v>0.003662973249548472</v>
+        <v>0.003660010307503069</v>
       </c>
       <c r="EP6">
-        <v>0.00723728600273855</v>
+        <v>0.007240576873921519</v>
       </c>
       <c r="EQ6">
-        <v>0.01957518919597635</v>
+        <v>0.01960006713788539</v>
       </c>
       <c r="ER6">
-        <v>0.01822640525137577</v>
+        <v>0.0182489232870714</v>
       </c>
       <c r="ES6">
-        <v>0.007045197510628317</v>
+        <v>0.007048152293271774</v>
       </c>
       <c r="ET6">
-        <v>0.008760297640182966</v>
+        <v>0.008766253255886881</v>
       </c>
       <c r="EU6">
-        <v>0.005158374388126951</v>
+        <v>0.005158027881762455</v>
       </c>
       <c r="EV6">
-        <v>0.000363123125085223</v>
+        <v>0.000354386584649027</v>
       </c>
       <c r="EW6">
-        <v>0.009867435594708816</v>
+        <v>0.009875328319575735</v>
       </c>
       <c r="EX6">
-        <v>0.00910741362592566</v>
+        <v>0.009113976574757177</v>
       </c>
       <c r="EY6">
-        <v>0.006537751031470975</v>
+        <v>0.006539817957980071</v>
       </c>
       <c r="EZ6">
-        <v>0.007279053001023029</v>
+        <v>0.007282416950032258</v>
       </c>
       <c r="FA6">
-        <v>0.009524245608804867</v>
+        <v>0.009531537869688389</v>
       </c>
       <c r="FB6">
-        <v>0.004532224313845194</v>
+        <v>0.004530782261039219</v>
       </c>
       <c r="FC6">
-        <v>0.006028834452374015</v>
+        <v>0.006030010950581433</v>
       </c>
       <c r="FD6">
-        <v>0.01486087638961018</v>
+        <v>0.01487750591180139</v>
       </c>
       <c r="FE6">
-        <v>0.005275875783300745</v>
+        <v>0.005275734863808531</v>
       </c>
       <c r="FF6">
-        <v>0.0007607194987545053</v>
+        <v>0.0007526786146956049</v>
       </c>
       <c r="FG6">
-        <v>0.004717877406219751</v>
+        <v>0.004716760182225677</v>
       </c>
       <c r="FH6">
-        <v>0.01535474136932537</v>
+        <v>0.01537223498471615</v>
       </c>
       <c r="FI6">
-        <v>0.01720787129321063</v>
+        <v>0.01722860724614491</v>
       </c>
       <c r="FJ6">
-        <v>0.00368823914851071</v>
+        <v>0.003685320413065028</v>
       </c>
       <c r="FK6">
-        <v>0.0001324138645612848</v>
+        <v>0.0001232736625753029</v>
       </c>
       <c r="FL6">
-        <v>0.000467582780794688</v>
+        <v>0.0004590290086895856</v>
       </c>
       <c r="FM6">
-        <v>0.003719365347232244</v>
+        <v>0.003716501071887498</v>
       </c>
       <c r="FN6">
-        <v>0.003653807449924944</v>
+        <v>0.003650828470894842</v>
       </c>
       <c r="FO6">
-        <v>0.009515224609175392</v>
+        <v>0.009522501086424209</v>
       </c>
       <c r="FP6">
-        <v>0.001799689926080241</v>
+        <v>0.001793466881547693</v>
       </c>
       <c r="FQ6">
-        <v>0.003211095068108739</v>
+        <v>0.003207341495264121</v>
       </c>
       <c r="FR6">
-        <v>0.003289932464870603</v>
+        <v>0.003286316830250422</v>
       </c>
       <c r="FS6">
-        <v>0.001131761953514453</v>
+        <v>0.001124370265642929</v>
       </c>
       <c r="FT6">
-        <v>0.002313124404991634</v>
+        <v>0.002307799693525563</v>
       </c>
       <c r="FU6">
-        <v>0.0003910748139371462</v>
+        <v>0.0003823871793056651</v>
       </c>
       <c r="FV6">
-        <v>0.0002890172381290192</v>
+        <v>0.0002801510379769147</v>
       </c>
       <c r="FW6">
-        <v>0.004508026814839073</v>
+        <v>0.004506542424764418</v>
       </c>
       <c r="FX6">
-        <v>0.003813388643370368</v>
+        <v>0.003810688876330789</v>
       </c>
       <c r="FY6">
-        <v>0.001067075456171361</v>
+        <v>0.001059570589263554</v>
       </c>
       <c r="FZ6">
-        <v>1.731984528861146E-07</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0003097015572794396</v>
+        <v>0.0003008715475442501</v>
       </c>
       <c r="GB6">
-        <v>3.837594142376161E-05</v>
+        <v>2.907120554041408E-05</v>
       </c>
       <c r="GC6">
-        <v>6.113705448888057E-06</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.003397405260456307</v>
+        <v>0.003393977666121668</v>
       </c>
       <c r="GE6">
-        <v>0.01096937154944833</v>
+        <v>0.0109791922817747</v>
       </c>
       <c r="GF6">
-        <v>0.006262143342791177</v>
+        <v>0.006263728051003128</v>
       </c>
       <c r="GG6">
-        <v>0.002045415515987404</v>
+        <v>0.002039622406396431</v>
       </c>
       <c r="GH6">
-        <v>0.0004700437206936083</v>
+        <v>0.0004614942543836494</v>
       </c>
       <c r="GI6">
-        <v>0.0002854856882740726</v>
+        <v>0.0002766133091290471</v>
       </c>
       <c r="GJ6">
-        <v>0.0001683848930838248</v>
+        <v>0.0001593076279781737</v>
       </c>
       <c r="GK6">
-        <v>2.260099107169575E-05</v>
+        <v>1.326865447179072E-05</v>
       </c>
       <c r="GL6">
-        <v>0.00299999987677918</v>
+        <v>0.002995876960233789</v>
       </c>
       <c r="GM6">
-        <v>0.006916811415901597</v>
+        <v>0.006919541567206674</v>
       </c>
       <c r="GN6">
-        <v>0.01145247452960555</v>
+        <v>0.01146314052534802</v>
       </c>
       <c r="GO6">
-        <v>0.009695080601788057</v>
+        <v>0.009702671764925735</v>
       </c>
       <c r="GP6">
-        <v>0.002152921111571762</v>
+        <v>0.002147316099655002</v>
       </c>
       <c r="GQ6">
-        <v>0.0003495358856432999</v>
+        <v>0.0003407755722292963</v>
       </c>
       <c r="GR6">
-        <v>4.371287520455449E-05</v>
+        <v>3.441747711266001E-05</v>
       </c>
       <c r="GS6">
-        <v>8.285617159679806E-05</v>
+        <v>7.362926075872919E-05</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001303007654382914</v>
+        <v>3.094771366037016E-05</v>
       </c>
       <c r="C2">
-        <v>0.00032758775367235</v>
+        <v>0.0001300455203492178</v>
       </c>
       <c r="D2">
-        <v>0.0005359914723703814</v>
+        <v>0.0002404532081400662</v>
       </c>
       <c r="E2">
-        <v>0.0006584920474831205</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="F2">
-        <v>0.000748870781255208</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="G2">
-        <v>0.000805082078601268</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="H2">
-        <v>0.0008231009833533132</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="I2">
-        <v>0.0008243192942041611</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="J2">
-        <v>0.0008391446428229186</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="K2">
-        <v>0.000886762094810302</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="L2">
-        <v>0.0009829227048237046</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="M2">
-        <v>0.001082804282992407</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="N2">
-        <v>0.00117811623697039</v>
+        <v>0.0002634652049598712</v>
       </c>
       <c r="O2">
-        <v>0.00129358797178977</v>
+        <v>0.0002793262370009161</v>
       </c>
       <c r="P2">
-        <v>0.001431831077559547</v>
+        <v>0.0003183542873314819</v>
       </c>
       <c r="Q2">
-        <v>0.00164896820662208</v>
+        <v>0.0004376471264856381</v>
       </c>
       <c r="R2">
-        <v>0.001887482456576818</v>
+        <v>0.0005786885090966565</v>
       </c>
       <c r="S2">
-        <v>0.002033305212662942</v>
+        <v>0.0006254279044265864</v>
       </c>
       <c r="T2">
-        <v>0.002168842208319775</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="U2">
-        <v>0.00225804564204281</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="V2">
-        <v>0.002310781337243811</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="W2">
-        <v>0.0023552601991002</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="X2">
-        <v>0.002377380865023438</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="Y2">
-        <v>0.002379163260097829</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="Z2">
-        <v>0.002385907196779297</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="AA2">
-        <v>0.002419283016172286</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="AB2">
-        <v>0.002493175243256285</v>
+        <v>0.0006617028266026558</v>
       </c>
       <c r="AC2">
-        <v>0.002637358259273972</v>
+        <v>0.0007067739917571479</v>
       </c>
       <c r="AD2">
-        <v>0.002757312264280426</v>
+        <v>0.0007271951724000806</v>
       </c>
       <c r="AE2">
-        <v>0.002891268569871287</v>
+        <v>0.0007618619403834044</v>
       </c>
       <c r="AF2">
-        <v>0.003035451585888974</v>
+        <v>0.0008069331055378965</v>
       </c>
       <c r="AG2">
-        <v>0.003181375631979325</v>
+        <v>0.0008537755507626086</v>
       </c>
       <c r="AH2">
-        <v>0.003389779350677357</v>
+        <v>0.0009641832385534569</v>
       </c>
       <c r="AI2">
-        <v>0.003649876281532879</v>
+        <v>0.001127182296187844</v>
       </c>
       <c r="AJ2">
-        <v>0.003882749191252168</v>
+        <v>0.001262484321572775</v>
       </c>
       <c r="AK2">
-        <v>0.004092406910002537</v>
+        <v>0.001374167797378796</v>
       </c>
       <c r="AL2">
-        <v>0.004219428345303961</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AM2">
-        <v>0.004281189302881644</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AN2">
-        <v>0.004310207720092769</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AO2">
-        <v>0.004345446126563495</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AP2">
-        <v>0.004367334876477054</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AQ2">
-        <v>0.004369711521076246</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AR2">
-        <v>0.004389710023910913</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AS2">
-        <v>0.004420741697206065</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AT2">
-        <v>0.004456793093710723</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AU2">
-        <v>0.004502241273607569</v>
+        <v>0.001401779203294512</v>
       </c>
       <c r="AV2">
-        <v>0.004621787128596989</v>
+        <v>0.001421785142407626</v>
       </c>
       <c r="AW2">
-        <v>0.004853210758255789</v>
+        <v>0.001555612706823953</v>
       </c>
       <c r="AX2">
-        <v>0.00506358492703606</v>
+        <v>0.00166802508081456</v>
       </c>
       <c r="AY2">
-        <v>0.005305684617140442</v>
+        <v>0.001812714199774159</v>
       </c>
       <c r="AZ2">
-        <v>0.005562856957873902</v>
+        <v>0.001972737853204962</v>
       </c>
       <c r="BA2">
-        <v>0.005822352748704336</v>
+        <v>0.00213512532614442</v>
       </c>
       <c r="BB2">
-        <v>0.006031470757432179</v>
+        <v>0.002246259714590259</v>
       </c>
       <c r="BC2">
-        <v>0.006143550326109982</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BD2">
-        <v>0.006223452553444818</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BE2">
-        <v>0.006280689429833682</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BF2">
-        <v>0.006304331145820402</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BG2">
-        <v>0.006305223712707655</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BH2">
-        <v>0.006314233741083701</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BI2">
-        <v>0.006345312136380803</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BJ2">
-        <v>0.006405268783883181</v>
+        <v>0.00225866964238228</v>
       </c>
       <c r="BK2">
-        <v>0.006540230849516018</v>
+        <v>0.002294359645257262</v>
       </c>
       <c r="BL2">
-        <v>0.006773103759235307</v>
+        <v>0.002429661670642193</v>
       </c>
       <c r="BM2">
-        <v>0.007013089299251452</v>
+        <v>0.002572199906641444</v>
       </c>
       <c r="BN2">
-        <v>0.007296048771061176</v>
+        <v>0.002758458736627029</v>
       </c>
       <c r="BO2">
-        <v>0.007736404909440078</v>
+        <v>0.003104848964105586</v>
       </c>
       <c r="BP2">
-        <v>0.008092091824285188</v>
+        <v>0.003365098859742031</v>
       </c>
       <c r="BQ2">
-        <v>0.008375051296094912</v>
+        <v>0.003551357689727616</v>
       </c>
       <c r="BR2">
-        <v>0.008647889907482227</v>
+        <v>0.003727319811665961</v>
       </c>
       <c r="BS2">
-        <v>0.008841941565581254</v>
+        <v>0.003823126075101916</v>
       </c>
       <c r="BT2">
-        <v>0.008989968611759378</v>
+        <v>0.003872108059557814</v>
       </c>
       <c r="BU2">
-        <v>0.00910398170051788</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="BV2">
-        <v>0.009201077334570307</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="BW2">
-        <v>0.009230095751781433</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="BX2">
-        <v>0.00924473135139227</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="BY2">
-        <v>0.009246264157656245</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="BZ2">
-        <v>0.009270329481660646</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="CA2">
-        <v>0.009353099785115185</v>
+        <v>0.003886485101897759</v>
       </c>
       <c r="CB2">
-        <v>0.009525522452311495</v>
+        <v>0.003960286575682767</v>
       </c>
       <c r="CC2">
-        <v>0.009697945119507806</v>
+        <v>0.004034088049467774</v>
       </c>
       <c r="CD2">
-        <v>0.01003147439342813</v>
+        <v>0.00427179532025852</v>
       </c>
       <c r="CE2">
-        <v>0.01034524122652365</v>
+        <v>0.004489396782355035</v>
       </c>
       <c r="CF2">
-        <v>0.01064433219900664</v>
+        <v>0.00469206739413229</v>
       </c>
       <c r="CG2">
-        <v>0.01096375766233833</v>
+        <v>0.004915425803865405</v>
       </c>
       <c r="CH2">
-        <v>0.01126686202498883</v>
+        <v>0.005122179537542353</v>
       </c>
       <c r="CI2">
-        <v>0.01149347293444676</v>
+        <v>0.005251110761849923</v>
       </c>
       <c r="CJ2">
-        <v>0.01161396900347584</v>
+        <v>0.005272083424753347</v>
       </c>
       <c r="CK2">
-        <v>0.01170843606741856</v>
+        <v>0.005272083424753347</v>
       </c>
       <c r="CL2">
-        <v>0.01175388424731541</v>
+        <v>0.005272083424753347</v>
       </c>
       <c r="CM2">
-        <v>0.01177090011902559</v>
+        <v>0.005272083424753347</v>
       </c>
       <c r="CN2">
-        <v>0.07412091872129403</v>
+        <v>0.0686038022792749</v>
       </c>
       <c r="CO2">
-        <v>0.07985575656064581</v>
+        <v>0.07433666461100939</v>
       </c>
       <c r="CP2">
-        <v>0.2030030117003751</v>
+        <v>0.1995219580212249</v>
       </c>
       <c r="CQ2">
-        <v>0.2092639069616826</v>
+        <v>0.2057900179017734</v>
       </c>
       <c r="CR2">
-        <v>0.2092991453681534</v>
+        <v>0.2057900179017734</v>
       </c>
       <c r="CS2">
-        <v>0.2173751267052162</v>
+        <v>0.213904700561674</v>
       </c>
       <c r="CT2">
-        <v>0.2499553880650006</v>
+        <v>0.2469494194804614</v>
       </c>
       <c r="CU2">
-        <v>0.2521972038585661</v>
+        <v>0.2491285693107962</v>
       </c>
       <c r="CV2">
-        <v>0.2614838742461588</v>
+        <v>0.2584749764653548</v>
       </c>
       <c r="CW2">
-        <v>0.2920859735233818</v>
+        <v>0.2895071631898282</v>
       </c>
       <c r="CX2">
-        <v>0.2982625120811686</v>
+        <v>0.2956894006885111</v>
       </c>
       <c r="CY2">
-        <v>0.2990641802646273</v>
+        <v>0.2964033806748507</v>
       </c>
       <c r="CZ2">
-        <v>0.3038781284655445</v>
+        <v>0.3011993531222334</v>
       </c>
       <c r="DA2">
-        <v>0.3175908100378631</v>
+        <v>0.3150486723890902</v>
       </c>
       <c r="DB2">
-        <v>0.3353216897778871</v>
+        <v>0.3329860050937382</v>
       </c>
       <c r="DC2">
-        <v>0.3359303425032901</v>
+        <v>0.3335036160227786</v>
       </c>
       <c r="DD2">
-        <v>0.3533327892296064</v>
+        <v>0.3511068092655549</v>
       </c>
       <c r="DE2">
-        <v>0.3578967374200894</v>
+        <v>0.3556484380097534</v>
       </c>
       <c r="DF2">
-        <v>0.3613491955641828</v>
+        <v>0.3590592648233425</v>
       </c>
       <c r="DG2">
-        <v>0.3872061496433603</v>
+        <v>0.3852638605420297</v>
       </c>
       <c r="DH2">
-        <v>0.3894115511354059</v>
+        <v>0.3874059633807211</v>
       </c>
       <c r="DI2">
-        <v>0.394781728359538</v>
+        <v>0.3927678292028179</v>
       </c>
       <c r="DJ2">
-        <v>0.3949109455849311</v>
+        <v>0.3927976745501737</v>
       </c>
       <c r="DK2">
-        <v>0.3949191914922752</v>
+        <v>0.3927976745501737</v>
       </c>
       <c r="DL2">
-        <v>0.3963672031527101</v>
+        <v>0.394169228082921</v>
       </c>
       <c r="DM2">
-        <v>0.4003969733208984</v>
+        <v>0.3981673975844011</v>
       </c>
       <c r="DN2">
-        <v>0.4041013967755078</v>
+        <v>0.401834567547894</v>
       </c>
       <c r="DO2">
-        <v>0.4053883492292207</v>
+        <v>0.4030422635072017</v>
       </c>
       <c r="DP2">
-        <v>0.4089000238757855</v>
+        <v>0.4065133356963893</v>
       </c>
       <c r="DQ2">
-        <v>0.4178198362480668</v>
+        <v>0.4154865107618967</v>
       </c>
       <c r="DR2">
-        <v>0.4223001844350606</v>
+        <v>0.4199430869717504</v>
       </c>
       <c r="DS2">
-        <v>0.430809781790221</v>
+        <v>0.4284989196284508</v>
       </c>
       <c r="DT2">
-        <v>0.4313463200126142</v>
+        <v>0.4289431630815581</v>
       </c>
       <c r="DU2">
-        <v>0.4346575556508134</v>
+        <v>0.4322103136806554</v>
       </c>
       <c r="DV2">
-        <v>0.4349785331642099</v>
+        <v>0.4324352511069666</v>
       </c>
       <c r="DW2">
-        <v>0.4532681149275521</v>
+        <v>0.4509409931542406</v>
       </c>
       <c r="DX2">
-        <v>0.4591284293721408</v>
+        <v>0.456801512218403</v>
       </c>
       <c r="DY2">
-        <v>0.5016674761475697</v>
+        <v>0.4999780481616561</v>
       </c>
       <c r="DZ2">
-        <v>0.5089014364494895</v>
+        <v>0.5072360798643608</v>
       </c>
       <c r="EA2">
-        <v>0.5493325051369388</v>
+        <v>0.5482680120846096</v>
       </c>
       <c r="EB2">
-        <v>0.5963672551000022</v>
+        <v>0.5960183630256101</v>
       </c>
       <c r="EC2">
-        <v>0.5964537488036121</v>
+        <v>0.5960183630256101</v>
       </c>
       <c r="ED2">
-        <v>0.5976487580534876</v>
+        <v>0.5971325182890352</v>
       </c>
       <c r="EE2">
-        <v>0.5983391589123025</v>
+        <v>0.5977332977065259</v>
       </c>
       <c r="EF2">
-        <v>0.6018081319570852</v>
+        <v>0.6011609263634099</v>
       </c>
       <c r="EG2">
-        <v>0.6126091084078795</v>
+        <v>0.6120479503011454</v>
       </c>
       <c r="EH2">
-        <v>0.6202058067249387</v>
+        <v>0.6196750225086729</v>
       </c>
       <c r="EI2">
-        <v>0.6381374404733415</v>
+        <v>0.6378165972764772</v>
       </c>
       <c r="EJ2">
-        <v>0.677452655114219</v>
+        <v>0.6777132877424339</v>
       </c>
       <c r="EK2">
-        <v>0.6993833520295285</v>
+        <v>0.6999234084809877</v>
       </c>
       <c r="EL2">
-        <v>0.7001065793897134</v>
+        <v>0.7005575847527687</v>
       </c>
       <c r="EM2">
-        <v>0.7079734792180499</v>
+        <v>0.70845955316076</v>
       </c>
       <c r="EN2">
-        <v>0.7203460607344375</v>
+        <v>0.7209454884410675</v>
       </c>
       <c r="EO2">
-        <v>0.7233187177585056</v>
+        <v>0.723868177700393</v>
       </c>
       <c r="EP2">
-        <v>0.7271299912175747</v>
+        <v>0.7276440541626269</v>
       </c>
       <c r="EQ2">
-        <v>0.7393008017255411</v>
+        <v>0.7399247127095936</v>
       </c>
       <c r="ER2">
-        <v>0.7556332404071991</v>
+        <v>0.7564393067637425</v>
       </c>
       <c r="ES2">
-        <v>0.7630877072183221</v>
+        <v>0.763921676225592</v>
       </c>
       <c r="ET2">
-        <v>0.7700972075108737</v>
+        <v>0.7709513479778297</v>
       </c>
       <c r="EU2">
-        <v>0.7737880764649175</v>
+        <v>0.7746047279344234</v>
       </c>
       <c r="EV2">
-        <v>0.7747733229060382</v>
+        <v>0.7755054758084793</v>
       </c>
       <c r="EW2">
-        <v>0.7850900833366231</v>
+        <v>0.7858998705838904</v>
       </c>
       <c r="EX2">
-        <v>0.7946433227353414</v>
+        <v>0.7955174783249056</v>
       </c>
       <c r="EY2">
-        <v>0.8016037956258468</v>
+        <v>0.8024972708352494</v>
       </c>
       <c r="EZ2">
-        <v>0.8076620925786986</v>
+        <v>0.8085592123082745</v>
       </c>
       <c r="FA2">
-        <v>0.818463069029493</v>
+        <v>0.8194462362460101</v>
       </c>
       <c r="FB2">
-        <v>0.8251276579076492</v>
+        <v>0.8261250038272618</v>
       </c>
       <c r="FC2">
-        <v>0.8288939256648399</v>
+        <v>0.8298550926238861</v>
       </c>
       <c r="FD2">
-        <v>0.8416675451979654</v>
+        <v>0.8427490338643442</v>
       </c>
       <c r="FE2">
-        <v>0.8461111996834277</v>
+        <v>0.8471682788280317</v>
       </c>
       <c r="FF2">
-        <v>0.8476049935457733</v>
+        <v>0.8485864100179307</v>
       </c>
       <c r="FG2">
-        <v>0.853385901787048</v>
+        <v>0.8543661432142379</v>
       </c>
       <c r="FH2">
-        <v>0.8732374066155794</v>
+        <v>0.8744609463811468</v>
       </c>
       <c r="FI2">
-        <v>0.8917949723901063</v>
+        <v>0.8932393286002374</v>
       </c>
       <c r="FJ2">
-        <v>0.8982448601593017</v>
+        <v>0.8996996646900821</v>
       </c>
       <c r="FK2">
-        <v>0.8982709520593907</v>
+        <v>0.8996996646900821</v>
       </c>
       <c r="FL2">
-        <v>0.898448072056783</v>
+        <v>0.8997782451090962</v>
       </c>
       <c r="FM2">
-        <v>0.9043083865013717</v>
+        <v>0.9056387641732586</v>
       </c>
       <c r="FN2">
-        <v>0.9087738266877433</v>
+        <v>0.9100801733594039</v>
       </c>
       <c r="FO2">
-        <v>0.9180836100763006</v>
+        <v>0.9194500950980093</v>
       </c>
       <c r="FP2">
-        <v>0.9217604402297584</v>
+        <v>0.923089192333082</v>
       </c>
       <c r="FQ2">
-        <v>0.9257902103979467</v>
+        <v>0.9270873618345621</v>
       </c>
       <c r="FR2">
-        <v>0.9297961565651407</v>
+        <v>0.9310612933985035</v>
       </c>
       <c r="FS2">
-        <v>0.9310072104156858</v>
+        <v>0.9321917720338492</v>
       </c>
       <c r="FT2">
-        <v>0.9336546484261805</v>
+        <v>0.9347835916739511</v>
       </c>
       <c r="FU2">
-        <v>0.9344180725580431</v>
+        <v>0.9354586631270836</v>
       </c>
       <c r="FV2">
-        <v>0.9354810230024069</v>
+        <v>0.9364384650935884</v>
       </c>
       <c r="FW2">
-        <v>0.9417481192639732</v>
+        <v>0.9427128337153508</v>
       </c>
       <c r="FX2">
-        <v>0.9488540688605502</v>
+        <v>0.9498406305561147</v>
       </c>
       <c r="FY2">
-        <v>0.9523932090082614</v>
+        <v>0.9533396454532215</v>
       </c>
       <c r="FZ2">
-        <v>0.9524971767626007</v>
+        <v>0.9533438026257642</v>
       </c>
       <c r="GA2">
-        <v>0.9526880198305658</v>
+        <v>0.9534363445505498</v>
       </c>
       <c r="GB2">
-        <v>0.9526906714246764</v>
+        <v>0.9534363445505498</v>
       </c>
       <c r="GC2">
-        <v>0.9526918897355273</v>
+        <v>0.9534363445505498</v>
       </c>
       <c r="GD2">
-        <v>0.9556898214606504</v>
+        <v>0.9563847476530548</v>
       </c>
       <c r="GE2">
-        <v>0.9661607078976681</v>
+        <v>0.9669359463388539</v>
       </c>
       <c r="GF2">
-        <v>0.9716829881281485</v>
+        <v>0.9724525579220925</v>
       </c>
       <c r="GG2">
-        <v>0.9738667196192896</v>
+        <v>0.9745726142485919</v>
       </c>
       <c r="GH2">
-        <v>0.9747199439549001</v>
+        <v>0.9753390461633831</v>
       </c>
       <c r="GI2">
-        <v>0.9748548086205289</v>
+        <v>0.9753746370739513</v>
       </c>
       <c r="GJ2">
-        <v>0.9755829348509183</v>
+        <v>0.9760137973326812</v>
       </c>
       <c r="GK2">
-        <v>0.9757464738177438</v>
+        <v>0.9760785607538424</v>
       </c>
       <c r="GL2">
-        <v>0.9777254401003388</v>
+        <v>0.9779902941233366</v>
       </c>
       <c r="GM2">
-        <v>0.9827006113079848</v>
+        <v>0.9829502907901533</v>
       </c>
       <c r="GN2">
-        <v>0.9917080156839219</v>
+        <v>0.992012579750258</v>
       </c>
       <c r="GO2">
-        <v>0.9984293709644474</v>
+        <v>0.9987491000370796</v>
       </c>
       <c r="GP2">
-        <v>0.9994726189079889</v>
+        <v>0.9997088571763365</v>
       </c>
       <c r="GQ2">
-        <v>0.9995140661697187</v>
+        <v>0.9997088571763365</v>
       </c>
       <c r="GR2">
-        <v>0.9996911861671111</v>
+        <v>0.9997874375953506</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.646825617451357E-05</v>
+        <v>3.004086102958167E-05</v>
       </c>
       <c r="C3">
-        <v>5.201681352799497E-05</v>
+        <v>3.913707903827109E-05</v>
       </c>
       <c r="D3">
-        <v>0.0001686982336849586</v>
+        <v>0.0001494867485053642</v>
       </c>
       <c r="E3">
-        <v>0.0002217386453020564</v>
+        <v>0.0001961195252599801</v>
       </c>
       <c r="F3">
-        <v>0.0002873649110147362</v>
+        <v>0.0002553531632124626</v>
       </c>
       <c r="G3">
-        <v>0.0003112238680916269</v>
+        <v>0.0002727696900868196</v>
       </c>
       <c r="H3">
-        <v>0.0003176870406542376</v>
+        <v>0.0002727696900868196</v>
       </c>
       <c r="I3">
-        <v>0.0003202498568773273</v>
+        <v>0.0002727696900868196</v>
       </c>
       <c r="J3">
-        <v>0.0003208981634337615</v>
+        <v>0.0002727696900868196</v>
       </c>
       <c r="K3">
-        <v>0.0003948167398682761</v>
+        <v>0.0003403055263344578</v>
       </c>
       <c r="L3">
-        <v>0.0005892346767921009</v>
+        <v>0.0005284844039224917</v>
       </c>
       <c r="M3">
-        <v>0.0006965043621297854</v>
+        <v>0.0006294111162197178</v>
       </c>
       <c r="N3">
-        <v>0.0009336738427750756</v>
+        <v>0.0008603925135523444</v>
       </c>
       <c r="O3">
-        <v>0.001337977127969143</v>
+        <v>0.001258707002194982</v>
       </c>
       <c r="P3">
-        <v>0.001766055895232835</v>
+        <v>0.001680825322281754</v>
       </c>
       <c r="Q3">
-        <v>0.002411066051380118</v>
+        <v>0.002320133695584072</v>
       </c>
       <c r="R3">
-        <v>0.002710934977483312</v>
+        <v>0.002613889299847605</v>
       </c>
       <c r="S3">
-        <v>0.002828419197710158</v>
+        <v>0.002725042726626153</v>
       </c>
       <c r="T3">
-        <v>0.002934993566987316</v>
+        <v>0.002825273293782906</v>
       </c>
       <c r="U3">
-        <v>0.002963231182445364</v>
+        <v>0.002847073700056691</v>
       </c>
       <c r="V3">
-        <v>0.00296324170942828</v>
+        <v>0.002847073700056691</v>
       </c>
       <c r="W3">
-        <v>0.002972476404732148</v>
+        <v>0.002849848527502178</v>
       </c>
       <c r="X3">
-        <v>0.003003395167423586</v>
+        <v>0.002874333277951767</v>
       </c>
       <c r="Y3">
-        <v>0.003006946627232736</v>
+        <v>0.002874333277951767</v>
       </c>
       <c r="Z3">
-        <v>0.003007794352906529</v>
+        <v>0.002874333277951767</v>
       </c>
       <c r="AA3">
-        <v>0.00301296227505639</v>
+        <v>0.002874333277951767</v>
       </c>
       <c r="AB3">
-        <v>0.003289879219161644</v>
+        <v>0.00314510953276666</v>
       </c>
       <c r="AC3">
-        <v>0.003808402764298434</v>
+        <v>0.003657780475138387</v>
       </c>
       <c r="AD3">
-        <v>0.003894687491809406</v>
+        <v>0.003737697207595602</v>
       </c>
       <c r="AE3">
-        <v>0.003971660574509811</v>
+        <v>0.003808291192236842</v>
       </c>
       <c r="AF3">
-        <v>0.004194784743932476</v>
+        <v>0.004025210531019206</v>
       </c>
       <c r="AG3">
-        <v>0.00435796923813747</v>
+        <v>0.004182118723801697</v>
       </c>
       <c r="AH3">
-        <v>0.004382047667233466</v>
+        <v>0.004199754984388884</v>
       </c>
       <c r="AI3">
-        <v>0.004401628927937988</v>
+        <v>0.004212888714257534</v>
       </c>
       <c r="AJ3">
-        <v>0.004414158474528669</v>
+        <v>0.004218962321699788</v>
       </c>
       <c r="AK3">
-        <v>0.004419190237966677</v>
+        <v>0.004218962321699788</v>
       </c>
       <c r="AL3">
-        <v>0.00442224075233222</v>
+        <v>0.004218962321699788</v>
       </c>
       <c r="AM3">
-        <v>0.004433308183295626</v>
+        <v>0.004223572070119475</v>
       </c>
       <c r="AN3">
-        <v>0.004433500741372388</v>
+        <v>0.004223572070119475</v>
       </c>
       <c r="AO3">
-        <v>0.004443407252234736</v>
+        <v>0.004227019514181895</v>
       </c>
       <c r="AP3">
-        <v>0.004448833086207049</v>
+        <v>0.004227019514181895</v>
       </c>
       <c r="AQ3">
-        <v>0.004449481392763483</v>
+        <v>0.004227019514181895</v>
       </c>
       <c r="AR3">
-        <v>0.004470507702593796</v>
+        <v>0.004241600016221896</v>
       </c>
       <c r="AS3">
-        <v>0.004470849350843536</v>
+        <v>0.004241600016221896</v>
       </c>
       <c r="AT3">
-        <v>0.00447222999836372</v>
+        <v>0.004241600016221896</v>
       </c>
       <c r="AU3">
-        <v>0.004483772947368518</v>
+        <v>0.004246685849680483</v>
       </c>
       <c r="AV3">
-        <v>0.004784807423573172</v>
+        <v>0.004541608393822399</v>
       </c>
       <c r="AW3">
-        <v>0.005314780469706627</v>
+        <v>0.005065742489330029</v>
       </c>
       <c r="AX3">
-        <v>0.005588836593562851</v>
+        <v>0.005333654512715231</v>
       </c>
       <c r="AY3">
-        <v>0.006100903438137593</v>
+        <v>0.005839861055693745</v>
       </c>
       <c r="AZ3">
-        <v>0.006563505378406482</v>
+        <v>0.00629654371347621</v>
       </c>
       <c r="BA3">
-        <v>0.006800674859051773</v>
+        <v>0.006527525110808837</v>
       </c>
       <c r="BB3">
-        <v>0.007143927968931503</v>
+        <v>0.006864716629218456</v>
       </c>
       <c r="BC3">
-        <v>0.007279294640714994</v>
+        <v>0.00699377383020506</v>
       </c>
       <c r="BD3">
-        <v>0.007332876761379246</v>
+        <v>0.007040948961929072</v>
       </c>
       <c r="BE3">
-        <v>0.007336774182118512</v>
+        <v>0.007040948961929072</v>
       </c>
       <c r="BF3">
-        <v>0.007342357777604557</v>
+        <v>0.007040948961929072</v>
       </c>
       <c r="BG3">
-        <v>0.007365564353624659</v>
+        <v>0.00705771232986147</v>
       </c>
       <c r="BH3">
-        <v>0.007417629841156891</v>
+        <v>0.007103369020052667</v>
       </c>
       <c r="BI3">
-        <v>0.007674412233509459</v>
+        <v>0.007353986715107526</v>
       </c>
       <c r="BJ3">
-        <v>0.007892873692526241</v>
+        <v>0.007566237783768198</v>
       </c>
       <c r="BK3">
-        <v>0.007944616217030359</v>
+        <v>0.007611571125837099</v>
       </c>
       <c r="BL3">
-        <v>0.008049276380140889</v>
+        <v>0.007709885204368876</v>
       </c>
       <c r="BM3">
-        <v>0.008277789640032666</v>
+        <v>0.007932200059456157</v>
       </c>
       <c r="BN3">
-        <v>0.00848127743774601</v>
+        <v>0.008129459612541043</v>
       </c>
       <c r="BO3">
-        <v>0.00873163538953934</v>
+        <v>0.008373645206671632</v>
       </c>
       <c r="BP3">
-        <v>0.009098833791503476</v>
+        <v>0.008734810569017983</v>
       </c>
       <c r="BQ3">
-        <v>0.009228955752830422</v>
+        <v>0.008858616805867865</v>
       </c>
       <c r="BR3">
-        <v>0.009269884051393177</v>
+        <v>0.008893123027344503</v>
       </c>
       <c r="BS3">
-        <v>0.009323743801081598</v>
+        <v>0.008940576119131571</v>
       </c>
       <c r="BT3">
-        <v>0.009334222733993775</v>
+        <v>0.008944596667787586</v>
       </c>
       <c r="BU3">
-        <v>0.009337525273481256</v>
+        <v>0.008944596667787586</v>
       </c>
       <c r="BV3">
-        <v>0.009337609169328558</v>
+        <v>0.008944596667787586</v>
       </c>
       <c r="BW3">
-        <v>0.009337610419546567</v>
+        <v>0.008944596667787586</v>
       </c>
       <c r="BX3">
-        <v>0.009353186386902435</v>
+        <v>0.008953720328481761</v>
       </c>
       <c r="BY3">
-        <v>0.009487252298572696</v>
+        <v>0.009081475218356696</v>
       </c>
       <c r="BZ3">
-        <v>0.009745585081060224</v>
+        <v>0.009333645152198434</v>
       </c>
       <c r="CA3">
-        <v>0.009926796456834435</v>
+        <v>0.009508601721416802</v>
       </c>
       <c r="CB3">
-        <v>0.01018225523907178</v>
+        <v>0.00975789422811215</v>
       </c>
       <c r="CC3">
-        <v>0.01062813791788528</v>
+        <v>0.01019783768875072</v>
       </c>
       <c r="CD3">
-        <v>0.01095376664623083</v>
+        <v>0.01051738381069191</v>
       </c>
       <c r="CE3">
-        <v>0.01121972026938175</v>
+        <v>0.01077718367212386</v>
       </c>
       <c r="CF3">
-        <v>0.01143663075826352</v>
+        <v>0.01098788192130602</v>
       </c>
       <c r="CG3">
-        <v>0.01147934329598159</v>
+        <v>0.01102417450942645</v>
       </c>
       <c r="CH3">
-        <v>0.01148081249460948</v>
+        <v>0.01102417450942645</v>
       </c>
       <c r="CI3">
-        <v>0.01153390352923099</v>
+        <v>0.01107085796954726</v>
       </c>
       <c r="CJ3">
-        <v>0.01159014295012655</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="CK3">
-        <v>0.01159079125668299</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="CL3">
-        <v>0.01159282199615976</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="CM3">
-        <v>0.01159485273563653</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="CN3">
-        <v>0.09574307006062779</v>
+        <v>0.09536277654409701</v>
       </c>
       <c r="CO3">
-        <v>0.1155699287865297</v>
+        <v>0.1152068055116751</v>
       </c>
       <c r="CP3">
-        <v>0.2107213570693359</v>
+        <v>0.2104652194361532</v>
       </c>
       <c r="CQ3">
-        <v>0.2117894487623119</v>
+        <v>0.2115281138196278</v>
       </c>
       <c r="CR3">
-        <v>0.2123935726149001</v>
+        <v>0.2121264871374202</v>
       </c>
       <c r="CS3">
-        <v>0.2136678046258203</v>
+        <v>0.2133957676361297</v>
       </c>
       <c r="CT3">
-        <v>0.2653385951236944</v>
+        <v>0.2651216983964363</v>
       </c>
       <c r="CU3">
-        <v>0.2700211071313009</v>
+        <v>0.2698033228517457</v>
       </c>
       <c r="CV3">
-        <v>0.2931831541475265</v>
+        <v>0.2929865169165795</v>
       </c>
       <c r="CW3">
-        <v>0.3180680763137261</v>
+        <v>0.3178946404507367</v>
       </c>
       <c r="CX3">
-        <v>0.3203283465104796</v>
+        <v>0.3201511348660483</v>
       </c>
       <c r="CY3">
-        <v>0.320337357125264</v>
+        <v>0.3201536853457855</v>
       </c>
       <c r="CZ3">
-        <v>0.3247393920084554</v>
+        <v>0.3245544982417767</v>
       </c>
       <c r="DA3">
-        <v>0.3315970662054069</v>
+        <v>0.3314138785031387</v>
       </c>
       <c r="DB3">
-        <v>0.348564343682386</v>
+        <v>0.34839491651849</v>
       </c>
       <c r="DC3">
-        <v>0.350779024275171</v>
+        <v>0.3506057669697678</v>
       </c>
       <c r="DD3">
-        <v>0.3618726262408544</v>
+        <v>0.3617061258292145</v>
       </c>
       <c r="DE3">
-        <v>0.3629722187365725</v>
+        <v>0.3628005585763123</v>
       </c>
       <c r="DF3">
-        <v>0.3683494876046566</v>
+        <v>0.3681777683052678</v>
       </c>
       <c r="DG3">
-        <v>0.3921479866762846</v>
+        <v>0.3919981733172741</v>
       </c>
       <c r="DH3">
-        <v>0.3949132212169946</v>
+        <v>0.3947602341851875</v>
       </c>
       <c r="DI3">
-        <v>0.3962725929353261</v>
+        <v>0.3961147559100679</v>
       </c>
       <c r="DJ3">
-        <v>0.3971427752510743</v>
+        <v>0.3969795049334212</v>
       </c>
       <c r="DK3">
-        <v>0.3982492983473957</v>
+        <v>0.3980808765450217</v>
       </c>
       <c r="DL3">
-        <v>0.3982897975909211</v>
+        <v>0.398114953199865</v>
       </c>
       <c r="DM3">
-        <v>0.4003487657701515</v>
+        <v>0.4001699055694485</v>
       </c>
       <c r="DN3">
-        <v>0.4005772790300433</v>
+        <v>0.4003922204245358</v>
       </c>
       <c r="DO3">
-        <v>0.4035943406926745</v>
+        <v>0.4034064086876253</v>
       </c>
       <c r="DP3">
-        <v>0.4065436914494116</v>
+        <v>0.4063528053077899</v>
       </c>
       <c r="DQ3">
-        <v>0.4135313317576765</v>
+        <v>0.4133423066492669</v>
       </c>
       <c r="DR3">
-        <v>0.4185224565921473</v>
+        <v>0.4183329119147515</v>
       </c>
       <c r="DS3">
-        <v>0.4248893629463781</v>
+        <v>0.4247009391523509</v>
       </c>
       <c r="DT3">
-        <v>0.4249284917897843</v>
+        <v>0.4247336437730392</v>
       </c>
       <c r="DU3">
-        <v>0.4291713808591222</v>
+        <v>0.4289751210931244</v>
       </c>
       <c r="DV3">
-        <v>0.4320879570130063</v>
+        <v>0.4318887040307031</v>
       </c>
       <c r="DW3">
-        <v>0.4536942288938037</v>
+        <v>0.4535142678872298</v>
       </c>
       <c r="DX3">
-        <v>0.4611587315435788</v>
+        <v>0.4609812001706378</v>
       </c>
       <c r="DY3">
-        <v>0.4871601818069707</v>
+        <v>0.4870071831261257</v>
       </c>
       <c r="DZ3">
-        <v>0.4930109426162718</v>
+        <v>0.4928584493779259</v>
       </c>
       <c r="EA3">
-        <v>0.5294679887898095</v>
+        <v>0.529352495271707</v>
       </c>
       <c r="EB3">
-        <v>0.5523013787774259</v>
+        <v>0.5522066404243449</v>
       </c>
       <c r="EC3">
-        <v>0.5551685356270081</v>
+        <v>0.5550707451311039</v>
       </c>
       <c r="ED3">
-        <v>0.5568444422728935</v>
+        <v>0.5567421792129919</v>
       </c>
       <c r="EE3">
-        <v>0.5568450429409458</v>
+        <v>0.5567421792129919</v>
       </c>
       <c r="EF3">
-        <v>0.5652776676749947</v>
+        <v>0.5651783879486674</v>
       </c>
       <c r="EG3">
-        <v>0.5810859120510815</v>
+        <v>0.580999010856934</v>
       </c>
       <c r="EH3">
-        <v>0.5964298023867469</v>
+        <v>0.5963547260389881</v>
       </c>
       <c r="EI3">
-        <v>0.6220376736158784</v>
+        <v>0.6219866606650226</v>
       </c>
       <c r="EJ3">
-        <v>0.6596580538906828</v>
+        <v>0.6596454277946834</v>
       </c>
       <c r="EK3">
-        <v>0.6790320705771653</v>
+        <v>0.679036074763714</v>
       </c>
       <c r="EL3">
-        <v>0.679415771790566</v>
+        <v>0.679413762615095</v>
       </c>
       <c r="EM3">
-        <v>0.6887486916029844</v>
+        <v>0.6887513399216678</v>
       </c>
       <c r="EN3">
-        <v>0.7035513398915354</v>
+        <v>0.7035651676912076</v>
       </c>
       <c r="EO3">
-        <v>0.7072835352164181</v>
+        <v>0.7072953423265781</v>
       </c>
       <c r="EP3">
-        <v>0.716834247047795</v>
+        <v>0.7168509713426382</v>
       </c>
       <c r="EQ3">
-        <v>0.7423679622704712</v>
+        <v>0.742408661540187</v>
       </c>
       <c r="ER3">
-        <v>0.7662218173469177</v>
+        <v>0.766284488562324</v>
       </c>
       <c r="ES3">
-        <v>0.7774432693237303</v>
+        <v>0.777512849878509</v>
       </c>
       <c r="ET3">
-        <v>0.7905110214612608</v>
+        <v>0.7905897128440952</v>
       </c>
       <c r="EU3">
-        <v>0.7965205769843847</v>
+        <v>0.7965999631531266</v>
       </c>
       <c r="EV3">
-        <v>0.7968805100157165</v>
+        <v>0.7969538544817686</v>
       </c>
       <c r="EW3">
-        <v>0.8037060926098745</v>
+        <v>0.8037811048749988</v>
       </c>
       <c r="EX3">
-        <v>0.8086293584384383</v>
+        <v>0.8087037702209542</v>
       </c>
       <c r="EY3">
-        <v>0.8129583688152729</v>
+        <v>0.8130314715377347</v>
       </c>
       <c r="EZ3">
-        <v>0.8170575041720972</v>
+        <v>0.817129023736465</v>
       </c>
       <c r="FA3">
-        <v>0.8235375837361796</v>
+        <v>0.8236103591292223</v>
       </c>
       <c r="FB3">
-        <v>0.8276726740961338</v>
+        <v>0.8277439092030565</v>
       </c>
       <c r="FC3">
-        <v>0.8336487243163411</v>
+        <v>0.8337206142581673</v>
       </c>
       <c r="FD3">
-        <v>0.847227918498392</v>
+        <v>0.8473095291007904</v>
       </c>
       <c r="FE3">
-        <v>0.8522889614389491</v>
+        <v>0.8523701358412102</v>
       </c>
       <c r="FF3">
-        <v>0.8530615441662014</v>
+        <v>0.8531371689004131</v>
       </c>
       <c r="FG3">
-        <v>0.8572447845303469</v>
+        <v>0.8573189263914702</v>
       </c>
       <c r="FH3">
-        <v>0.8713468897579165</v>
+        <v>0.8714313757875191</v>
       </c>
       <c r="FI3">
-        <v>0.8837844253405875</v>
+        <v>0.8838772707415525</v>
       </c>
       <c r="FJ3">
-        <v>0.8852288090663193</v>
+        <v>0.8853169058403261</v>
       </c>
       <c r="FK3">
-        <v>0.8867072007950113</v>
+        <v>0.8867905894924728</v>
       </c>
       <c r="FL3">
-        <v>0.8867356400604869</v>
+        <v>0.8868125917892072</v>
       </c>
       <c r="FM3">
-        <v>0.8895947729093706</v>
+        <v>0.8896686629276216</v>
       </c>
       <c r="FN3">
-        <v>0.8920232323207647</v>
+        <v>0.8920935471027833</v>
       </c>
       <c r="FO3">
-        <v>0.8986819079003937</v>
+        <v>0.8987536914651427</v>
       </c>
       <c r="FP3">
-        <v>0.8996235880323658</v>
+        <v>0.8996900235571813</v>
       </c>
       <c r="FQ3">
-        <v>0.9057653810670008</v>
+        <v>0.9058326690548943</v>
       </c>
       <c r="FR3">
-        <v>0.9108743735117318</v>
+        <v>0.9109412824734477</v>
       </c>
       <c r="FS3">
-        <v>0.9123227553378116</v>
+        <v>0.9123849204398184</v>
       </c>
       <c r="FT3">
-        <v>0.9145731158337025</v>
+        <v>0.9146314933381527</v>
       </c>
       <c r="FU3">
-        <v>0.914871701359694</v>
+        <v>0.9149239640120058</v>
       </c>
       <c r="FV3">
-        <v>0.9152479748924481</v>
+        <v>0.9152942153261333</v>
       </c>
       <c r="FW3">
-        <v>0.9190568179240028</v>
+        <v>0.9191011290612562</v>
       </c>
       <c r="FX3">
-        <v>0.9223491302105943</v>
+        <v>0.9223908961512421</v>
       </c>
       <c r="FY3">
-        <v>0.9230373586705036</v>
+        <v>0.9230734743608844</v>
       </c>
       <c r="FZ3">
-        <v>0.9233739996198078</v>
+        <v>0.9234040458345201</v>
       </c>
       <c r="GA3">
-        <v>0.9246958751348754</v>
+        <v>0.9247210266464686</v>
       </c>
       <c r="GB3">
-        <v>0.9250881013690182</v>
+        <v>0.9251072496836434</v>
       </c>
       <c r="GC3">
-        <v>0.9254745780326605</v>
+        <v>0.9254877162946534</v>
       </c>
       <c r="GD3">
-        <v>0.9324890553432615</v>
+        <v>0.9325040866383321</v>
       </c>
       <c r="GE3">
-        <v>0.9465911605708311</v>
+        <v>0.9466165360343809</v>
       </c>
       <c r="GF3">
-        <v>0.9544818042577012</v>
+        <v>0.95451011747631</v>
       </c>
       <c r="GG3">
-        <v>0.9572979535028433</v>
+        <v>0.9573231537582562</v>
       </c>
       <c r="GH3">
-        <v>0.9579231936572696</v>
+        <v>0.9579426685565118</v>
       </c>
       <c r="GI3">
-        <v>0.9580734728703513</v>
+        <v>0.9580866560801906</v>
       </c>
       <c r="GJ3">
-        <v>0.9587607080301742</v>
+        <v>0.9587682398053566</v>
       </c>
       <c r="GK3">
-        <v>0.9587656397386035</v>
+        <v>0.9587682398053566</v>
       </c>
       <c r="GL3">
-        <v>0.9619470118155378</v>
+        <v>0.9619469344029605</v>
       </c>
       <c r="GM3">
-        <v>0.9695529451776242</v>
+        <v>0.9695554660376257</v>
       </c>
       <c r="GN3">
-        <v>0.9838840564251286</v>
+        <v>0.983897194515472</v>
       </c>
       <c r="GO3">
-        <v>0.995577380443017</v>
+        <v>0.9955979905228265</v>
       </c>
       <c r="GP3">
-        <v>0.9987171695163315</v>
+        <v>0.9987350525341296</v>
       </c>
       <c r="GQ3">
-        <v>0.9998534831152461</v>
+        <v>0.9998662501698793</v>
       </c>
       <c r="GR3">
-        <v>0.9999913885572507</v>
+        <v>0.9999978491682621</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002966240502964991</v>
+        <v>0.0002852931269658209</v>
       </c>
       <c r="C4">
-        <v>0.000829813536779987</v>
+        <v>0.0008076799101866436</v>
       </c>
       <c r="D4">
-        <v>0.001151689558804352</v>
+        <v>0.00111828139327206</v>
       </c>
       <c r="E4">
-        <v>0.001174919124393835</v>
+        <v>0.001129569580953755</v>
       </c>
       <c r="F4">
-        <v>0.001193115515638923</v>
+        <v>0.001135813355862748</v>
       </c>
       <c r="G4">
-        <v>0.001284692751905095</v>
+        <v>0.001215601825743065</v>
       </c>
       <c r="H4">
-        <v>0.001290846452626162</v>
+        <v>0.001215601825743065</v>
       </c>
       <c r="I4">
-        <v>0.001303946572522538</v>
+        <v>0.001216737949987577</v>
       </c>
       <c r="J4">
-        <v>0.001308579307839533</v>
+        <v>0.001216737949987577</v>
       </c>
       <c r="K4">
-        <v>0.00133512234465574</v>
+        <v>0.001231347007449331</v>
       </c>
       <c r="L4">
-        <v>0.001343742795245594</v>
+        <v>0.001231347007449331</v>
       </c>
       <c r="M4">
-        <v>0.001360346820381724</v>
+        <v>0.001235994860701489</v>
       </c>
       <c r="N4">
-        <v>0.001372313347200534</v>
+        <v>0.001235994860701489</v>
       </c>
       <c r="O4">
-        <v>0.001382245287880127</v>
+        <v>0.001235994860701489</v>
       </c>
       <c r="P4">
-        <v>0.001438822931751452</v>
+        <v>0.001280705588617128</v>
       </c>
       <c r="Q4">
-        <v>0.001503545236180075</v>
+        <v>0.001333579163065255</v>
       </c>
       <c r="R4">
-        <v>0.001529041715924671</v>
+        <v>0.001347139326628614</v>
       </c>
       <c r="S4">
-        <v>0.001726634269444941</v>
+        <v>0.001533179832275222</v>
       </c>
       <c r="T4">
-        <v>0.002394561915147887</v>
+        <v>0.002190605627624422</v>
       </c>
       <c r="U4">
-        <v>0.002801435002988175</v>
+        <v>0.002586393963996873</v>
       </c>
       <c r="V4">
-        <v>0.003010732537309358</v>
+        <v>0.002784165586154895</v>
       </c>
       <c r="W4">
-        <v>0.003232377222475394</v>
+        <v>0.002994311928751047</v>
       </c>
       <c r="X4">
-        <v>0.00334084600589737</v>
+        <v>0.003091029662430527</v>
       </c>
       <c r="Y4">
-        <v>0.003360233209223939</v>
+        <v>0.003098466908350593</v>
       </c>
       <c r="Z4">
-        <v>0.00347041825276335</v>
+        <v>0.003196904734334705</v>
       </c>
       <c r="AA4">
-        <v>0.003600137461639386</v>
+        <v>0.00331492034292392</v>
       </c>
       <c r="AB4">
-        <v>0.003610593435354836</v>
+        <v>0.00331492034292392</v>
       </c>
       <c r="AC4">
-        <v>0.003611918242945486</v>
+        <v>0.00331492034292392</v>
       </c>
       <c r="AD4">
-        <v>0.003615630346499487</v>
+        <v>0.00331492034292392</v>
       </c>
       <c r="AE4">
-        <v>0.003704672852592219</v>
+        <v>0.003392168422905667</v>
       </c>
       <c r="AF4">
-        <v>0.003995319932479744</v>
+        <v>0.00367147123365948</v>
       </c>
       <c r="AG4">
-        <v>0.004212590807346503</v>
+        <v>0.003877233999802807</v>
       </c>
       <c r="AH4">
-        <v>0.004275446651647414</v>
+        <v>0.003928236946558799</v>
       </c>
       <c r="AI4">
-        <v>0.004312932791212402</v>
+        <v>0.003953813541304537</v>
       </c>
       <c r="AJ4">
-        <v>0.004508112974567605</v>
+        <v>0.004137436290275043</v>
       </c>
       <c r="AK4">
-        <v>0.004718186008941852</v>
+        <v>0.004335985144077596</v>
       </c>
       <c r="AL4">
-        <v>0.004745862454835613</v>
+        <v>0.004351730141373001</v>
       </c>
       <c r="AM4">
-        <v>0.004777792647020436</v>
+        <v>0.00437173838302559</v>
       </c>
       <c r="AN4">
-        <v>0.004814902867559702</v>
+        <v>0.004396938219366969</v>
       </c>
       <c r="AO4">
-        <v>0.004835260446952669</v>
+        <v>0.004405348008077872</v>
       </c>
       <c r="AP4">
-        <v>0.005003359788454866</v>
+        <v>0.004561829447172839</v>
       </c>
       <c r="AQ4">
-        <v>0.005205480172284952</v>
+        <v>0.004752407893189604</v>
       </c>
       <c r="AR4">
-        <v>0.005206007807371056</v>
+        <v>0.004752407893189604</v>
       </c>
       <c r="AS4">
-        <v>0.005208046976010586</v>
+        <v>0.004752407893189604</v>
       </c>
       <c r="AT4">
-        <v>0.005229435620474104</v>
+        <v>0.004761851049206203</v>
       </c>
       <c r="AU4">
-        <v>0.005238857000118761</v>
+        <v>0.004761851049206203</v>
       </c>
       <c r="AV4">
-        <v>0.005418697102424319</v>
+        <v>0.004930099464707158</v>
       </c>
       <c r="AW4">
-        <v>0.005552894381606767</v>
+        <v>0.005052603142555464</v>
       </c>
       <c r="AX4">
-        <v>0.005720300093061502</v>
+        <v>0.005208389402816652</v>
       </c>
       <c r="AY4">
-        <v>0.00601706194336743</v>
+        <v>0.005493820637481528</v>
       </c>
       <c r="AZ4">
-        <v>0.006112485944896817</v>
+        <v>0.005577464461955107</v>
       </c>
       <c r="BA4">
-        <v>0.006126064901825957</v>
+        <v>0.005579080492413638</v>
       </c>
       <c r="BB4">
-        <v>0.006152607938642164</v>
+        <v>0.005593689549875392</v>
       </c>
       <c r="BC4">
-        <v>0.00615893539377512</v>
+        <v>0.005593689549875392</v>
       </c>
       <c r="BD4">
-        <v>0.006238815129240891</v>
+        <v>0.005661754399946681</v>
       </c>
       <c r="BE4">
-        <v>0.006405690320659325</v>
+        <v>0.005817008955588842</v>
       </c>
       <c r="BF4">
-        <v>0.006537285769663743</v>
+        <v>0.00593690499370834</v>
       </c>
       <c r="BG4">
-        <v>0.00681049918835837</v>
+        <v>0.006198735216155263</v>
       </c>
       <c r="BH4">
-        <v>0.007039846294051444</v>
+        <v>0.00641660117778877</v>
       </c>
       <c r="BI4">
-        <v>0.007115385529220216</v>
+        <v>0.006480315835786447</v>
       </c>
       <c r="BJ4">
-        <v>0.007115581898153653</v>
+        <v>0.006480315835786447</v>
       </c>
       <c r="BK4">
-        <v>0.007116547909419752</v>
+        <v>0.006480315835786447</v>
       </c>
       <c r="BL4">
-        <v>0.007121772541177247</v>
+        <v>0.006480315835786447</v>
       </c>
       <c r="BM4">
-        <v>0.007141124525501407</v>
+        <v>0.006487717784064619</v>
       </c>
       <c r="BN4">
-        <v>0.007148011426972643</v>
+        <v>0.006487717784064619</v>
       </c>
       <c r="BO4">
-        <v>0.007173674980728672</v>
+        <v>0.006501445394694101</v>
       </c>
       <c r="BP4">
-        <v>0.007418054397450332</v>
+        <v>0.006734377232565389</v>
       </c>
       <c r="BQ4">
-        <v>0.007573371408077898</v>
+        <v>0.006878047799491643</v>
       </c>
       <c r="BR4">
-        <v>0.007628661606861129</v>
+        <v>0.006921468207620572</v>
       </c>
       <c r="BS4">
-        <v>0.007675597507072718</v>
+        <v>0.006956515663108054</v>
       </c>
       <c r="BT4">
-        <v>0.007694679658378415</v>
+        <v>0.006963647175865481</v>
       </c>
       <c r="BU4">
-        <v>0.007793461825137584</v>
+        <v>0.007050656663918114</v>
       </c>
       <c r="BV4">
-        <v>0.007986070678316843</v>
+        <v>0.007231702341264465</v>
       </c>
       <c r="BW4">
-        <v>0.008094456135733117</v>
+        <v>0.007328336562882033</v>
       </c>
       <c r="BX4">
-        <v>0.008152683081717295</v>
+        <v>0.007374700275589146</v>
       </c>
       <c r="BY4">
-        <v>0.008223244421545454</v>
+        <v>0.00743342592324878</v>
       </c>
       <c r="BZ4">
-        <v>0.008224920483660138</v>
+        <v>0.00743342592324878</v>
       </c>
       <c r="CA4">
-        <v>0.008226721237883355</v>
+        <v>0.00743342592324878</v>
       </c>
       <c r="CB4">
-        <v>0.008226726686263227</v>
+        <v>0.00743342592324878</v>
       </c>
       <c r="CC4">
-        <v>0.008226728210018431</v>
+        <v>0.00743342592324878</v>
       </c>
       <c r="CD4">
-        <v>0.008252745336798652</v>
+        <v>0.007447507896385356</v>
       </c>
       <c r="CE4">
-        <v>0.00830361034527909</v>
+        <v>0.007486493233333032</v>
       </c>
       <c r="CF4">
-        <v>0.008566744163284019</v>
+        <v>0.007738221348643637</v>
       </c>
       <c r="CG4">
-        <v>0.008802033089383663</v>
+        <v>0.007962042398001331</v>
       </c>
       <c r="CH4">
-        <v>0.008913297626996938</v>
+        <v>0.008061562128430164</v>
       </c>
       <c r="CI4">
-        <v>0.009140784152562701</v>
+        <v>0.008277563355501219</v>
       </c>
       <c r="CJ4">
-        <v>0.009308189864017435</v>
+        <v>0.008433349615762408</v>
       </c>
       <c r="CK4">
-        <v>0.00931884582274657</v>
+        <v>0.008433349615762408</v>
       </c>
       <c r="CL4">
-        <v>0.00941108988905837</v>
+        <v>0.008513806404633728</v>
       </c>
       <c r="CM4">
-        <v>0.009720351670219606</v>
+        <v>0.00881176548088522</v>
       </c>
       <c r="CN4">
-        <v>0.116912503004842</v>
+        <v>0.1162312697996932</v>
       </c>
       <c r="CO4">
-        <v>0.1597601919366949</v>
+        <v>0.1591626388408837</v>
       </c>
       <c r="CP4">
-        <v>0.2571536586008424</v>
+        <v>0.2567615792917884</v>
       </c>
       <c r="CQ4">
-        <v>0.2576488841347282</v>
+        <v>0.2572459173538082</v>
       </c>
       <c r="CR4">
-        <v>0.2602487603126247</v>
+        <v>0.2598396054729239</v>
       </c>
       <c r="CS4">
-        <v>0.2609592361612391</v>
+        <v>0.2605396744758267</v>
       </c>
       <c r="CT4">
-        <v>0.2992367587803784</v>
+        <v>0.2988906726131366</v>
       </c>
       <c r="CU4">
-        <v>0.30309005304404</v>
+        <v>0.3027405775387316</v>
       </c>
       <c r="CV4">
-        <v>0.3261550036222591</v>
+        <v>0.3258450359263655</v>
       </c>
       <c r="CW4">
-        <v>0.3401970465830859</v>
+        <v>0.3399064397091512</v>
       </c>
       <c r="CX4">
-        <v>0.3422301623222018</v>
+        <v>0.3419321018866202</v>
       </c>
       <c r="CY4">
-        <v>0.3422492444735075</v>
+        <v>0.3419392333993777</v>
       </c>
       <c r="CZ4">
-        <v>0.3487284835168494</v>
+        <v>0.3484209465002211</v>
       </c>
       <c r="DA4">
-        <v>0.3497989374900952</v>
+        <v>0.3494817974124187</v>
       </c>
       <c r="DB4">
-        <v>0.3663142366201544</v>
+        <v>0.3660219798260568</v>
       </c>
       <c r="DC4">
-        <v>0.370360149396996</v>
+        <v>0.3700649333570962</v>
       </c>
       <c r="DD4">
-        <v>0.3749282817095704</v>
+        <v>0.3746312724726502</v>
       </c>
       <c r="DE4">
-        <v>0.3770038128515886</v>
+        <v>0.3766994447611384</v>
       </c>
       <c r="DF4">
-        <v>0.3828533809518453</v>
+        <v>0.3825500809449989</v>
       </c>
       <c r="DG4">
-        <v>0.405389760493897</v>
+        <v>0.4051247880656033</v>
       </c>
       <c r="DH4">
-        <v>0.4065318613720452</v>
+        <v>0.4062574458609892</v>
       </c>
       <c r="DI4">
-        <v>0.4094612927724915</v>
+        <v>0.4091814250569066</v>
       </c>
       <c r="DJ4">
-        <v>0.409651740715523</v>
+        <v>0.4093603049990718</v>
       </c>
       <c r="DK4">
-        <v>0.410216360454157</v>
+        <v>0.4099141922141373</v>
       </c>
       <c r="DL4">
-        <v>0.4106870629063649</v>
+        <v>0.4103739524376047</v>
       </c>
       <c r="DM4">
-        <v>0.4139509105296936</v>
+        <v>0.4136330945646424</v>
       </c>
       <c r="DN4">
-        <v>0.4140369564055813</v>
+        <v>0.4137073393233309</v>
       </c>
       <c r="DO4">
-        <v>0.4166904617871474</v>
+        <v>0.4163547763932021</v>
       </c>
       <c r="DP4">
-        <v>0.4212013770958068</v>
+        <v>0.4208637707466605</v>
       </c>
       <c r="DQ4">
-        <v>0.428152348571427</v>
+        <v>0.4278182695973821</v>
       </c>
       <c r="DR4">
-        <v>0.4318518245245636</v>
+        <v>0.4315140127560294</v>
       </c>
       <c r="DS4">
-        <v>0.4362178488233088</v>
+        <v>0.4358777925766603</v>
       </c>
       <c r="DT4">
-        <v>0.4364163075668883</v>
+        <v>0.4360647012064567</v>
       </c>
       <c r="DU4">
-        <v>0.4400789228175028</v>
+        <v>0.4397235013573934</v>
       </c>
       <c r="DV4">
-        <v>0.4438121703729502</v>
+        <v>0.4434530915259781</v>
       </c>
       <c r="DW4">
-        <v>0.4609341295445202</v>
+        <v>0.4606012885746531</v>
       </c>
       <c r="DX4">
-        <v>0.4766585736204652</v>
+        <v>0.4763488500569752</v>
       </c>
       <c r="DY4">
-        <v>0.5047801195446818</v>
+        <v>0.5045211945149856</v>
       </c>
       <c r="DZ4">
-        <v>0.5141534021860487</v>
+        <v>0.5139034132394601</v>
       </c>
       <c r="EA4">
-        <v>0.5561390580589169</v>
+        <v>0.5559708244131717</v>
       </c>
       <c r="EB4">
-        <v>0.5777910395404536</v>
+        <v>0.5776591587266067</v>
       </c>
       <c r="EC4">
-        <v>0.5824450105589015</v>
+        <v>0.5823115282147788</v>
       </c>
       <c r="ED4">
-        <v>0.5849378467294738</v>
+        <v>0.5847979373200576</v>
       </c>
       <c r="EE4">
-        <v>0.5850443182367591</v>
+        <v>0.5848926533179407</v>
       </c>
       <c r="EF4">
-        <v>0.5915080591790405</v>
+        <v>0.5913588337124654</v>
       </c>
       <c r="EG4">
-        <v>0.6066933242180922</v>
+        <v>0.6065660122407366</v>
       </c>
       <c r="EH4">
-        <v>0.6195297245964229</v>
+        <v>0.6194190813968409</v>
       </c>
       <c r="EI4">
-        <v>0.6431369062117441</v>
+        <v>0.6430669815534569</v>
       </c>
       <c r="EJ4">
-        <v>0.6833737549649503</v>
+        <v>0.683381680747056</v>
       </c>
       <c r="EK4">
-        <v>0.7029111383017957</v>
+        <v>0.70295069529123</v>
       </c>
       <c r="EL4">
-        <v>0.70301321022878</v>
+        <v>0.7030410018851174</v>
       </c>
       <c r="EM4">
-        <v>0.7139827609793715</v>
+        <v>0.7140230529793561</v>
       </c>
       <c r="EN4">
-        <v>0.724900796726438</v>
+        <v>0.7249534740437199</v>
       </c>
       <c r="EO4">
-        <v>0.7271874501829023</v>
+        <v>0.7272332400555173</v>
       </c>
       <c r="EP4">
-        <v>0.7347311150990775</v>
+        <v>0.7347817557547039</v>
       </c>
       <c r="EQ4">
-        <v>0.7554277505152447</v>
+        <v>0.7555126108383826</v>
       </c>
       <c r="ER4">
-        <v>0.7748888938468733</v>
+        <v>0.7750052151432543</v>
       </c>
       <c r="ES4">
-        <v>0.7853466595624459</v>
+        <v>0.7854743384525849</v>
       </c>
       <c r="ET4">
-        <v>0.7985138454634105</v>
+        <v>0.7986589317326762</v>
       </c>
       <c r="EU4">
-        <v>0.8036314818135848</v>
+        <v>0.8037760018573809</v>
       </c>
       <c r="EV4">
-        <v>0.8041580590496158</v>
+        <v>0.8042917616258479</v>
       </c>
       <c r="EW4">
-        <v>0.8126523366308367</v>
+        <v>0.8127930125853954</v>
       </c>
       <c r="EX4">
-        <v>0.8188112854522628</v>
+        <v>0.8189537202976209</v>
       </c>
       <c r="EY4">
-        <v>0.8219119466644255</v>
+        <v>0.8220493116393111</v>
       </c>
       <c r="EZ4">
-        <v>0.826143449953966</v>
+        <v>0.8262782700826964</v>
       </c>
       <c r="FA4">
-        <v>0.8321043488618405</v>
+        <v>0.8322404856614903</v>
       </c>
       <c r="FB4">
-        <v>0.834536098628233</v>
+        <v>0.8346656719645377</v>
       </c>
       <c r="FC4">
-        <v>0.8406004100431834</v>
+        <v>0.8407315309571809</v>
       </c>
       <c r="FD4">
-        <v>0.8530423758945249</v>
+        <v>0.8531892848649361</v>
       </c>
       <c r="FE4">
-        <v>0.8553898772551527</v>
+        <v>0.8555300346464088</v>
       </c>
       <c r="FF4">
-        <v>0.8569153908595359</v>
+        <v>0.8570469612791319</v>
       </c>
       <c r="FG4">
-        <v>0.8629579752729998</v>
+        <v>0.8630910447567001</v>
       </c>
       <c r="FH4">
-        <v>0.8793164713923298</v>
+        <v>0.8794740740387361</v>
       </c>
       <c r="FI4">
-        <v>0.8911892572047251</v>
+        <v>0.8913613770020243</v>
       </c>
       <c r="FJ4">
-        <v>0.8920653622646726</v>
+        <v>0.8922274450448993</v>
       </c>
       <c r="FK4">
-        <v>0.8934773580612884</v>
+        <v>0.8936306003992505</v>
       </c>
       <c r="FL4">
-        <v>0.8934836855164213</v>
+        <v>0.8936306003992505</v>
       </c>
       <c r="FM4">
-        <v>0.8958725133798768</v>
+        <v>0.8960127689602947</v>
       </c>
       <c r="FN4">
-        <v>0.8980929355318092</v>
+        <v>0.8982261557816105</v>
       </c>
       <c r="FO4">
-        <v>0.9037819864210825</v>
+        <v>0.9039159163402852</v>
       </c>
       <c r="FP4">
-        <v>0.9039451715322485</v>
+        <v>0.9040674725762022</v>
       </c>
       <c r="FQ4">
-        <v>0.910489994980078</v>
+        <v>0.9106149165230387</v>
       </c>
       <c r="FR4">
-        <v>0.9165192058926267</v>
+        <v>0.9166455966383913</v>
       </c>
       <c r="FS4">
-        <v>0.9182761627128465</v>
+        <v>0.9183944832697625</v>
       </c>
       <c r="FT4">
-        <v>0.9200990898375803</v>
+        <v>0.920209487508818</v>
       </c>
       <c r="FU4">
-        <v>0.9208885459915988</v>
+        <v>0.9209887131699472</v>
       </c>
       <c r="FV4">
-        <v>0.921516580334572</v>
+        <v>0.9216061565859737</v>
       </c>
       <c r="FW4">
-        <v>0.9254222711018188</v>
+        <v>0.9255085750097797</v>
       </c>
       <c r="FX4">
-        <v>0.928901733039901</v>
+        <v>0.9289838128904904</v>
       </c>
       <c r="FY4">
-        <v>0.9297433310674873</v>
+        <v>0.9298152968512572</v>
       </c>
       <c r="FZ4">
-        <v>0.9300285434170029</v>
+        <v>0.9300891527965881</v>
       </c>
       <c r="GA4">
-        <v>0.9308543770035106</v>
+        <v>0.9309048371163152</v>
       </c>
       <c r="GB4">
-        <v>0.9310877813394813</v>
+        <v>0.9311267693674976</v>
       </c>
       <c r="GC4">
-        <v>0.931911846925868</v>
+        <v>0.9319406817393878</v>
       </c>
       <c r="GD4">
-        <v>0.9404068635071395</v>
+        <v>0.9404426733490776</v>
       </c>
       <c r="GE4">
-        <v>0.9551438915155206</v>
+        <v>0.9552006139912758</v>
       </c>
       <c r="GF4">
-        <v>0.9626199904270726</v>
+        <v>0.9626814128196767</v>
       </c>
       <c r="GG4">
-        <v>0.9659066061519592</v>
+        <v>0.9659633738865027</v>
       </c>
       <c r="GH4">
-        <v>0.9669444191229716</v>
+        <v>0.9669915109133242</v>
       </c>
       <c r="GI4">
-        <v>0.9669453851342377</v>
+        <v>0.9669915109133242</v>
       </c>
       <c r="GJ4">
-        <v>0.9677161537469775</v>
+        <v>0.9677520073063084</v>
       </c>
       <c r="GK4">
-        <v>0.967739383312567</v>
+        <v>0.9677632954939901</v>
       </c>
       <c r="GL4">
-        <v>0.9708514803255123</v>
+        <v>0.9708703481711289</v>
       </c>
       <c r="GM4">
-        <v>0.9777802319996121</v>
+        <v>0.9778025776063829</v>
       </c>
       <c r="GN4">
-        <v>0.9896946583148566</v>
+        <v>0.9897316140503857</v>
       </c>
       <c r="GO4">
-        <v>0.9971328565238152</v>
+        <v>0.9971744275488189</v>
       </c>
       <c r="GP4">
-        <v>0.9987931376374199</v>
+        <v>0.9988264226092073</v>
       </c>
       <c r="GQ4">
-        <v>0.9998828836119859</v>
+        <v>0.9999066085992725</v>
       </c>
       <c r="GR4">
-        <v>0.9999843345989277</v>
+        <v>0.9999962928666386</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001696075602529913</v>
+        <v>0.0001463772912672021</v>
       </c>
       <c r="C5">
-        <v>0.0001764975205632686</v>
+        <v>0.0001463772912672021</v>
       </c>
       <c r="D5">
-        <v>0.0001766690753335245</v>
+        <v>0.0001463772912672021</v>
       </c>
       <c r="E5">
-        <v>0.0001847295083455476</v>
+        <v>0.0001463772912672021</v>
       </c>
       <c r="F5">
-        <v>0.0002993645185165404</v>
+        <v>0.0002375514970202869</v>
       </c>
       <c r="G5">
-        <v>0.0003232060785521031</v>
+        <v>0.0002375514970202869</v>
       </c>
       <c r="H5">
-        <v>0.0003908812986530493</v>
+        <v>0.0002815689799527095</v>
       </c>
       <c r="I5">
-        <v>0.0004055657381749531</v>
+        <v>0.0002815689799527095</v>
       </c>
       <c r="J5">
-        <v>0.0005844622984418001</v>
+        <v>0.0004372742260144525</v>
       </c>
       <c r="K5">
-        <v>0.0006775436245806428</v>
+        <v>0.0005068043592077549</v>
       </c>
       <c r="L5">
-        <v>0.0007445636196806117</v>
+        <v>0.0005501638693572888</v>
       </c>
       <c r="M5">
-        <v>0.0009615548800042819</v>
+        <v>0.0007441235711743979</v>
       </c>
       <c r="N5">
-        <v>0.001251162560436269</v>
+        <v>0.001011004220682474</v>
       </c>
       <c r="O5">
-        <v>0.001594993960949137</v>
+        <v>0.001332335985375375</v>
       </c>
       <c r="P5">
-        <v>0.002121107161733902</v>
+        <v>0.001836713975740311</v>
       </c>
       <c r="Q5">
-        <v>0.002568776282401658</v>
+        <v>0.002262318919260663</v>
       </c>
       <c r="R5">
-        <v>0.00273927588265598</v>
+        <v>0.002409591991429461</v>
       </c>
       <c r="S5">
-        <v>0.002899429062894869</v>
+        <v>0.002546475254356646</v>
       </c>
       <c r="T5">
-        <v>0.003108078963206097</v>
+        <v>0.002732058615447629</v>
       </c>
       <c r="U5">
-        <v>0.003128919190237183</v>
+        <v>0.002732058615447629</v>
       </c>
       <c r="V5">
-        <v>0.003133265708243666</v>
+        <v>0.002732058615447629</v>
       </c>
       <c r="W5">
-        <v>0.003134191899445048</v>
+        <v>0.002732058615447629</v>
       </c>
       <c r="X5">
-        <v>0.003139564050953061</v>
+        <v>0.002732058615447629</v>
       </c>
       <c r="Y5">
-        <v>0.003281195591164323</v>
+        <v>0.002850342565139723</v>
       </c>
       <c r="Z5">
-        <v>0.003713657931809395</v>
+        <v>0.003260676956780376</v>
       </c>
       <c r="AA5">
-        <v>0.003907224762098125</v>
+        <v>0.003431113994787829</v>
       </c>
       <c r="AB5">
-        <v>0.003909302200301223</v>
+        <v>0.003431113994787829</v>
       </c>
       <c r="AC5">
-        <v>0.003914528100909019</v>
+        <v>0.003431113994787829</v>
       </c>
       <c r="AD5">
-        <v>0.00409166429117324</v>
+        <v>0.003585051488477771</v>
       </c>
       <c r="AE5">
-        <v>0.00413544838823855</v>
+        <v>0.003605077657454459</v>
       </c>
       <c r="AF5">
-        <v>0.004247327028405431</v>
+        <v>0.00369348393396252</v>
       </c>
       <c r="AG5">
-        <v>0.004381498288605565</v>
+        <v>0.003804276317867704</v>
       </c>
       <c r="AH5">
-        <v>0.004393479651623437</v>
+        <v>0.003804276317867704</v>
       </c>
       <c r="AI5">
-        <v>0.004463971131728584</v>
+        <v>0.003851121871202718</v>
       </c>
       <c r="AJ5">
-        <v>0.004531124691828752</v>
+        <v>0.003894615506476822</v>
       </c>
       <c r="AK5">
-        <v>0.004579213751900483</v>
+        <v>0.003918964691952183</v>
       </c>
       <c r="AL5">
-        <v>0.004624552901968113</v>
+        <v>0.003940552435273485</v>
       </c>
       <c r="AM5">
-        <v>0.004628100993973405</v>
+        <v>0.003940552435273485</v>
       </c>
       <c r="AN5">
-        <v>0.00463893816098957</v>
+        <v>0.003940552435273485</v>
       </c>
       <c r="AO5">
-        <v>0.004685425301058911</v>
+        <v>0.003963292982860541</v>
       </c>
       <c r="AP5">
-        <v>0.004694160696071942</v>
+        <v>0.003963292982860541</v>
       </c>
       <c r="AQ5">
-        <v>0.004971291496485317</v>
+        <v>0.004217644428728084</v>
       </c>
       <c r="AR5">
-        <v>0.005228690796869261</v>
+        <v>0.004452181627633792</v>
       </c>
       <c r="AS5">
-        <v>0.005382476267098652</v>
+        <v>0.004582670476627858</v>
       </c>
       <c r="AT5">
-        <v>0.00561566951744649</v>
+        <v>0.004792900113884908</v>
       </c>
       <c r="AU5">
-        <v>0.005780955437693035</v>
+        <v>0.004934937641715972</v>
       </c>
       <c r="AV5">
-        <v>0.00592492284790778</v>
+        <v>0.005055567257224186</v>
       </c>
       <c r="AW5">
-        <v>0.006225443678356046</v>
+        <v>0.0053334068226399</v>
       </c>
       <c r="AX5">
-        <v>0.006577968738881882</v>
+        <v>0.005663468705481052</v>
       </c>
       <c r="AY5">
-        <v>0.00670661239907377</v>
+        <v>0.005768710308578581</v>
       </c>
       <c r="AZ5">
-        <v>0.006887212569343159</v>
+        <v>0.005926126308980676</v>
       </c>
       <c r="BA5">
-        <v>0.007070096769615954</v>
+        <v>0.006085835917800186</v>
       </c>
       <c r="BB5">
-        <v>0.007073080117820404</v>
+        <v>0.006085835917800186</v>
       </c>
       <c r="BC5">
-        <v>0.00710624896386988</v>
+        <v>0.006095202319152727</v>
       </c>
       <c r="BD5">
-        <v>0.007106929143920894</v>
+        <v>0.006095202319152727</v>
       </c>
       <c r="BE5">
-        <v>0.007111110798627132</v>
+        <v>0.006095202319152727</v>
       </c>
       <c r="BF5">
-        <v>0.007111367906417515</v>
+        <v>0.006095202319152727</v>
       </c>
       <c r="BG5">
-        <v>0.007156280260484507</v>
+        <v>0.006116361476641917</v>
       </c>
       <c r="BH5">
-        <v>0.007233132446599142</v>
+        <v>0.006169594410537741</v>
       </c>
       <c r="BI5">
-        <v>0.007260593980640105</v>
+        <v>0.006173229565433792</v>
       </c>
       <c r="BJ5">
-        <v>0.00734006737075865</v>
+        <v>0.00622909469573604</v>
       </c>
       <c r="BK5">
-        <v>0.00749722493099307</v>
+        <v>0.006362969776087963</v>
       </c>
       <c r="BL5">
-        <v>0.007713832661316168</v>
+        <v>0.006556544339515326</v>
       </c>
       <c r="BM5">
-        <v>0.008206853662051572</v>
+        <v>0.007027691352848083</v>
       </c>
       <c r="BN5">
-        <v>0.008632298082686176</v>
+        <v>0.007430978393803871</v>
       </c>
       <c r="BO5">
-        <v>0.008692689080776257</v>
+        <v>0.00746768110727463</v>
       </c>
       <c r="BP5">
-        <v>0.008717763292813659</v>
+        <v>0.007468918928582994</v>
       </c>
       <c r="BQ5">
-        <v>0.008801832442939058</v>
+        <v>0.007529399091884118</v>
       </c>
       <c r="BR5">
-        <v>0.008801881351542131</v>
+        <v>0.007529399091884118</v>
       </c>
       <c r="BS5">
-        <v>0.008877481761654898</v>
+        <v>0.007581375000272257</v>
       </c>
       <c r="BT5">
-        <v>0.008904526486695239</v>
+        <v>0.007584591598218156</v>
       </c>
       <c r="BU5">
-        <v>0.008953534848768341</v>
+        <v>0.00760986394092234</v>
       </c>
       <c r="BV5">
-        <v>0.009096740928981951</v>
+        <v>0.007729729033680664</v>
       </c>
       <c r="BW5">
-        <v>0.009120582489017514</v>
+        <v>0.007729729033680664</v>
       </c>
       <c r="BX5">
-        <v>0.009120923097768022</v>
+        <v>0.007729729033680664</v>
       </c>
       <c r="BY5">
-        <v>0.009134046921787597</v>
+        <v>0.007729729033680664</v>
       </c>
       <c r="BZ5">
-        <v>0.009153837229817116</v>
+        <v>0.007729729033680664</v>
       </c>
       <c r="CA5">
-        <v>0.009255911819969374</v>
+        <v>0.007808290145455877</v>
       </c>
       <c r="CB5">
-        <v>0.009512632020352305</v>
+        <v>0.008042145396455355</v>
       </c>
       <c r="CC5">
-        <v>0.009702454460635449</v>
+        <v>0.008208822341809871</v>
       </c>
       <c r="CD5">
-        <v>0.009937592180986186</v>
+        <v>0.008421004603489284</v>
       </c>
       <c r="CE5">
-        <v>0.01020252083138136</v>
+        <v>0.008663102727837158</v>
       </c>
       <c r="CF5">
-        <v>0.01036780675162791</v>
+        <v>0.008805140255668222</v>
       </c>
       <c r="CG5">
-        <v>0.01037140407993327</v>
+        <v>0.008805140255668222</v>
       </c>
       <c r="CH5">
-        <v>0.0103736369451366</v>
+        <v>0.008805140255668222</v>
       </c>
       <c r="CI5">
-        <v>0.01037378319363682</v>
+        <v>0.008805140255668222</v>
       </c>
       <c r="CJ5">
-        <v>0.01037384191797291</v>
+        <v>0.008805140255668222</v>
       </c>
       <c r="CK5">
-        <v>0.01037418252672342</v>
+        <v>0.008805140255668222</v>
       </c>
       <c r="CL5">
-        <v>0.01042848144180441</v>
+        <v>0.008835725338088426</v>
       </c>
       <c r="CM5">
-        <v>0.01067637826217418</v>
+        <v>0.009060720206939658</v>
       </c>
       <c r="CN5">
-        <v>0.1072854184062789</v>
+        <v>0.1060509629532069</v>
       </c>
       <c r="CO5">
-        <v>0.1190891874238857</v>
+        <v>0.1178802912601605</v>
       </c>
       <c r="CP5">
-        <v>0.2251559135820978</v>
+        <v>0.2243678822106437</v>
       </c>
       <c r="CQ5">
-        <v>0.2312780225912297</v>
+        <v>0.2304917236365604</v>
       </c>
       <c r="CR5">
-        <v>0.2315220103015936</v>
+        <v>0.230712793001981</v>
       </c>
       <c r="CS5">
-        <v>0.2329599899037386</v>
+        <v>0.2321328614388806</v>
       </c>
       <c r="CT5">
-        <v>0.2716139749613959</v>
+        <v>0.2709250060954582</v>
       </c>
       <c r="CU5">
-        <v>0.2828422749781444</v>
+        <v>0.282176452088098</v>
       </c>
       <c r="CV5">
-        <v>0.2944142699954055</v>
+        <v>0.2937730344165231</v>
       </c>
       <c r="CW5">
-        <v>0.3097658680183044</v>
+        <v>0.3091650700688057</v>
       </c>
       <c r="CX5">
-        <v>0.3100115125586708</v>
+        <v>0.3093878032123878</v>
       </c>
       <c r="CY5">
-        <v>0.3107056685597062</v>
+        <v>0.3100609287150736</v>
       </c>
       <c r="CZ5">
-        <v>0.3169996445690944</v>
+        <v>0.3163573578906591</v>
       </c>
       <c r="DA5">
-        <v>0.3191302985722725</v>
+        <v>0.3184730055600418</v>
       </c>
       <c r="DB5">
-        <v>0.3279858435854817</v>
+        <v>0.3273417460538636</v>
       </c>
       <c r="DC5">
-        <v>0.3314785185906915</v>
+        <v>0.3308251265596351</v>
       </c>
       <c r="DD5">
-        <v>0.3383356506009198</v>
+        <v>0.3376870734131488</v>
       </c>
       <c r="DE5">
-        <v>0.3384234496610508</v>
+        <v>0.3377512991283788</v>
       </c>
       <c r="DF5">
-        <v>0.3439887986693522</v>
+        <v>0.3433160456989388</v>
       </c>
       <c r="DG5">
-        <v>0.3657315147017842</v>
+        <v>0.3651260014492487</v>
       </c>
       <c r="DH5">
-        <v>0.3699961347081455</v>
+        <v>0.3693845642204817</v>
       </c>
       <c r="DI5">
-        <v>0.3717606094107774</v>
+        <v>0.3711324969628436</v>
       </c>
       <c r="DJ5">
-        <v>0.3717987357048342</v>
+        <v>0.3711468416019871</v>
       </c>
       <c r="DK5">
-        <v>0.3724516741458082</v>
+        <v>0.3717785766927424</v>
       </c>
       <c r="DL5">
-        <v>0.3729718632065841</v>
+        <v>0.3722770056993506</v>
       </c>
       <c r="DM5">
-        <v>0.3777588162137244</v>
+        <v>0.3770600919512271</v>
       </c>
       <c r="DN5">
-        <v>0.3782737055844925</v>
+        <v>0.3775531990428019</v>
       </c>
       <c r="DO5">
-        <v>0.3806827082880858</v>
+        <v>0.3799483627086018</v>
       </c>
       <c r="DP5">
-        <v>0.3846575245940148</v>
+        <v>0.383915906445182</v>
       </c>
       <c r="DQ5">
-        <v>0.3957649686105829</v>
+        <v>0.3950459896103217</v>
       </c>
       <c r="DR5">
-        <v>0.403422428122005</v>
+        <v>0.4027116202555059</v>
       </c>
       <c r="DS5">
-        <v>0.4093078711307839</v>
+        <v>0.4085978031875691</v>
       </c>
       <c r="DT5">
-        <v>0.4093187082978001</v>
+        <v>0.4085978031875691</v>
       </c>
       <c r="DU5">
-        <v>0.4128151391030155</v>
+        <v>0.4120849552438431</v>
       </c>
       <c r="DV5">
-        <v>0.4147732488059362</v>
+        <v>0.4140273350231994</v>
       </c>
       <c r="DW5">
-        <v>0.4376187438400132</v>
+        <v>0.4369446944402515</v>
       </c>
       <c r="DX5">
-        <v>0.4430178815480667</v>
+        <v>0.4423425326791567</v>
       </c>
       <c r="DY5">
-        <v>0.4777236515998348</v>
+        <v>0.4771699049125317</v>
       </c>
       <c r="DZ5">
-        <v>0.4901473946183664</v>
+        <v>0.4896218071720948</v>
       </c>
       <c r="EA5">
-        <v>0.5260067546718552</v>
+        <v>0.5256076071556511</v>
       </c>
       <c r="EB5">
-        <v>0.5540201987136408</v>
+        <v>0.5537145881307282</v>
       </c>
       <c r="EC5">
-        <v>0.5554355964157521</v>
+        <v>0.5551119799670923</v>
       </c>
       <c r="ED5">
-        <v>0.5581906740198617</v>
+        <v>0.5578546698491399</v>
       </c>
       <c r="EE5">
-        <v>0.558467100160274</v>
+        <v>0.5581083136799115</v>
       </c>
       <c r="EF5">
-        <v>0.5609428444639669</v>
+        <v>0.5605704988364764</v>
       </c>
       <c r="EG5">
-        <v>0.5771887684881998</v>
+        <v>0.5768606109770335</v>
       </c>
       <c r="EH5">
-        <v>0.5933699725123361</v>
+        <v>0.593085731704704</v>
       </c>
       <c r="EI5">
-        <v>0.6130997935417657</v>
+        <v>0.612874351082298</v>
       </c>
       <c r="EJ5">
-        <v>0.6519705975997465</v>
+        <v>0.6518842240014009</v>
       </c>
       <c r="EK5">
-        <v>0.6721943046299128</v>
+        <v>0.672168800562939</v>
       </c>
       <c r="EL5">
-        <v>0.6721947234348534</v>
+        <v>0.672168800562939</v>
       </c>
       <c r="EM5">
-        <v>0.6839800909524328</v>
+        <v>0.6839796502004823</v>
       </c>
       <c r="EN5">
-        <v>0.6955662849697152</v>
+        <v>0.6955904910745128</v>
       </c>
       <c r="EO5">
-        <v>0.6982983232737904</v>
+        <v>0.6983100450378503</v>
       </c>
       <c r="EP5">
-        <v>0.7056063225846911</v>
+        <v>0.7056247499700309</v>
       </c>
       <c r="EQ5">
-        <v>0.7267258856161937</v>
+        <v>0.7268089394361248</v>
       </c>
       <c r="ER5">
-        <v>0.7507685796520565</v>
+        <v>0.7509285184841458</v>
       </c>
       <c r="ES5">
-        <v>0.7615113016680806</v>
+        <v>0.7616923501336675</v>
       </c>
       <c r="ET5">
-        <v>0.7723442096842392</v>
+        <v>0.7725467459915111</v>
       </c>
       <c r="EU5">
-        <v>0.7784084593932848</v>
+        <v>0.7786124854759009</v>
       </c>
       <c r="EV5">
-        <v>0.7789755476941307</v>
+        <v>0.7791580104014043</v>
       </c>
       <c r="EW5">
-        <v>0.7905407097113816</v>
+        <v>0.7907477310746339</v>
       </c>
       <c r="EX5">
-        <v>0.7996855647250223</v>
+        <v>0.7999069948327047</v>
       </c>
       <c r="EY5">
-        <v>0.8046246300323895</v>
+        <v>0.8048428312899955</v>
       </c>
       <c r="EZ5">
-        <v>0.8093023182393668</v>
+        <v>0.8095161945237823</v>
       </c>
       <c r="FA5">
-        <v>0.8162629022497494</v>
+        <v>0.8164820272185496</v>
       </c>
       <c r="FB5">
-        <v>0.8212302872571589</v>
+        <v>0.8214463021386883</v>
       </c>
       <c r="FC5">
-        <v>0.8295868572696238</v>
+        <v>0.8298139751070923</v>
       </c>
       <c r="FD5">
-        <v>0.8463359992946072</v>
+        <v>0.8466094155667149</v>
       </c>
       <c r="FE5">
-        <v>0.8517597049026974</v>
+        <v>0.8520319247347401</v>
       </c>
       <c r="FF5">
-        <v>0.8530552362046299</v>
+        <v>0.8533089474936378</v>
       </c>
       <c r="FG5">
-        <v>0.8601779482152543</v>
+        <v>0.8604375880961378</v>
       </c>
       <c r="FH5">
-        <v>0.8762521902392311</v>
+        <v>0.8765552982628509</v>
       </c>
       <c r="FI5">
-        <v>0.8869357272551669</v>
+        <v>0.8872596967113269</v>
       </c>
       <c r="FJ5">
-        <v>0.8885832062576243</v>
+        <v>0.8888901431149273</v>
       </c>
       <c r="FK5">
-        <v>0.8894996579589913</v>
+        <v>0.8897864965474893</v>
       </c>
       <c r="FL5">
-        <v>0.8895146876910137</v>
+        <v>0.8897864965474893</v>
       </c>
       <c r="FM5">
-        <v>0.8930073626962235</v>
+        <v>0.8932698770532608</v>
       </c>
       <c r="FN5">
-        <v>0.8962674897010864</v>
+        <v>0.8965197343346205</v>
       </c>
       <c r="FO5">
-        <v>0.9035212762119064</v>
+        <v>0.9037799991174108</v>
       </c>
       <c r="FP5">
-        <v>0.9054983904148555</v>
+        <v>0.905741463094947</v>
       </c>
       <c r="FQ5">
-        <v>0.9092741479204874</v>
+        <v>0.9095091132490257</v>
       </c>
       <c r="FR5">
-        <v>0.9127727950257061</v>
+        <v>0.9129984908996813</v>
       </c>
       <c r="FS5">
-        <v>0.913508148826803</v>
+        <v>0.913712986971431</v>
       </c>
       <c r="FT5">
-        <v>0.9155668555298738</v>
+        <v>0.9157563856191764</v>
       </c>
       <c r="FU5">
-        <v>0.9162754651309308</v>
+        <v>0.9164440253351702</v>
       </c>
       <c r="FV5">
-        <v>0.9163880168010987</v>
+        <v>0.9165331074641291</v>
       </c>
       <c r="FW5">
-        <v>0.9197318316060864</v>
+        <v>0.9198670035026484</v>
       </c>
       <c r="FX5">
-        <v>0.9232706793113651</v>
+        <v>0.9233967503404623</v>
       </c>
       <c r="FY5">
-        <v>0.9241993528527503</v>
+        <v>0.924305376867117</v>
       </c>
       <c r="FZ5">
-        <v>0.9241993982214334</v>
+        <v>0.924305376867117</v>
       </c>
       <c r="GA5">
-        <v>0.9248890976224622</v>
+        <v>0.9249740270803919</v>
       </c>
       <c r="GB5">
-        <v>0.9252341081229768</v>
+        <v>0.9252965428898149</v>
       </c>
       <c r="GC5">
-        <v>0.9255878270835044</v>
+        <v>0.9256278036794522</v>
       </c>
       <c r="GD5">
-        <v>0.9324309360937117</v>
+        <v>0.9324756687254425</v>
       </c>
       <c r="GE5">
-        <v>0.9470418301155058</v>
+        <v>0.9471238941260148</v>
       </c>
       <c r="GF5">
-        <v>0.953640147625348</v>
+        <v>0.9537259411026664</v>
       </c>
       <c r="GG5">
-        <v>0.9561605926291076</v>
+        <v>0.9562330144182241</v>
       </c>
       <c r="GH5">
-        <v>0.9567308272299582</v>
+        <v>0.9567816988382016</v>
       </c>
       <c r="GI5">
-        <v>0.9570360546304134</v>
+        <v>0.9570642647113143</v>
       </c>
       <c r="GJ5">
-        <v>0.9572477748507292</v>
+        <v>0.9572529312682461</v>
       </c>
       <c r="GK5">
-        <v>0.9572633655667525</v>
+        <v>0.9572529312682461</v>
       </c>
       <c r="GL5">
-        <v>0.960940868972238</v>
+        <v>0.9609219152792331</v>
       </c>
       <c r="GM5">
-        <v>0.9687286036838544</v>
+        <v>0.968718367452725</v>
       </c>
       <c r="GN5">
-        <v>0.9817175397032291</v>
+        <v>0.9817378329326768</v>
       </c>
       <c r="GO5">
-        <v>0.9951814017233122</v>
+        <v>0.9952342160850102</v>
       </c>
       <c r="GP5">
-        <v>0.9989780092289753</v>
+        <v>0.9990228036766458</v>
       </c>
       <c r="GQ5">
-        <v>0.9998308510302474</v>
+        <v>0.9998552804516897</v>
       </c>
       <c r="GR5">
-        <v>0.9999988077704979</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999992</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.068102856129162E-05</v>
+        <v>1.327836142554637E-06</v>
       </c>
       <c r="C6">
-        <v>2.069192115010813E-05</v>
+        <v>1.984363806057709E-06</v>
       </c>
       <c r="D6">
-        <v>4.685614907544888E-05</v>
+        <v>1.882248956572173E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001452044950359274</v>
+        <v>0.0001079710306443423</v>
       </c>
       <c r="F6">
-        <v>0.0002149988171692228</v>
+        <v>0.000168515588212824</v>
       </c>
       <c r="G6">
-        <v>0.0003633689110751276</v>
+        <v>0.0003077733980249519</v>
       </c>
       <c r="H6">
-        <v>0.0005364565039657957</v>
+        <v>0.000471791953910947</v>
       </c>
       <c r="I6">
-        <v>0.0007765731941033368</v>
+        <v>0.0007029568848211094</v>
       </c>
       <c r="J6">
-        <v>0.0009181019482902402</v>
+        <v>0.0008353613849318116</v>
       </c>
       <c r="K6">
-        <v>0.001075369541830693</v>
+        <v>0.0009835322619308408</v>
       </c>
       <c r="L6">
-        <v>0.001100006430818767</v>
+        <v>0.0009988403764374365</v>
       </c>
       <c r="M6">
-        <v>0.001100834199584768</v>
+        <v>0.0009988403764374365</v>
       </c>
       <c r="N6">
-        <v>0.00113281282827129</v>
+        <v>0.001021503076152098</v>
       </c>
       <c r="O6">
-        <v>0.001178552526392595</v>
+        <v>0.001057950922421819</v>
       </c>
       <c r="P6">
-        <v>0.001187908038008331</v>
+        <v>0.001057950922421819</v>
       </c>
       <c r="Q6">
-        <v>0.00119269238011182</v>
+        <v>0.001057950922421819</v>
       </c>
       <c r="R6">
-        <v>0.001229200001612321</v>
+        <v>0.001085150539124174</v>
       </c>
       <c r="S6">
-        <v>0.001232539401475159</v>
+        <v>0.001085150539124174</v>
       </c>
       <c r="T6">
-        <v>0.001248434537822289</v>
+        <v>0.001091701605940936</v>
       </c>
       <c r="U6">
-        <v>0.001301337315649381</v>
+        <v>0.00113532506483276</v>
       </c>
       <c r="V6">
-        <v>0.001423285760640518</v>
+        <v>0.001248114996967024</v>
       </c>
       <c r="W6">
-        <v>0.001500030921488318</v>
+        <v>0.00131562255481787</v>
       </c>
       <c r="X6">
-        <v>0.001548881079481865</v>
+        <v>0.001355186303190673</v>
       </c>
       <c r="Y6">
-        <v>0.00169332724354894</v>
+        <v>0.001490513317641554</v>
       </c>
       <c r="Z6">
-        <v>0.001758436370874673</v>
+        <v>0.0015463644829292</v>
       </c>
       <c r="AA6">
-        <v>0.001770514898378565</v>
+        <v>0.001549092263154995</v>
       </c>
       <c r="AB6">
-        <v>0.001770519369670381</v>
+        <v>0.001549092263154995</v>
       </c>
       <c r="AC6">
-        <v>0.001770790140099259</v>
+        <v>0.001549092263154995</v>
       </c>
       <c r="AD6">
-        <v>0.001811776575415799</v>
+        <v>0.001580778530051183</v>
       </c>
       <c r="AE6">
-        <v>0.001878114242691071</v>
+        <v>0.001637860384809107</v>
       </c>
       <c r="AF6">
-        <v>0.001892823991086889</v>
+        <v>0.001643223989654917</v>
       </c>
       <c r="AG6">
-        <v>0.001953428386597648</v>
+        <v>0.001694562541402244</v>
       </c>
       <c r="AH6">
-        <v>0.001971428016858338</v>
+        <v>0.001703221784270305</v>
       </c>
       <c r="AI6">
-        <v>0.001993591677947997</v>
+        <v>0.001716052343583585</v>
       </c>
       <c r="AJ6">
-        <v>0.002083488454255612</v>
+        <v>0.001796734527680492</v>
       </c>
       <c r="AK6">
-        <v>0.002187553219981296</v>
+        <v>0.00189160949028522</v>
       </c>
       <c r="AL6">
-        <v>0.00253148783585466</v>
+        <v>0.002226773992456414</v>
       </c>
       <c r="AM6">
-        <v>0.002782888225528739</v>
+        <v>0.002469242365481422</v>
       </c>
       <c r="AN6">
-        <v>0.002794070261069453</v>
+        <v>0.002471072085192631</v>
       </c>
       <c r="AO6">
-        <v>0.002794352183757873</v>
+        <v>0.002471072085192631</v>
       </c>
       <c r="AP6">
-        <v>0.003080837371990892</v>
+        <v>0.00274868664306046</v>
       </c>
       <c r="AQ6">
-        <v>0.003302817702873359</v>
+        <v>0.002961683482348725</v>
       </c>
       <c r="AR6">
-        <v>0.003367183060229642</v>
+        <v>0.003016789576326272</v>
       </c>
       <c r="AS6">
-        <v>0.003490415095168057</v>
+        <v>0.003130865344247042</v>
       </c>
       <c r="AT6">
-        <v>0.00365416202844238</v>
+        <v>0.003285526897587379</v>
       </c>
       <c r="AU6">
-        <v>0.003783783283118367</v>
+        <v>0.003406003064174279</v>
       </c>
       <c r="AV6">
-        <v>0.003946803826422525</v>
+        <v>0.0035599369566128</v>
       </c>
       <c r="AW6">
-        <v>0.004084749890756583</v>
+        <v>0.003688752498400396</v>
       </c>
       <c r="AX6">
-        <v>0.004102759166016877</v>
+        <v>0.00369742140314348</v>
       </c>
       <c r="AY6">
-        <v>0.004102782303431926</v>
+        <v>0.00369742140314348</v>
       </c>
       <c r="AZ6">
-        <v>0.00410366258273577</v>
+        <v>0.00369742140314348</v>
       </c>
       <c r="BA6">
-        <v>0.004192106893103043</v>
+        <v>0.003776648579986136</v>
       </c>
       <c r="BB6">
-        <v>0.004477592581377116</v>
+        <v>0.004053261889115183</v>
       </c>
       <c r="BC6">
-        <v>0.004812759067610618</v>
+        <v>0.004379642920446985</v>
       </c>
       <c r="BD6">
-        <v>0.005045558858048691</v>
+        <v>0.004603478149609483</v>
       </c>
       <c r="BE6">
-        <v>0.005480504320183911</v>
+        <v>0.005029812735600513</v>
       </c>
       <c r="BF6">
-        <v>0.00618276869133938</v>
+        <v>0.005723933946406367</v>
       </c>
       <c r="BG6">
-        <v>0.006632855872852676</v>
+        <v>0.006165436744556458</v>
       </c>
       <c r="BH6">
-        <v>0.006663131031609166</v>
+        <v>0.00618639299385686</v>
       </c>
       <c r="BI6">
-        <v>0.006666299594579022</v>
+        <v>0.00618639299385686</v>
       </c>
       <c r="BJ6">
-        <v>0.006751916526062426</v>
+        <v>0.006262787844878799</v>
       </c>
       <c r="BK6">
-        <v>0.006757167492646749</v>
+        <v>0.006262787844878799</v>
       </c>
       <c r="BL6">
-        <v>0.006757409499596809</v>
+        <v>0.006262787844878799</v>
       </c>
       <c r="BM6">
-        <v>0.006758437701254577</v>
+        <v>0.006262787844878799</v>
       </c>
       <c r="BN6">
-        <v>0.006833060358189555</v>
+        <v>0.006328169185167805</v>
       </c>
       <c r="BO6">
-        <v>0.006885567076032915</v>
+        <v>0.006371395891107671</v>
       </c>
       <c r="BP6">
-        <v>0.00693443312202581</v>
+        <v>0.006410975555278336</v>
       </c>
       <c r="BQ6">
-        <v>0.006976779200286503</v>
+        <v>0.006444023844024392</v>
       </c>
       <c r="BR6">
-        <v>0.007039483707711003</v>
+        <v>0.006497466182156211</v>
       </c>
       <c r="BS6">
-        <v>0.00721132746065276</v>
+        <v>0.006660238721802841</v>
       </c>
       <c r="BT6">
-        <v>0.00738168452365558</v>
+        <v>0.006821521970316445</v>
       </c>
       <c r="BU6">
-        <v>0.007415730820257176</v>
+        <v>0.006846255955651134</v>
       </c>
       <c r="BV6">
-        <v>0.007543632485003793</v>
+        <v>0.006965009523620004</v>
       </c>
       <c r="BW6">
-        <v>0.008014909065646763</v>
+        <v>0.007427738795032262</v>
       </c>
       <c r="BX6">
-        <v>0.008335369992484276</v>
+        <v>0.007739388537316465</v>
       </c>
       <c r="BY6">
-        <v>0.008444717597992975</v>
+        <v>0.007839555582849841</v>
       </c>
       <c r="BZ6">
-        <v>0.008574338852668962</v>
+        <v>0.007960031749436741</v>
       </c>
       <c r="CA6">
-        <v>0.00864847140962407</v>
+        <v>0.008024922132240127</v>
       </c>
       <c r="CB6">
-        <v>0.008660756212119489</v>
+        <v>0.008027856548367464</v>
       </c>
       <c r="CC6">
-        <v>0.008695134906707432</v>
+        <v>0.008052923513270211</v>
       </c>
       <c r="CD6">
-        <v>0.008791986142729401</v>
+        <v>0.008140572324984833</v>
       </c>
       <c r="CE6">
-        <v>0.008794550069324092</v>
+        <v>0.008140572324984833</v>
       </c>
       <c r="CF6">
-        <v>0.008795228121596242</v>
+        <v>0.008140572324984833</v>
       </c>
       <c r="CG6">
-        <v>0.008800137571994594</v>
+        <v>0.008140572324984833</v>
       </c>
       <c r="CH6">
-        <v>0.008895851248063288</v>
+        <v>0.008227081586409021</v>
       </c>
       <c r="CI6">
-        <v>0.009146015687788132</v>
+        <v>0.008468311846999114</v>
       </c>
       <c r="CJ6">
-        <v>0.009306357821202302</v>
+        <v>0.008619562643255104</v>
       </c>
       <c r="CK6">
-        <v>0.009405247917140529</v>
+        <v>0.008709253882186886</v>
       </c>
       <c r="CL6">
-        <v>0.009488428567724</v>
+        <v>0.008783208189658482</v>
       </c>
       <c r="CM6">
-        <v>0.009872418321952155</v>
+        <v>0.009158497912846899</v>
       </c>
       <c r="CN6">
-        <v>0.1029353544995216</v>
+        <v>0.1023748902167012</v>
       </c>
       <c r="CO6">
-        <v>0.1193305598261113</v>
+        <v>0.1187894096113698</v>
       </c>
       <c r="CP6">
-        <v>0.2161823518480588</v>
+        <v>0.2158012869491656</v>
       </c>
       <c r="CQ6">
-        <v>0.2204397456731922</v>
+        <v>0.2200567578630276</v>
       </c>
       <c r="CR6">
-        <v>0.220902018704205</v>
+        <v>0.2205104678317064</v>
       </c>
       <c r="CS6">
-        <v>0.2236087960930279</v>
+        <v>0.2232126092658699</v>
       </c>
       <c r="CT6">
-        <v>0.2713691321313386</v>
+        <v>0.2710471375216825</v>
       </c>
       <c r="CU6">
-        <v>0.2764096606243059</v>
+        <v>0.276087113318657</v>
       </c>
       <c r="CV6">
-        <v>0.292838551949512</v>
+        <v>0.292535377650809</v>
       </c>
       <c r="CW6">
-        <v>0.3084026293102392</v>
+        <v>0.3081173148926353</v>
       </c>
       <c r="CX6">
-        <v>0.3102704546335209</v>
+        <v>0.3099790363848047</v>
       </c>
       <c r="CY6">
-        <v>0.310554380591859</v>
+        <v>0.3102540872350089</v>
       </c>
       <c r="CZ6">
-        <v>0.3184472532676703</v>
+        <v>0.318151397832329</v>
       </c>
       <c r="DA6">
-        <v>0.3250189269977479</v>
+        <v>0.324725197841926</v>
       </c>
       <c r="DB6">
-        <v>0.3343628656139587</v>
+        <v>0.3340761132440371</v>
       </c>
       <c r="DC6">
-        <v>0.3366199579212518</v>
+        <v>0.3363277828030392</v>
       </c>
       <c r="DD6">
-        <v>0.3470950674910012</v>
+        <v>0.3468118483173025</v>
       </c>
       <c r="DE6">
-        <v>0.3476889262666093</v>
+        <v>0.3473973742601976</v>
       </c>
       <c r="DF6">
-        <v>0.3511987624224477</v>
+        <v>0.3509039795369496</v>
       </c>
       <c r="DG6">
-        <v>0.3762621513930038</v>
+        <v>0.37600184890413</v>
       </c>
       <c r="DH6">
-        <v>0.3791339831750474</v>
+        <v>0.3788693335197144</v>
       </c>
       <c r="DI6">
-        <v>0.3823515218428915</v>
+        <v>0.3820831298887887</v>
       </c>
       <c r="DJ6">
-        <v>0.3825199067359753</v>
+        <v>0.3822424375167668</v>
       </c>
       <c r="DK6">
-        <v>0.3834339483484323</v>
+        <v>0.383148706505927</v>
       </c>
       <c r="DL6">
-        <v>0.383909296528908</v>
+        <v>0.3836155145010659</v>
       </c>
       <c r="DM6">
-        <v>0.388916259323254</v>
+        <v>0.3886218658710356</v>
       </c>
       <c r="DN6">
-        <v>0.3894411562516946</v>
+        <v>0.3891383093073408</v>
       </c>
       <c r="DO6">
-        <v>0.3907134820994356</v>
+        <v>0.3904034894054932</v>
       </c>
       <c r="DP6">
-        <v>0.3956230748977809</v>
+        <v>0.3953123004155878</v>
       </c>
       <c r="DQ6">
-        <v>0.4056909764842559</v>
+        <v>0.4053884454732012</v>
       </c>
       <c r="DR6">
-        <v>0.412316322612129</v>
+        <v>0.4120160117887585</v>
       </c>
       <c r="DS6">
-        <v>0.4216163662301427</v>
+        <v>0.4213229553915812</v>
       </c>
       <c r="DT6">
-        <v>0.4221891803466152</v>
+        <v>0.4218873998544531</v>
       </c>
       <c r="DU6">
-        <v>0.4252059287227065</v>
+        <v>0.4249000546180901</v>
       </c>
       <c r="DV6">
-        <v>0.4277802186169711</v>
+        <v>0.4274694767503233</v>
       </c>
       <c r="DW6">
-        <v>0.4480853057829679</v>
+        <v>0.4478007189276675</v>
       </c>
       <c r="DX6">
-        <v>0.4554488344805212</v>
+        <v>0.4551677593775323</v>
       </c>
       <c r="DY6">
-        <v>0.4858233662329296</v>
+        <v>0.4855860641926746</v>
       </c>
       <c r="DZ6">
-        <v>0.4964404822968463</v>
+        <v>0.49621238466344</v>
       </c>
       <c r="EA6">
-        <v>0.542291662413573</v>
+        <v>0.542134416633973</v>
       </c>
       <c r="EB6">
-        <v>0.5804373858467905</v>
+        <v>0.5803375100322352</v>
       </c>
       <c r="EC6">
-        <v>0.581533115201785</v>
+        <v>0.5814257846547516</v>
       </c>
       <c r="ED6">
-        <v>0.5845894035762522</v>
+        <v>0.5844780485981098</v>
       </c>
       <c r="EE6">
-        <v>0.5846408179391405</v>
+        <v>0.5845201810378505</v>
       </c>
       <c r="EF6">
-        <v>0.5869122239458456</v>
+        <v>0.5867861893402966</v>
       </c>
       <c r="EG6">
-        <v>0.5963221965593442</v>
+        <v>0.5962032542763914</v>
       </c>
       <c r="EH6">
-        <v>0.6073012521083947</v>
+        <v>0.6071921475014241</v>
       </c>
       <c r="EI6">
-        <v>0.6277523592683939</v>
+        <v>0.6276696651573446</v>
       </c>
       <c r="EJ6">
-        <v>0.667478644636692</v>
+        <v>0.667456085928359</v>
       </c>
       <c r="EK6">
-        <v>0.6928515045945371</v>
+        <v>0.6928639677502062</v>
       </c>
       <c r="EL6">
-        <v>0.6931309414830596</v>
+        <v>0.6931345216762725</v>
       </c>
       <c r="EM6">
-        <v>0.7043497100222643</v>
+        <v>0.7043635473064274</v>
       </c>
       <c r="EN6">
-        <v>0.7182568064510497</v>
+        <v>0.7182856044717806</v>
       </c>
       <c r="EO6">
-        <v>0.7219197797005982</v>
+        <v>0.7219456147792837</v>
       </c>
       <c r="EP6">
-        <v>0.7291570657033367</v>
+        <v>0.7291861916532052</v>
       </c>
       <c r="EQ6">
-        <v>0.7487322548993131</v>
+        <v>0.7487862587910906</v>
       </c>
       <c r="ER6">
-        <v>0.7669586601506888</v>
+        <v>0.767035182078162</v>
       </c>
       <c r="ES6">
-        <v>0.7740038576613171</v>
+        <v>0.7740833343714338</v>
       </c>
       <c r="ET6">
-        <v>0.7827641553015</v>
+        <v>0.7828495876273207</v>
       </c>
       <c r="EU6">
-        <v>0.7879225296896269</v>
+        <v>0.7880076155090832</v>
       </c>
       <c r="EV6">
-        <v>0.7882856528147122</v>
+        <v>0.7883620020937322</v>
       </c>
       <c r="EW6">
-        <v>0.798153088409421</v>
+        <v>0.7982373304133079</v>
       </c>
       <c r="EX6">
-        <v>0.8072605020353467</v>
+        <v>0.8073513069880651</v>
       </c>
       <c r="EY6">
-        <v>0.8137982530668177</v>
+        <v>0.8138911249460452</v>
       </c>
       <c r="EZ6">
-        <v>0.8210773060678408</v>
+        <v>0.8211735418960775</v>
       </c>
       <c r="FA6">
-        <v>0.8306015516766456</v>
+        <v>0.8307050797657659</v>
       </c>
       <c r="FB6">
-        <v>0.8351337759904908</v>
+        <v>0.8352358620268051</v>
       </c>
       <c r="FC6">
-        <v>0.8411626104428648</v>
+        <v>0.8412658729773865</v>
       </c>
       <c r="FD6">
-        <v>0.856023486832475</v>
+        <v>0.8561433788891879</v>
       </c>
       <c r="FE6">
-        <v>0.8612993626157758</v>
+        <v>0.8614191137529964</v>
       </c>
       <c r="FF6">
-        <v>0.8620600821145303</v>
+        <v>0.862171792367692</v>
       </c>
       <c r="FG6">
-        <v>0.8667779595207501</v>
+        <v>0.8668885525499177</v>
       </c>
       <c r="FH6">
-        <v>0.8821327008900754</v>
+        <v>0.8822607875346339</v>
       </c>
       <c r="FI6">
-        <v>0.8993405721832861</v>
+        <v>0.8994893947807788</v>
       </c>
       <c r="FJ6">
-        <v>0.9030288113317968</v>
+        <v>0.9031747151938438</v>
       </c>
       <c r="FK6">
-        <v>0.9031612251963581</v>
+        <v>0.9032979888564191</v>
       </c>
       <c r="FL6">
-        <v>0.9036288079771528</v>
+        <v>0.9037570178651086</v>
       </c>
       <c r="FM6">
-        <v>0.9073481733243851</v>
+        <v>0.9074735189369961</v>
       </c>
       <c r="FN6">
-        <v>0.91100198077431</v>
+        <v>0.9111243474078909</v>
       </c>
       <c r="FO6">
-        <v>0.9205172053834855</v>
+        <v>0.9206468484943151</v>
       </c>
       <c r="FP6">
-        <v>0.9223168953095657</v>
+        <v>0.9224403153758628</v>
       </c>
       <c r="FQ6">
-        <v>0.9255279903776745</v>
+        <v>0.9256476568711269</v>
       </c>
       <c r="FR6">
-        <v>0.9288179228425452</v>
+        <v>0.9289339737013773</v>
       </c>
       <c r="FS6">
-        <v>0.9299496847960597</v>
+        <v>0.9300583439670203</v>
       </c>
       <c r="FT6">
-        <v>0.9322628092010513</v>
+        <v>0.9323661436605458</v>
       </c>
       <c r="FU6">
-        <v>0.9326538840149885</v>
+        <v>0.9327485308398514</v>
       </c>
       <c r="FV6">
-        <v>0.9329429012531175</v>
+        <v>0.9330286818778284</v>
       </c>
       <c r="FW6">
-        <v>0.9374509280679566</v>
+        <v>0.9375352243025928</v>
       </c>
       <c r="FX6">
-        <v>0.9412643167113269</v>
+        <v>0.9413459131789236</v>
       </c>
       <c r="FY6">
-        <v>0.9423313921674983</v>
+        <v>0.9424054837681871</v>
       </c>
       <c r="FZ6">
-        <v>0.9423315653659512</v>
+        <v>0.9424054837681871</v>
       </c>
       <c r="GA6">
-        <v>0.9426412669232306</v>
+        <v>0.9427063553157313</v>
       </c>
       <c r="GB6">
-        <v>0.9426796428646543</v>
+        <v>0.9427354265212717</v>
       </c>
       <c r="GC6">
-        <v>0.9426857565701032</v>
+        <v>0.9427354265212717</v>
       </c>
       <c r="GD6">
-        <v>0.9460831618305595</v>
+        <v>0.9461294041873934</v>
       </c>
       <c r="GE6">
-        <v>0.9570525333800078</v>
+        <v>0.9571085964691681</v>
       </c>
       <c r="GF6">
-        <v>0.963314676722799</v>
+        <v>0.9633723245201713</v>
       </c>
       <c r="GG6">
-        <v>0.9653600922387864</v>
+        <v>0.9654119469265677</v>
       </c>
       <c r="GH6">
-        <v>0.96583013595948</v>
+        <v>0.9658734411809514</v>
       </c>
       <c r="GI6">
-        <v>0.966115621647754</v>
+        <v>0.9661500544900805</v>
       </c>
       <c r="GJ6">
-        <v>0.9662840065408378</v>
+        <v>0.9663093621180587</v>
       </c>
       <c r="GK6">
-        <v>0.9663066075319094</v>
+        <v>0.9663226307725306</v>
       </c>
       <c r="GL6">
-        <v>0.9693066074086887</v>
+        <v>0.9693185077327643</v>
       </c>
       <c r="GM6">
-        <v>0.9762234188245903</v>
+        <v>0.9762380492999709</v>
       </c>
       <c r="GN6">
-        <v>0.9876758933541958</v>
+        <v>0.987701189825319</v>
       </c>
       <c r="GO6">
-        <v>0.9973709739559838</v>
+        <v>0.9974038615902447</v>
       </c>
       <c r="GP6">
-        <v>0.9995238950675556</v>
+        <v>0.9995511776898998</v>
       </c>
       <c r="GQ6">
-        <v>0.9998734309531989</v>
+        <v>0.9998919532621291</v>
       </c>
       <c r="GR6">
-        <v>0.9999171438284035</v>
+        <v>0.9999263707392417</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2">
-        <v>0.01175388424731541</v>
+        <v>0.0686038022792749</v>
       </c>
       <c r="F2">
-        <v>0.5016674761475697</v>
+        <v>0.5072360798643608</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.01159014295012655</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="F3">
-        <v>0.5294679887898095</v>
+        <v>0.529352495271707</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>128</v>
       </c>
       <c r="E4">
-        <v>0.009308189864017435</v>
+        <v>0.008513806404633728</v>
       </c>
       <c r="F4">
-        <v>0.5047801195446818</v>
+        <v>0.5045211945149856</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>130</v>
       </c>
       <c r="E5">
-        <v>0.01037384191797291</v>
+        <v>0.008835725338088426</v>
       </c>
       <c r="F5">
-        <v>0.5260067546718552</v>
+        <v>0.5256076071556511</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.009306357821202302</v>
+        <v>0.008783208189658482</v>
       </c>
       <c r="F6">
-        <v>0.542291662413573</v>
+        <v>0.542134416633973</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>141</v>
       </c>
       <c r="E2">
-        <v>0.01175388424731541</v>
+        <v>0.0686038022792749</v>
       </c>
       <c r="F2">
-        <v>0.7001065793897134</v>
+        <v>0.7005575847527687</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>143</v>
       </c>
       <c r="E3">
-        <v>0.01159014295012655</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="F3">
-        <v>0.7035513398915354</v>
+        <v>0.7035651676912076</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>140</v>
       </c>
       <c r="E4">
-        <v>0.009308189864017435</v>
+        <v>0.008513806404633728</v>
       </c>
       <c r="F4">
-        <v>0.7029111383017957</v>
+        <v>0.70295069529123</v>
       </c>
       <c r="G4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.01037384191797291</v>
+        <v>0.008835725338088426</v>
       </c>
       <c r="F5">
-        <v>0.7056063225846911</v>
+        <v>0.7056247499700309</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.009306357821202302</v>
+        <v>0.008783208189658482</v>
       </c>
       <c r="F6">
-        <v>0.7043497100222643</v>
+        <v>0.7043635473064274</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>154</v>
       </c>
       <c r="E2">
-        <v>0.01175388424731541</v>
+        <v>0.0686038022792749</v>
       </c>
       <c r="F2">
-        <v>0.8016037956258468</v>
+        <v>0.8024972708352494</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>152</v>
       </c>
       <c r="E3">
-        <v>0.01159014295012655</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="F3">
-        <v>0.8037060926098745</v>
+        <v>0.8037811048749988</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>0.009308189864017435</v>
+        <v>0.008513806404633728</v>
       </c>
       <c r="F4">
-        <v>0.8036314818135848</v>
+        <v>0.8037760018573809</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.01037384191797291</v>
+        <v>0.008835725338088426</v>
       </c>
       <c r="F5">
-        <v>0.8046246300323895</v>
+        <v>0.8048428312899955</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>153</v>
       </c>
       <c r="E6">
-        <v>0.009306357821202302</v>
+        <v>0.008783208189658482</v>
       </c>
       <c r="F6">
-        <v>0.8072605020353467</v>
+        <v>0.8073513069880651</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.01175388424731541</v>
+        <v>0.0686038022792749</v>
       </c>
       <c r="F2">
-        <v>0.9043083865013717</v>
+        <v>0.9056387641732586</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>172</v>
       </c>
       <c r="E3">
-        <v>0.01159014295012655</v>
+        <v>0.01112069357001034</v>
       </c>
       <c r="F3">
-        <v>0.9057653810670008</v>
+        <v>0.9058326690548943</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>170</v>
       </c>
       <c r="E4">
-        <v>0.009308189864017435</v>
+        <v>0.008513806404633728</v>
       </c>
       <c r="F4">
-        <v>0.9037819864210825</v>
+        <v>0.9039159163402852</v>
       </c>
       <c r="G4">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>170</v>
       </c>
       <c r="E5">
-        <v>0.01037384191797291</v>
+        <v>0.008835725338088426</v>
       </c>
       <c r="F5">
-        <v>0.9035212762119064</v>
+        <v>0.9037799991174108</v>
       </c>
       <c r="G5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.009306357821202302</v>
+        <v>0.008783208189658482</v>
       </c>
       <c r="F6">
-        <v>0.9030288113317968</v>
+        <v>0.9031747151938438</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>6</v>

--- a/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
@@ -1994,16 +1994,16 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.094771366037016E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.909780668884764E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001104076877908484</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.301199681980502E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2033,22 +2033,22 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.586103204104482E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.902805033056588E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001192928391541562</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001410413826110183</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.673939532992991E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3.627492217606944E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -2075,34 +2075,34 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>4.50711651544921E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.042118064293269E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.466676798332375E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.50711651544921E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>4.684244522471207E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001104076877908484</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0001629990576343867</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.000135302025384931</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.000111683475806021</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.761140591571642E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -2132,28 +2132,28 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>2.000593911311397E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001338275644163272</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0001124123739906066</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.000144689118959599</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001600236534308034</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001623874729394578</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001111343884458385</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.240992779202109E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
         <v>0</v>
@@ -2177,37 +2177,37 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>3.56900028749824E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.000135302025384931</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0001425382359992505</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.000186258829985585</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0003463902274785565</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.000260249895636446</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.000186258829985585</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001759621219383449</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>9.580626343595435E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.898198445589853E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.437704233994485E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -2228,31 +2228,31 @@
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>7.380147378500811E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>7.380147378500811E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0002377072707907461</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0002176014620965147</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0002026706117772563</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0002233584097331141</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0002067537336769479</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0001289312243075703</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>2.09726629034243E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -2264,280 +2264,280 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.06333171885452155</v>
+        <v>0.1817419690980148</v>
       </c>
       <c r="CO2">
-        <v>0.005732862331734492</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1251852934102154</v>
+        <v>0.5233000256754875</v>
       </c>
       <c r="CQ2">
-        <v>0.006268059880548548</v>
+        <v>0</v>
       </c>
       <c r="CR2">
         <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.008114682659900585</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.03304471891878737</v>
+        <v>0.01449587359068367</v>
       </c>
       <c r="CU2">
-        <v>0.002179149830334815</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.009346407154558657</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.03103218672447339</v>
+        <v>0.003382585635586775</v>
       </c>
       <c r="CX2">
-        <v>0.006182237498682914</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.0007139799863395289</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.004795972447382795</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.01384931926685675</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.01793733270464801</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0005176109290403793</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01760319324277627</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.004541628744198478</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.003410826813589131</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.0262045957186872</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.002142102838691356</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.005361865822096833</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>2.984534735577682E-05</v>
+        <v>0</v>
       </c>
       <c r="DK2">
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001371553532747239</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.003998169501480109</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.003667169963492921</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.001207695959307625</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.003471072189187587</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.008973175065507488</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.004456576209853643</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.008555832656700469</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0004442434531072375</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.003267150599097342</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.000224937426311223</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.01850574204727395</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.005860519064162402</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.04317653594325308</v>
+        <v>0.0704441960172086</v>
       </c>
       <c r="DZ2">
-        <v>0.007258031702704738</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.04103193222024881</v>
+        <v>0.05860160349090937</v>
       </c>
       <c r="EB2">
-        <v>0.04775035094100046</v>
+        <v>0.095700996016194</v>
       </c>
       <c r="EC2">
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001114155263425159</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0006007794174907511</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.003427628656884006</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01088702393773558</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.007627072207527429</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.01814157476780427</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.03989669046595667</v>
+        <v>0.05233275047591531</v>
       </c>
       <c r="EK2">
-        <v>0.02221012073855381</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.000634176271781071</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.007901968407991258</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.01248593528030753</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.002922689259325496</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.003775876462233898</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.01228065854696672</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0165145940541489</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.007482369461849587</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.007029671752237731</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003653379956593674</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0009007478740559146</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01039439477541119</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.009617607741015216</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.006979792510343735</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.006061941473025158</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.01088702393773558</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.006678767581251781</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.003730088796624289</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01289394124045806</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.004419244963687504</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.001418131189898939</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.005779733196307224</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.02009480316690898</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01877838221909053</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.006460336089844795</v>
+        <v>0</v>
       </c>
       <c r="FK2">
         <v>0</v>
       </c>
       <c r="FL2">
-        <v>7.858041901412325E-05</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.005860519064162402</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.004441409186145356</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.009369921738605454</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.003639097235072617</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003998169501480109</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.003973931563941457</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001130478635345604</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.002591819640101894</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0006750714531324641</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.000979801966504851</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.006274368621762331</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.00712779684076387</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003499014897106823</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>4.15717254281153E-06</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>9.25419247855537E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
         <v>0</v>
@@ -2546,52 +2546,52 @@
         <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.002948403102504986</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.01055119868579914</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.00551661158323861</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.00212005632649934</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.0007664319147912334</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>3.559091056822177E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0006391602587299453</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>6.476342116109403E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.00191173336949423</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.004959996666816735</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.00906228896010477</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.00673652028682155</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0009597571392568951</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
         <v>0</v>
       </c>
       <c r="GR2">
-        <v>7.858041901412325E-05</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0002125624046490269</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,22 +2767,22 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.004086102958167E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.096218008689418E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001103496694670931</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.663277675461589E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.923363795248246E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.741652687435702E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2794,46 +2794,46 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.753583624763822E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001881788775880339</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001009267122972262</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002309813973326265</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0003983144886426378</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0004221183200867722</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.000639308373302318</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002937556042635325</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001111534267785481</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001002305671567533</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.180040627378494E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2.77482744548694E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.448475044958902E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -2845,31 +2845,31 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002707762548148928</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.000512670942371727</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.991673245721557E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>7.05939846412394E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0002169193387823632</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001569081927824912</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.763626058718667E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.313372986864997E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>6.073607442254093E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -2878,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.609748419687306E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.447444062419882E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>1.458050204000108E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -2902,34 +2902,34 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>5.085833458586705E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.000294922544141916</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0005241340955076308</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.000267912023385201</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0005062065429785143</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0004566826577824652</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002309813973326265</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0003371915184096185</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0001290572009866045</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>4.71751317240117E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
         <v>0</v>
@@ -2938,46 +2938,46 @@
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.67633679323985E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>4.565669019119672E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0002506176950548587</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0002122510686606715</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>4.533334206890048E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>9.831407853177706E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.000222314855087282</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0001972595530848859</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002441855941305891</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0003611653623463514</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001238062368498818</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.450622147663719E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>4.745309178706841E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>4.020548656014386E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2989,43 +2989,43 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>9.12366069417395E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001277548898749351</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0002521699338417379</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.000174956569218367</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0002492925066953484</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0004399434606385733</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0003195461219411823</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0002597998614319577</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0002106982491821621</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>3.629258812042528E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
       </c>
       <c r="CI3">
-        <v>4.668346012080645E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>4.98356004630865E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
         <v>0</v>
@@ -3037,334 +3037,334 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.08424208297408667</v>
+        <v>0.3492354969171388</v>
       </c>
       <c r="CO3">
-        <v>0.01984402896757806</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.09525841392447815</v>
+        <v>0.4202020409027537</v>
       </c>
       <c r="CQ3">
-        <v>0.001062894383474627</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.0005983733177924266</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.001269280498709452</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.05172593076030661</v>
+        <v>0.1397683924234989</v>
       </c>
       <c r="CU3">
-        <v>0.004681624455309478</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0231831940648337</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.02490812353415726</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.002256494415311535</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>2.550479737179164E-06</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.004400812895991239</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.006859380261362023</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.01698103801535126</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.00221085045127777</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.0111003588594467</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.001094432747097796</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.005377209728955527</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.02382040501200626</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.002762060867913346</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.001354521724880456</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.0008647490233533377</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.001101371611600499</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>3.40766548432711E-05</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002054952369583452</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.000222314855087282</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.003014188263089601</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.002946396620164595</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.006989501341476978</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.004990605265484597</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.006368027237599364</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>3.270462068829119E-05</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.004241477320085225</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.002913582937578631</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.02162556385652674</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.007466932283408002</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.02602598295548783</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.005851266251800193</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.03649404589378115</v>
+        <v>0.04164550266720589</v>
       </c>
       <c r="EB3">
-        <v>0.02285414515263782</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002864104706759017</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.001671434081888008</v>
+        <v>0</v>
       </c>
       <c r="EE3">
         <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.008436208735675559</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01582062290826659</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.01535571518205415</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0256319346260345</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.03765876712966074</v>
+        <v>0.04914856708940281</v>
       </c>
       <c r="EK3">
-        <v>0.01939064696903062</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0003776878513810449</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.009337577306572843</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.01481382776953982</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.003730174635370497</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.009555629016060134</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02555769019754888</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.02387582702213693</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.01122836131618501</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.01307686296558621</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.006010250309031504</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0003538913286419101</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.006827250393230126</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.004922665345955422</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.004327701316780549</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.004097552198730339</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.006481335392757253</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.00413355007383418</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.005976705055110862</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01358891484262301</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005060606740419872</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0007670330592029482</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.004181757491057095</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.0141124493960488</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01244589495403346</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001439635098773591</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001473683652146735</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>2.200229673449108E-05</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002856071138414331</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.002424884175161759</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.006660144362359407</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.000936332092038586</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.006142645497713025</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.005108613418553416</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001443637966370661</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002246572898334299</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0002924706738530674</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0003702513141274977</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.003806913735122871</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003289767089985918</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0006825782096421954</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0003305714736356897</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001316980811948496</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0003862230371748911</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0003804666110099408</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.007016370343678668</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0141124493960488</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.007893581441929086</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.00281303628194615</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0006195147982556506</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0001439875236788871</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0006815837251660269</v>
+        <v>0</v>
       </c>
       <c r="GK3">
         <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.003178694597603911</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.007608531634665093</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.01434172847784633</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.01170079600735451</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003137062011303174</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0011311976357496</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0001315989983827212</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>2.150831738265242E-06</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,40 +3540,40 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002852931269658209</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0005223867832208226</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0003106014830854162</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.128818768169507E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6.243774908993077E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.97884698803176E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.136124244511628E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.460905746175387E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.647853252158567E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3582,40 +3582,40 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>4.471072791563827E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>5.287357444812751E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.35601635633588E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001860405056466077</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0006574257953492007</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0003957883363724509</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001977716221580221</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002101463425961526</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>9.671773367947959E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>7.437245920066171E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>9.84378259841123E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001180156085892151</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3627,43 +3627,43 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>7.724807998174646E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.000279302810753813</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0002057627661433275</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>5.100294675599182E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2.557659474573824E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001836227489705057</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.000198548853802553</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.574499729540464E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.000824165258959E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>2.51998363413792E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>8.409788710902228E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.000156481439094968</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001905784460167645</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3672,52 +3672,52 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>9.443156016599583E-06</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0001682484155009554</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0001225036778483056</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0001557862602611886</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0002854312346648749</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>8.364382447357884E-05</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.616030458531311E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.460905746175387E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>6.806485007129023E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0001552545556421601</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0001198960381194984</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0002618302224469229</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0002178659616335066</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>6.371465799767763E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
@@ -3729,43 +3729,43 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>7.40194827817225E-06</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.372761062948177E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0002329318378712874</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0001436705669262547</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>4.342040812892886E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>3.504745548748258E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>7.131512757426E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>8.70094880526327E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0001810456773463512</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>9.663422161756831E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.636371270711238E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>5.872564765963459E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
         <v>0</v>
@@ -3780,364 +3780,364 @@
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>1.408197313657622E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.898533694767562E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0002517281153106055</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0002238210493576934</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>9.95197304288335E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0002160012270710548</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0001557862602611886</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>8.045678887132028E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0002979590762514922</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.107419504318808</v>
+        <v>0.4107422010743391</v>
       </c>
       <c r="CO4">
-        <v>0.04293136904119054</v>
+        <v>0.06836301281087361</v>
       </c>
       <c r="CP4">
-        <v>0.09759894045090463</v>
+        <v>0.3586030491061897</v>
       </c>
       <c r="CQ4">
-        <v>0.0004843380620198032</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.002593688119115711</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0007000690029028196</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.03835099813730992</v>
+        <v>0.04404499422861605</v>
       </c>
       <c r="CU4">
-        <v>0.003849904925595</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.02310445838763389</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.01406140378278569</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.00202566217746901</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>7.131512757426E-06</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.006481713100843427</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.00106085091219763</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01654018241363808</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.004042953531039338</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.004566339115554009</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.002068172288488272</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.005850636183860473</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0225747071206044</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001132657795385952</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.002923979195917419</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0001788799421651993</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.000553887215065463</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0004597602234674319</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.003259142127037715</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>7.424475868845083E-05</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002647437069871196</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.004508994353458423</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.006954498850721609</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.003695743158647283</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.004363779820630913</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0001869086297964159</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.003658800150936694</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.003729590168584667</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01714819704867501</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.01574756148232213</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.02817234445801036</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.009382218724474541</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.04206741117371156</v>
+        <v>0.06377610403939368</v>
       </c>
       <c r="EB4">
-        <v>0.02168833431343499</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.004652369488172189</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002486409105278713</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>9.471599788313892E-05</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.006466180394524786</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.01520717852827113</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01285306915610432</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.02364790015661604</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.04031469919359908</v>
+        <v>0.05447063874058789</v>
       </c>
       <c r="EK4">
-        <v>0.01956901454417407</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>9.030659388746457E-05</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01098205109423872</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.01093042106436379</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002279766011797307</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.007548515699186647</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.02073085508367863</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.01949260430487163</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.01046912330933057</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.01318459328009141</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.005117070124704664</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0005157597684670511</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.008501250959547494</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.006160707712225573</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.003095591341690088</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.004228958443385334</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.005962215578793994</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.002425186303047281</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.006065858992643197</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0124577539077552</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.002340749781472683</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.001516926632723218</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.006044083477568118</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01638302928203603</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01188730296328825</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0008660680428748955</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001403155354351155</v>
+        <v>0</v>
       </c>
       <c r="FL4">
         <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002382168561044195</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.002213386821315781</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.005689760558674783</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0001515562359170141</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.006547443946836432</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.006030680115352599</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001748886631371193</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.001815004239055526</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0007792256611291865</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0006174434160264845</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.003902418423806045</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.003475237880710685</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0008314839607668638</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0002738559453308838</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0008156843197271353</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0002219322511823658</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0008139123718902162</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.008501991609689737</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.01475794064219812</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.00748079882840086</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.003281961066826038</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.00102813702682157</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0007604963929841989</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>1.128818768169507E-05</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.003107052677138865</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.006932229435253976</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.01192903644400274</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.00744281349843326</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.001651995060388369</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001080185990065187</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>8.968426736605252E-05</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>3.707133361615417E-06</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001463772912672021</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4325,49 +4325,49 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>9.117420575308478E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.401748293242256E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.000155705246061743</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.953013319330241E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.335951014953389E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.000193959701817109</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.000266880649508076</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.000321331764692901</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0005043779903649362</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0004256049435203517</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001472730721687978</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001368832629271859</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001855833610909823</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -4382,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000118283949692095</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0004103343916406523</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001704370380074539</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -4397,31 +4397,31 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001539374936899413</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.002616897668836E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>8.84062765080607E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001107923839051839</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>4.68455533350142E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>4.349363527410411E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.434918547536108E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.158774332130189E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -4430,49 +4430,49 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.274054758705546E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.000254351445867543</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0002345371989057082</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001304888489940665</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.000210229637257049</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001420375278310648</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0001206296155082134</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0002778395654157133</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0003300618828411525</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001052416030975292</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0001574160004020947</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0001597096088195105</v>
+        <v>0</v>
       </c>
       <c r="BB5">
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>9.366401352541032E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -4484,52 +4484,52 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.115915748918963E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.323293389582426E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>3.635154896050511E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>5.586513030224795E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0001338750803519224</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.000193574563427363</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0004711470133327579</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.000403287040955788</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>3.670271347075823E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.237821308364772E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>6.048016330112393E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.197590838813869E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>3.216597945898959E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>2.527234270418345E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0001198650927583234</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -4544,22 +4544,22 @@
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>7.856111177521344E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.000233855250999478</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.000166676945354517</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0002121822616794132</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0002420981243478738</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0001420375278310648</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
@@ -4577,337 +4577,337 @@
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>3.058508242020481E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0002249948688512321</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.09699024274626729</v>
+        <v>0.390061035623288</v>
       </c>
       <c r="CO5">
-        <v>0.01182932830695352</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1064875909504832</v>
+        <v>0.4454450314485018</v>
       </c>
       <c r="CQ5">
-        <v>0.00612384142591671</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0002210693654206274</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.001420068436899622</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.03879214465657752</v>
+        <v>0.0506775411649142</v>
       </c>
       <c r="CU5">
-        <v>0.01125144599263985</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01159658232842516</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01539203565228251</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0002227331435821344</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0006731255026857531</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.006296429175585495</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.002115647669382742</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.008868740493821817</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.003483380505771516</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.00686194685351363</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>6.422571523004047E-05</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.005564746570559991</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.02180995575030989</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.004258562771233012</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.001747932742361899</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>1.434463914350744E-05</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.0006317350907553758</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0004984290066081774</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.00478308625187645</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.000493107091574796</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.002395163665799925</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.003967543736580124</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.01113008316513969</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.007665630645184197</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.005886182932063249</v>
+        <v>0</v>
       </c>
       <c r="DT5">
         <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.003487152056273974</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001942379779356293</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.02291735941705216</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.005397838238905145</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.034827372233375</v>
+        <v>0.02755688320724389</v>
       </c>
       <c r="DZ5">
-        <v>0.01245190225956313</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.03598579998355634</v>
+        <v>0.0343122802191566</v>
       </c>
       <c r="EB5">
-        <v>0.02810698097507698</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.00139739183636406</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.002742689882047664</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0002536438307716746</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002462185156564844</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01629011214055709</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.01622512072767059</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01978861937759407</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.03900987291910282</v>
+        <v>0.05194722833689546</v>
       </c>
       <c r="EK5">
-        <v>0.02028457656153815</v>
+        <v>0</v>
       </c>
       <c r="EL5">
         <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01181084963754328</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01161084087403047</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.002719553963337591</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.007314704932180514</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.02118418946609388</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.024119579048021</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01076383164952181</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.01085439585784353</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.006065739484389767</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0005455249255034646</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01158972067322965</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.009159263758070779</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.004935836457290772</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.004673363233786823</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.006965832694767246</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.00496427492013876</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.008367672968404011</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01679544045962257</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.005422509168025265</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.001277022758897771</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.007128640602499975</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.01611771016671315</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01070439844847596</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.00163044640360039</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0008963534325620382</v>
+        <v>0</v>
       </c>
       <c r="FL5">
         <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.003483380505771516</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.00324985728135975</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.007260264782790324</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001961463977536167</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.003767650154078718</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.003489377650655623</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0007144960717496495</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0020433986477454</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0006876397159937922</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>8.908212895884873E-05</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.003333896038519248</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.003529746837813921</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0009086265266546327</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
         <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0006686502132749069</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0003225158094230381</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0003312607896372772</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.006847865045990341</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.01464822540057237</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.006602046976651569</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.002507073315557666</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0005486844199775806</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0002825658731127035</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0001886665569317374</v>
+        <v>0</v>
       </c>
       <c r="GK5">
         <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003668984010987073</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.007796452173491846</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.01301946547995186</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0134963831523334</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.003788587591635633</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0008324767750439777</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0001447195483095184</v>
+        <v>0</v>
       </c>
       <c r="GS5">
         <v>0</v>
@@ -5086,46 +5086,46 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.327836142554637E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6.565276635030724E-07</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.683812575966402E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8.914854107862053E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6.05445575684817E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001392578098121279</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0001640185558859951</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002311649309101624</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0001324045001107022</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001481708769990293</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.530811450659578E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.266269971466108E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.644784626972175E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5134,34 +5134,34 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2.719961670235491E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>6.551066816761973E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>4.362345889182338E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001127899321342643</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>6.750755785084575E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.956374837280342E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0001353270144508806</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>5.585116528764616E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.727780225794586E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5170,67 +5170,67 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.168626689618849E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>5.708185475792385E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.363604845809839E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.133855174732758E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>8.659242868060735E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.283055931328017E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>8.068218409690659E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>9.487496260472859E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.000335164502171193</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.000242468373025008</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.829719711209641E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0002776145578678286</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0002129968392882653</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.510609397754762E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.00011407576792077</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0001546615533403361</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0001204761665869002</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0001539338924385217</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0001288155417875957</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>8.668904743083794E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -5239,34 +5239,34 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>7.922717684265656E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0002766133091290471</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0003263810313318016</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0002238352291624987</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0004263345859910299</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0006941212108058547</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0004415027981500912</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>2.095624930040192E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>7.639485102193906E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5278,55 +5278,55 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>6.538134028900625E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>4.322670593986562E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.957966417066411E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>3.304828874605645E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>5.34423381318196E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0001627725396466296</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.000161283248513604</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.473398533468984E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00011875356796887</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0004627292714122578</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.000311649742284203</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0001001670455333771</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001204761665869002</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>6.489038280338664E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.934416127337499E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>2.506696490274734E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>8.764881171462146E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -5338,352 +5338,352 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>8.650926142418801E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0002412302605900936</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001512507962559908</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>8.969123893178196E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>7.39543074715967E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0003752897231884157</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.09321639230385433</v>
+        <v>0.3469327721931607</v>
       </c>
       <c r="CO6">
-        <v>0.01641451939466862</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.0970118773377958</v>
+        <v>0.3677766837076687</v>
       </c>
       <c r="CQ6">
-        <v>0.004255470913861957</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0004537099686788354</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.002702141434163413</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.04783452825581265</v>
+        <v>0.09770624379910849</v>
       </c>
       <c r="CU6">
-        <v>0.005039975796974496</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01644826433215195</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.01558193724182625</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.001861721492169373</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0002750508502042452</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.007897310597320106</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.006573800009596941</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.009350915402111134</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.002251669559002025</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01048406551426335</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0005855259428950537</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.003506605276752046</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.02509786936718035</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.002867484615584451</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003213796369074238</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.0001593076279781737</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.000906268989160134</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0004668079951389437</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.005006351369969677</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0005164434363052237</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.001265180098152385</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.004908811010094592</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.01007614505761332</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.006627566315557294</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.009306943602822679</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0005644444628719579</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.003012654763636972</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002569422132233141</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.02033124217734422</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.007367040449864854</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.03041830481514222</v>
+        <v>0.002060439094867556</v>
       </c>
       <c r="DZ6">
-        <v>0.01062632047076537</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.04592203197053298</v>
+        <v>0.08720326381480921</v>
       </c>
       <c r="EB6">
-        <v>0.03820309339826221</v>
+        <v>0.04481266784419262</v>
       </c>
       <c r="EC6">
-        <v>0.00108827462251635</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003052263943358251</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>4.213243974071444E-05</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.002266008302446043</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.009417064936094821</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.01098889322503269</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.02047751765592037</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.03978642077101446</v>
+        <v>0.05350792954619286</v>
       </c>
       <c r="EK6">
-        <v>0.02540788182184712</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0002705539260663747</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.01122902563015477</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0139220571653532</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.003660010307503069</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.007240576873921519</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.01960006713788539</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.0182489232870714</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.007048152293271774</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.008766253255886881</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005158027881762455</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.000354386584649027</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.009875328319575735</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.009113976574757177</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.006539817957980071</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.007282416950032258</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.009531537869688389</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.004530782261039219</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.006030010950581433</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01487750591180139</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.005275734863808531</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0007526786146956049</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.004716760182225677</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.01537223498471615</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.01722860724614491</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.003685320413065028</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0001232736625753029</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.0004590290086895856</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.003716501071887498</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.003650828470894842</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.009522501086424209</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001793466881547693</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.003207341495264121</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.003286316830250422</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001124370265642929</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002307799693525563</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0003823871793056651</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0002801510379769147</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.004506542424764418</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003810688876330789</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001059570589263554</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
         <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0003008715475442501</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>2.907120554041408E-05</v>
+        <v>0</v>
       </c>
       <c r="GC6">
         <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.003393977666121668</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0109791922817747</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.006263728051003128</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.002039622406396431</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0004614942543836494</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0002766133091290471</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0001593076279781737</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>1.326865447179072E-05</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002995876960233789</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.006919541567206674</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.01146314052534802</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.009702671764925735</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.002147316099655002</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0003407755722292963</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>3.441747711266001E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>7.362926075872919E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.094771366037016E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001300455203492178</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002404532081400662</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002634652049598712</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0002793262370009161</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0003183542873314819</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0004376471264856381</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0005786885090966565</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0006254279044265864</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0006617028266026558</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0007067739917571479</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0007271951724000806</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0007618619403834044</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0008069331055378965</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0008537755507626086</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0009641832385534569</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001127182296187844</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001262484321572775</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001374167797378796</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.001401779203294512</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.001421785142407626</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.001555612706823953</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.00166802508081456</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001812714199774159</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001972737853204962</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.00213512532614442</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.002246259714590259</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.00225866964238228</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.002294359645257262</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.002429661670642193</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.002572199906641444</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.002758458736627029</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.003104848964105586</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.003365098859742031</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.003551357689727616</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.003727319811665961</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.003823126075101916</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.003872108059557814</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.003886485101897759</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.003960286575682767</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.004034088049467774</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.00427179532025852</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.004489396782355035</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.00469206739413229</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.004915425803865405</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.005122179537542353</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.005251110761849923</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.005272083424753347</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.005272083424753347</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.005272083424753347</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.005272083424753347</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0686038022792749</v>
+        <v>0.1817419690980148</v>
       </c>
       <c r="CO2">
-        <v>0.07433666461100939</v>
+        <v>0.1817419690980148</v>
       </c>
       <c r="CP2">
-        <v>0.1995219580212249</v>
+        <v>0.7050419947735023</v>
       </c>
       <c r="CQ2">
-        <v>0.2057900179017734</v>
+        <v>0.7050419947735023</v>
       </c>
       <c r="CR2">
-        <v>0.2057900179017734</v>
+        <v>0.7050419947735023</v>
       </c>
       <c r="CS2">
-        <v>0.213904700561674</v>
+        <v>0.7050419947735023</v>
       </c>
       <c r="CT2">
-        <v>0.2469494194804614</v>
+        <v>0.719537868364186</v>
       </c>
       <c r="CU2">
-        <v>0.2491285693107962</v>
+        <v>0.719537868364186</v>
       </c>
       <c r="CV2">
-        <v>0.2584749764653548</v>
+        <v>0.719537868364186</v>
       </c>
       <c r="CW2">
-        <v>0.2895071631898282</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="CX2">
-        <v>0.2956894006885111</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="CY2">
-        <v>0.2964033806748507</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="CZ2">
-        <v>0.3011993531222334</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DA2">
-        <v>0.3150486723890902</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DB2">
-        <v>0.3329860050937382</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DC2">
-        <v>0.3335036160227786</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DD2">
-        <v>0.3511068092655549</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DE2">
-        <v>0.3556484380097534</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DF2">
-        <v>0.3590592648233425</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DG2">
-        <v>0.3852638605420297</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DH2">
-        <v>0.3874059633807211</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DI2">
-        <v>0.3927678292028179</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DJ2">
-        <v>0.3927976745501737</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DK2">
-        <v>0.3927976745501737</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DL2">
-        <v>0.394169228082921</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DM2">
-        <v>0.3981673975844011</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DN2">
-        <v>0.401834567547894</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DO2">
-        <v>0.4030422635072017</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DP2">
-        <v>0.4065133356963893</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DQ2">
-        <v>0.4154865107618967</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DR2">
-        <v>0.4199430869717504</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DS2">
-        <v>0.4284989196284508</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DT2">
-        <v>0.4289431630815581</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DU2">
-        <v>0.4322103136806554</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DV2">
-        <v>0.4324352511069666</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DW2">
-        <v>0.4509409931542406</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DX2">
-        <v>0.456801512218403</v>
+        <v>0.7229204539997728</v>
       </c>
       <c r="DY2">
-        <v>0.4999780481616561</v>
+        <v>0.7933646500169814</v>
       </c>
       <c r="DZ2">
-        <v>0.5072360798643608</v>
+        <v>0.7933646500169814</v>
       </c>
       <c r="EA2">
-        <v>0.5482680120846096</v>
+        <v>0.8519662535078908</v>
       </c>
       <c r="EB2">
-        <v>0.5960183630256101</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EC2">
-        <v>0.5960183630256101</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="ED2">
-        <v>0.5971325182890352</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EE2">
-        <v>0.5977332977065259</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EF2">
-        <v>0.6011609263634099</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EG2">
-        <v>0.6120479503011454</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EH2">
-        <v>0.6196750225086729</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EI2">
-        <v>0.6378165972764772</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="EJ2">
-        <v>0.6777132877424339</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.6999234084809877</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7005575847527687</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.70845955316076</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7209454884410675</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.723868177700393</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7276440541626269</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7399247127095936</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7564393067637425</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.763921676225592</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7709513479778297</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.7746047279344234</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.7755054758084793</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.7858998705838904</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.7955174783249056</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8024972708352494</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8085592123082745</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8194462362460101</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8261250038272618</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8298550926238861</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8427490338643442</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8471682788280317</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8485864100179307</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8543661432142379</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8744609463811468</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.8932393286002374</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.8996996646900821</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.8996996646900821</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.8997782451090962</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9056387641732586</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9100801733594039</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9194500950980093</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.923089192333082</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9270873618345621</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9310612933985035</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9321917720338492</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9347835916739511</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9354586631270836</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9364384650935884</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9427128337153508</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9498406305561147</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9533396454532215</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9533438026257642</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9534363445505498</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9534363445505498</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9534363445505498</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9563847476530548</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9669359463388539</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9724525579220925</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9745726142485919</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9753390461633831</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9753746370739513</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9760137973326812</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9760785607538424</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9779902941233366</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9829502907901533</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.992012579750258</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9987491000370796</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9997088571763365</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9997088571763365</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9997874375953506</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>3.004086102958167E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.913707903827109E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001494867485053642</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001961195252599801</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0002553531632124626</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002727696900868196</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002727696900868196</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002727696900868196</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0002727696900868196</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0003403055263344578</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0005284844039224917</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0006294111162197178</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0008603925135523444</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001258707002194982</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001680825322281754</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.002320133695584072</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002613889299847605</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002725042726626153</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002825273293782906</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002847073700056691</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002847073700056691</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002849848527502178</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002874333277951767</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002874333277951767</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002874333277951767</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002874333277951767</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.00314510953276666</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.003657780475138387</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003737697207595602</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003808291192236842</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004025210531019206</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004182118723801697</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004199754984388884</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004212888714257534</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004218962321699788</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.004218962321699788</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.004218962321699788</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004223572070119475</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.004223572070119475</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.004227019514181895</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.004227019514181895</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.004227019514181895</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.004241600016221896</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004241600016221896</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004241600016221896</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004246685849680483</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004541608393822399</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.005065742489330029</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.005333654512715231</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.005839861055693745</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.00629654371347621</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.006527525110808837</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.006864716629218456</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00699377383020506</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.007040948961929072</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.007040948961929072</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007040948961929072</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.00705771232986147</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.007103369020052667</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.007353986715107526</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.007566237783768198</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.007611571125837099</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.007709885204368876</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.007932200059456157</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008129459612541043</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.008373645206671632</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.008734810569017983</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008858616805867865</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.008893123027344503</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.008940576119131571</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.008944596667787586</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.008944596667787586</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.008944596667787586</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.008944596667787586</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.008953720328481761</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.009081475218356696</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.009333645152198434</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.009508601721416802</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00975789422811215</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01019783768875072</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01051738381069191</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01077718367212386</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01098788192130602</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01102417450942645</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01102417450942645</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01107085796954726</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.09536277654409701</v>
+        <v>0.3492354969171388</v>
       </c>
       <c r="CO3">
-        <v>0.1152068055116751</v>
+        <v>0.3492354969171388</v>
       </c>
       <c r="CP3">
-        <v>0.2104652194361532</v>
+        <v>0.7694375378198925</v>
       </c>
       <c r="CQ3">
-        <v>0.2115281138196278</v>
+        <v>0.7694375378198925</v>
       </c>
       <c r="CR3">
-        <v>0.2121264871374202</v>
+        <v>0.7694375378198925</v>
       </c>
       <c r="CS3">
-        <v>0.2133957676361297</v>
+        <v>0.7694375378198925</v>
       </c>
       <c r="CT3">
-        <v>0.2651216983964363</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="CU3">
-        <v>0.2698033228517457</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="CV3">
-        <v>0.2929865169165795</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="CW3">
-        <v>0.3178946404507367</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="CX3">
-        <v>0.3201511348660483</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="CY3">
-        <v>0.3201536853457855</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="CZ3">
-        <v>0.3245544982417767</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DA3">
-        <v>0.3314138785031387</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DB3">
-        <v>0.34839491651849</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DC3">
-        <v>0.3506057669697678</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DD3">
-        <v>0.3617061258292145</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DE3">
-        <v>0.3628005585763123</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DF3">
-        <v>0.3681777683052678</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DG3">
-        <v>0.3919981733172741</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DH3">
-        <v>0.3947602341851875</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DI3">
-        <v>0.3961147559100679</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DJ3">
-        <v>0.3969795049334212</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DK3">
-        <v>0.3980808765450217</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DL3">
-        <v>0.398114953199865</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DM3">
-        <v>0.4001699055694485</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DN3">
-        <v>0.4003922204245358</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DO3">
-        <v>0.4034064086876253</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DP3">
-        <v>0.4063528053077899</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DQ3">
-        <v>0.4133423066492669</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DR3">
-        <v>0.4183329119147515</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DS3">
-        <v>0.4247009391523509</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DT3">
-        <v>0.4247336437730392</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DU3">
-        <v>0.4289751210931244</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DV3">
-        <v>0.4318887040307031</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DW3">
-        <v>0.4535142678872298</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DX3">
-        <v>0.4609812001706378</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DY3">
-        <v>0.4870071831261257</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="DZ3">
-        <v>0.4928584493779259</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="EA3">
-        <v>0.529352495271707</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EB3">
-        <v>0.5522066404243449</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EC3">
-        <v>0.5550707451311039</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="ED3">
-        <v>0.5567421792129919</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EE3">
-        <v>0.5567421792129919</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EF3">
-        <v>0.5651783879486674</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EG3">
-        <v>0.580999010856934</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EH3">
-        <v>0.5963547260389881</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EI3">
-        <v>0.6219866606650226</v>
+        <v>0.9508514329105974</v>
       </c>
       <c r="EJ3">
-        <v>0.6596454277946834</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.679036074763714</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.679413762615095</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.6887513399216678</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7035651676912076</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7072953423265781</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7168509713426382</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.742408661540187</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.766284488562324</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.777512849878509</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7905897128440952</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7965999631531266</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7969538544817686</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8037811048749988</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8087037702209542</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8130314715377347</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.817129023736465</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8236103591292223</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8277439092030565</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8337206142581673</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8473095291007904</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8523701358412102</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8531371689004131</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8573189263914702</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8714313757875191</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8838772707415525</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8853169058403261</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8867905894924728</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8868125917892072</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8896686629276216</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8920935471027833</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8987536914651427</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8996900235571813</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9058326690548943</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9109412824734477</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9123849204398184</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9146314933381527</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9149239640120058</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9152942153261333</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9191011290612562</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9223908961512421</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9230734743608844</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9234040458345201</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9247210266464686</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9251072496836434</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9254877162946534</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9325040866383321</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9466165360343809</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.95451011747631</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9573231537582562</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9579426685565118</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9580866560801906</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9587682398053566</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9587682398053566</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9619469344029605</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9695554660376257</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.983897194515472</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9955979905228265</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9987350525341296</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9998662501698793</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9999978491682621</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0002852931269658209</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0008076799101866436</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00111828139327206</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001129569580953755</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001135813355862748</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001215601825743065</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001215601825743065</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001216737949987577</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001216737949987577</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001231347007449331</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001231347007449331</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001235994860701489</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001235994860701489</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001235994860701489</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001280705588617128</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001333579163065255</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001347139326628614</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001533179832275222</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.002190605627624422</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002586393963996873</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.002784165586154895</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002994311928751047</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.003091029662430527</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.003098466908350593</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.003196904734334705</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.00331492034292392</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.00331492034292392</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.00331492034292392</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00331492034292392</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.003392168422905667</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.00367147123365948</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.003877233999802807</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003928236946558799</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.003953813541304537</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004137436290275043</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004335985144077596</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004351730141373001</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.00437173838302559</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004396938219366969</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004405348008077872</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004561829447172839</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.004752407893189604</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.004752407893189604</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.004752407893189604</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.004761851049206203</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.004761851049206203</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.004930099464707158</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.005052603142555464</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.005208389402816652</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.005493820637481528</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.005577464461955107</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.005579080492413638</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.005593689549875392</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.005593689549875392</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.005661754399946681</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.005817008955588842</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.00593690499370834</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.006198735216155263</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.00641660117778877</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.006480315835786447</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.006480315835786447</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.006480315835786447</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.006480315835786447</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.006487717784064619</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.006487717784064619</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.006501445394694101</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.006734377232565389</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.006878047799491643</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.006921468207620572</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006956515663108054</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.006963647175865481</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.007050656663918114</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.007231702341264465</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007328336562882033</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.007374700275589146</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.00743342592324878</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.00743342592324878</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.00743342592324878</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.00743342592324878</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.00743342592324878</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.007447507896385356</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.007486493233333032</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.007738221348643637</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.007962042398001331</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.008061562128430164</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.008277563355501219</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.008433349615762408</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.008433349615762408</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.008513806404633728</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00881176548088522</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1162312697996932</v>
+        <v>0.4107422010743391</v>
       </c>
       <c r="CO4">
-        <v>0.1591626388408837</v>
+        <v>0.4791052138852127</v>
       </c>
       <c r="CP4">
-        <v>0.2567615792917884</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="CQ4">
-        <v>0.2572459173538082</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="CR4">
-        <v>0.2598396054729239</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="CS4">
-        <v>0.2605396744758267</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="CT4">
-        <v>0.2988906726131366</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="CU4">
-        <v>0.3027405775387316</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="CV4">
-        <v>0.3258450359263655</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="CW4">
-        <v>0.3399064397091512</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="CX4">
-        <v>0.3419321018866202</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="CY4">
-        <v>0.3419392333993777</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="CZ4">
-        <v>0.3484209465002211</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DA4">
-        <v>0.3494817974124187</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DB4">
-        <v>0.3660219798260568</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DC4">
-        <v>0.3700649333570962</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DD4">
-        <v>0.3746312724726502</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DE4">
-        <v>0.3766994447611384</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DF4">
-        <v>0.3825500809449989</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DG4">
-        <v>0.4051247880656033</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DH4">
-        <v>0.4062574458609892</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DI4">
-        <v>0.4091814250569066</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DJ4">
-        <v>0.4093603049990718</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DK4">
-        <v>0.4099141922141373</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DL4">
-        <v>0.4103739524376047</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DM4">
-        <v>0.4136330945646424</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DN4">
-        <v>0.4137073393233309</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DO4">
-        <v>0.4163547763932021</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DP4">
-        <v>0.4208637707466605</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DQ4">
-        <v>0.4278182695973821</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DR4">
-        <v>0.4315140127560294</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DS4">
-        <v>0.4358777925766603</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DT4">
-        <v>0.4360647012064567</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DU4">
-        <v>0.4397235013573934</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DV4">
-        <v>0.4434530915259781</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DW4">
-        <v>0.4606012885746531</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DX4">
-        <v>0.4763488500569752</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DY4">
-        <v>0.5045211945149856</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="DZ4">
-        <v>0.5139034132394601</v>
+        <v>0.8817532572200184</v>
       </c>
       <c r="EA4">
-        <v>0.5559708244131717</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EB4">
-        <v>0.5776591587266067</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EC4">
-        <v>0.5823115282147788</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="ED4">
-        <v>0.5847979373200576</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EE4">
-        <v>0.5848926533179407</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EF4">
-        <v>0.5913588337124654</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EG4">
-        <v>0.6065660122407366</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EH4">
-        <v>0.6194190813968409</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EI4">
-        <v>0.6430669815534569</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="EJ4">
-        <v>0.683381680747056</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.70295069529123</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7030410018851174</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7140230529793561</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7249534740437199</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7272332400555173</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7347817557547039</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.7555126108383826</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.7750052151432543</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.7854743384525849</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.7986589317326762</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8037760018573809</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8042917616258479</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8127930125853954</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8189537202976209</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8220493116393111</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8262782700826964</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8322404856614903</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8346656719645377</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8407315309571809</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8531892848649361</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8555300346464088</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8570469612791319</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8630910447567001</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8794740740387361</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8913613770020243</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.8922274450448993</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.8936306003992505</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.8936306003992505</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8960127689602947</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.8982261557816105</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9039159163402852</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9040674725762022</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9106149165230387</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9166455966383913</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9183944832697625</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.920209487508818</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9209887131699472</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9216061565859737</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9255085750097797</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9289838128904904</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9298152968512572</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9300891527965881</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9309048371163152</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9311267693674976</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9319406817393878</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9404426733490776</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9552006139912758</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9626814128196767</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9659633738865027</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9669915109133242</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9669915109133242</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9677520073063084</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9677632954939901</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9708703481711289</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9778025776063829</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9897316140503857</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9971744275488189</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9988264226092073</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9999066085992725</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9999962928666386</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001463772912672021</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0001463772912672021</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001463772912672021</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001463772912672021</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002375514970202869</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002375514970202869</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002815689799527095</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002815689799527095</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0004372742260144525</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0005068043592077549</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0005501638693572888</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0007441235711743979</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.001011004220682474</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.001332335985375375</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001836713975740311</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002262318919260663</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.002409591991429461</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.002546475254356646</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.002732058615447629</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002732058615447629</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.002732058615447629</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002732058615447629</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002732058615447629</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002850342565139723</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003260676956780376</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.003431113994787829</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.003431113994787829</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.003431113994787829</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.003585051488477771</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.003605077657454459</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.00369348393396252</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003804276317867704</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.003804276317867704</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003851121871202718</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003894615506476822</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003918964691952183</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003940552435273485</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003940552435273485</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003940552435273485</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003963292982860541</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003963292982860541</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.004217644428728084</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.004452181627633792</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004582670476627858</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004792900113884908</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004934937641715972</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.005055567257224186</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0053334068226399</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.005663468705481052</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.005768710308578581</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.005926126308980676</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.006085835917800186</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.006085835917800186</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.006095202319152727</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.006095202319152727</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.006095202319152727</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.006095202319152727</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.006116361476641917</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.006169594410537741</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.006173229565433792</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.00622909469573604</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.006362969776087963</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.006556544339515326</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.007027691352848083</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.007430978393803871</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00746768110727463</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.007468918928582994</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.007529399091884118</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.007529399091884118</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.007581375000272257</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007584591598218156</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00760986394092234</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007729729033680664</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007729729033680664</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007729729033680664</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007729729033680664</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007729729033680664</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007808290145455877</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.008042145396455355</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.008208822341809871</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.008421004603489284</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008663102727837158</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008805140255668222</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.008805140255668222</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.008805140255668222</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.008805140255668222</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.008805140255668222</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.008805140255668222</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.008835725338088426</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.009060720206939658</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1060509629532069</v>
+        <v>0.390061035623288</v>
       </c>
       <c r="CO5">
-        <v>0.1178802912601605</v>
+        <v>0.390061035623288</v>
       </c>
       <c r="CP5">
-        <v>0.2243678822106437</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="CQ5">
-        <v>0.2304917236365604</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="CR5">
-        <v>0.230712793001981</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="CS5">
-        <v>0.2321328614388806</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="CT5">
-        <v>0.2709250060954582</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="CU5">
-        <v>0.282176452088098</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="CV5">
-        <v>0.2937730344165231</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="CW5">
-        <v>0.3091650700688057</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="CX5">
-        <v>0.3093878032123878</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="CY5">
-        <v>0.3100609287150736</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="CZ5">
-        <v>0.3163573578906591</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DA5">
-        <v>0.3184730055600418</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DB5">
-        <v>0.3273417460538636</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DC5">
-        <v>0.3308251265596351</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DD5">
-        <v>0.3376870734131488</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DE5">
-        <v>0.3377512991283788</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DF5">
-        <v>0.3433160456989388</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DG5">
-        <v>0.3651260014492487</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DH5">
-        <v>0.3693845642204817</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DI5">
-        <v>0.3711324969628436</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DJ5">
-        <v>0.3711468416019871</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DK5">
-        <v>0.3717785766927424</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DL5">
-        <v>0.3722770056993506</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DM5">
-        <v>0.3770600919512271</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DN5">
-        <v>0.3775531990428019</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DO5">
-        <v>0.3799483627086018</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DP5">
-        <v>0.383915906445182</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DQ5">
-        <v>0.3950459896103217</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DR5">
-        <v>0.4027116202555059</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DS5">
-        <v>0.4085978031875691</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DT5">
-        <v>0.4085978031875691</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DU5">
-        <v>0.4120849552438431</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DV5">
-        <v>0.4140273350231994</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DW5">
-        <v>0.4369446944402515</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DX5">
-        <v>0.4423425326791567</v>
+        <v>0.8861836082367039</v>
       </c>
       <c r="DY5">
-        <v>0.4771699049125317</v>
+        <v>0.9137404914439479</v>
       </c>
       <c r="DZ5">
-        <v>0.4896218071720948</v>
+        <v>0.9137404914439479</v>
       </c>
       <c r="EA5">
-        <v>0.5256076071556511</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EB5">
-        <v>0.5537145881307282</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EC5">
-        <v>0.5551119799670923</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="ED5">
-        <v>0.5578546698491399</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EE5">
-        <v>0.5581083136799115</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EF5">
-        <v>0.5605704988364764</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EG5">
-        <v>0.5768606109770335</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EH5">
-        <v>0.593085731704704</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EI5">
-        <v>0.612874351082298</v>
+        <v>0.9480527716631044</v>
       </c>
       <c r="EJ5">
-        <v>0.6518842240014009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK5">
-        <v>0.672168800562939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.672168800562939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.6839796502004823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.6955904910745128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.6983100450378503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.7056247499700309</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.7268089394361248</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.7509285184841458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.7616923501336675</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.7725467459915111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.7786124854759009</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.7791580104014043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.7907477310746339</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.7999069948327047</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8048428312899955</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8095161945237823</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8164820272185496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8214463021386883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8298139751070923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8466094155667149</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8520319247347401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8533089474936378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8604375880961378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8765552982628509</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8872596967113269</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8888901431149273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.8897864965474893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8897864965474893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.8932698770532608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.8965197343346205</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9037799991174108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.905741463094947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9095091132490257</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9129984908996813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.913712986971431</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9157563856191764</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9164440253351702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9165331074641291</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9198670035026484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9233967503404623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.924305376867117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.924305376867117</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9249740270803919</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9252965428898149</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9256278036794522</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9324756687254425</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9471238941260148</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9537259411026664</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9562330144182241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9567816988382016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9570642647113143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9572529312682461</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9572529312682461</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9609219152792331</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.968718367452725</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9817378329326768</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9952342160850102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9990228036766458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9998552804516897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>1.327836142554637E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.984363806057709E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.882248956572173E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001079710306443423</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.000168515588212824</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0003077733980249519</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000471791953910947</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007029568848211094</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0008353613849318116</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0009835322619308408</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0009988403764374365</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0009988403764374365</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.001021503076152098</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.001057950922421819</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.001057950922421819</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.001057950922421819</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001085150539124174</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001085150539124174</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001091701605940936</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.00113532506483276</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001248114996967024</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.00131562255481787</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001355186303190673</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001490513317641554</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0015463644829292</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001549092263154995</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001549092263154995</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001549092263154995</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001580778530051183</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001637860384809107</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001643223989654917</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001694562541402244</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001703221784270305</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001716052343583585</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001796734527680492</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.00189160949028522</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.002226773992456414</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002469242365481422</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002471072085192631</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002471072085192631</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.00274868664306046</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002961683482348725</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.003016789576326272</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.003130865344247042</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.003285526897587379</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.003406003064174279</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0035599369566128</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.003688752498400396</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.00369742140314348</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.00369742140314348</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.00369742140314348</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003776648579986136</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.004053261889115183</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.004379642920446985</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.004603478149609483</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.005029812735600513</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.005723933946406367</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.006165436744556458</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.00618639299385686</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.00618639299385686</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.006262787844878799</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.006262787844878799</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.006262787844878799</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.006262787844878799</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.006328169185167805</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.006371395891107671</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.006410975555278336</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.006444023844024392</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.006497466182156211</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.006660238721802841</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.006821521970316445</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.006846255955651134</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.006965009523620004</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.007427738795032262</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.007739388537316465</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.007839555582849841</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.007960031749436741</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.008024922132240127</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.008027856548367464</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.008052923513270211</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.008140572324984833</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.008140572324984833</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.008140572324984833</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.008140572324984833</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.008227081586409021</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.008468311846999114</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.008619562643255104</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.008709253882186886</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.008783208189658482</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.009158497912846899</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1023748902167012</v>
+        <v>0.3469327721931607</v>
       </c>
       <c r="CO6">
-        <v>0.1187894096113698</v>
+        <v>0.3469327721931607</v>
       </c>
       <c r="CP6">
-        <v>0.2158012869491656</v>
+        <v>0.7147094559008293</v>
       </c>
       <c r="CQ6">
-        <v>0.2200567578630276</v>
+        <v>0.7147094559008293</v>
       </c>
       <c r="CR6">
-        <v>0.2205104678317064</v>
+        <v>0.7147094559008293</v>
       </c>
       <c r="CS6">
-        <v>0.2232126092658699</v>
+        <v>0.7147094559008293</v>
       </c>
       <c r="CT6">
-        <v>0.2710471375216825</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="CU6">
-        <v>0.276087113318657</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="CV6">
-        <v>0.292535377650809</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="CW6">
-        <v>0.3081173148926353</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="CX6">
-        <v>0.3099790363848047</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="CY6">
-        <v>0.3102540872350089</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="CZ6">
-        <v>0.318151397832329</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DA6">
-        <v>0.324725197841926</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DB6">
-        <v>0.3340761132440371</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DC6">
-        <v>0.3363277828030392</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DD6">
-        <v>0.3468118483173025</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DE6">
-        <v>0.3473973742601976</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DF6">
-        <v>0.3509039795369496</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DG6">
-        <v>0.37600184890413</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DH6">
-        <v>0.3788693335197144</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DI6">
-        <v>0.3820831298887887</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DJ6">
-        <v>0.3822424375167668</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DK6">
-        <v>0.383148706505927</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DL6">
-        <v>0.3836155145010659</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DM6">
-        <v>0.3886218658710356</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DN6">
-        <v>0.3891383093073408</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DO6">
-        <v>0.3904034894054932</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DP6">
-        <v>0.3953123004155878</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DQ6">
-        <v>0.4053884454732012</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DR6">
-        <v>0.4120160117887585</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DS6">
-        <v>0.4213229553915812</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DT6">
-        <v>0.4218873998544531</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DU6">
-        <v>0.4249000546180901</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DV6">
-        <v>0.4274694767503233</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DW6">
-        <v>0.4478007189276675</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DX6">
-        <v>0.4551677593775323</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="DY6">
-        <v>0.4855860641926746</v>
+        <v>0.8144761387948054</v>
       </c>
       <c r="DZ6">
-        <v>0.49621238466344</v>
+        <v>0.8144761387948054</v>
       </c>
       <c r="EA6">
-        <v>0.542134416633973</v>
+        <v>0.9016794026096147</v>
       </c>
       <c r="EB6">
-        <v>0.5803375100322352</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EC6">
-        <v>0.5814257846547516</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="ED6">
-        <v>0.5844780485981098</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EE6">
-        <v>0.5845201810378505</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EF6">
-        <v>0.5867861893402966</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EG6">
-        <v>0.5962032542763914</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EH6">
-        <v>0.6071921475014241</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EI6">
-        <v>0.6276696651573446</v>
+        <v>0.9464920704538072</v>
       </c>
       <c r="EJ6">
-        <v>0.667456085928359</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.6928639677502062</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.6931345216762725</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.7043635473064274</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.7182856044717806</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.7219456147792837</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.7291861916532052</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.7487862587910906</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.767035182078162</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.7740833343714338</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.7828495876273207</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7880076155090832</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7883620020937322</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7982373304133079</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8073513069880651</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8138911249460452</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8211735418960775</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8307050797657659</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8352358620268051</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8412658729773865</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8561433788891879</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8614191137529964</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.862171792367692</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8668885525499177</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8822607875346339</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8994893947807788</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9031747151938438</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9032979888564191</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9037570178651086</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9074735189369961</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9111243474078909</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9206468484943151</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9224403153758628</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9256476568711269</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9289339737013773</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9300583439670203</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9323661436605458</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9327485308398514</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9330286818778284</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9375352243025928</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9413459131789236</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9424054837681871</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9424054837681871</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9427063553157313</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9427354265212717</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9427354265212717</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9461294041873934</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9571085964691681</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9633723245201713</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9654119469265677</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9658734411809514</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9661500544900805</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9663093621180587</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9663226307725306</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9693185077327643</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9762380492999709</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.987701189825319</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9974038615902447</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9995511776898998</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9998919532621291</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9999263707392417</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0686038022792749</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5072360798643608</v>
+        <v>0.7050419947735023</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.529352495271707</v>
+        <v>0.7694375378198925</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.008513806404633728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5045211945149856</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.008835725338088426</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5256076071556511</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.008783208189658482</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.542134416633973</v>
+        <v>0.7147094559008293</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0686038022792749</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7005575847527687</v>
+        <v>0.7050419947735023</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7035651676912076</v>
+        <v>0.7694375378198925</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.008513806404633728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.70295069529123</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="G4">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.008835725338088426</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7056247499700309</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.008783208189658482</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7043635473064274</v>
+        <v>0.7147094559008293</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>0.0686038022792749</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8024972708352494</v>
+        <v>0.8519662535078908</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8037811048749988</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.008513806404633728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8037760018573809</v>
+        <v>0.8377082629914023</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.008835725338088426</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8048428312899955</v>
+        <v>0.8355060670717898</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.008783208189658482</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8073513069880651</v>
+        <v>0.8124156996999379</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0686038022792749</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9056387641732586</v>
+        <v>0.9476672495240848</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.01112069357001034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9058326690548943</v>
+        <v>0.9092059302433915</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>0.008513806404633728</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9039159163402852</v>
+        <v>0.9455293612594121</v>
       </c>
       <c r="G4">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="E5">
-        <v>0.008835725338088426</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9037799991174108</v>
+        <v>0.9137404914439479</v>
       </c>
       <c r="G5">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>0.008783208189658482</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9031747151938438</v>
+        <v>0.9016794026096147</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>6</v>

--- a/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/6_245-70R19.xlsx
@@ -668,70 +668,70 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2234106312091521</v>
+        <v>0.1840739479045568</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.004888147156075056</v>
       </c>
       <c r="F2">
-        <v>0.4962724671770662</v>
+        <v>0.3764958631127727</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.006553107315569393</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01229781478676158</v>
       </c>
       <c r="J2">
-        <v>0.08980208121365679</v>
+        <v>0.08985332160433271</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01612961897873387</v>
       </c>
       <c r="M2">
-        <v>0.08092396489734607</v>
+        <v>0.08359248216166802</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00628612020601364</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.001973551723537322</v>
       </c>
       <c r="Q2">
-        <v>0.00512319193705483</v>
+        <v>0.03013784694108871</v>
       </c>
       <c r="R2">
-        <v>0.0231571189996347</v>
+        <v>0.04285535568245388</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.02168309089874362</v>
+        <v>0.04181587242442308</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.001182307194188273</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.05962745366734559</v>
+        <v>0.06857420207279603</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.00373400433679849</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.01496852143654213</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0009177150235739518</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01367019993811446</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2984342965645723</v>
+        <v>0.2467766378573157</v>
       </c>
       <c r="E3">
-        <v>0.03089611201822779</v>
+        <v>0.04840190042864716</v>
       </c>
       <c r="F3">
-        <v>0.3442010394933502</v>
+        <v>0.2807118521029256</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -793,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1633477249916472</v>
+        <v>0.1466123820096575</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.001694929848378669</v>
       </c>
       <c r="L3">
-        <v>0.04476849033465957</v>
+        <v>0.05868801869135296</v>
       </c>
       <c r="M3">
-        <v>0.05193461524033877</v>
+        <v>0.06400157103138875</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -811,28 +811,28 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0008299049620511932</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.008403389333284368</v>
       </c>
       <c r="R3">
-        <v>0.01900197307958918</v>
+        <v>0.03958261097696213</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.02146749552119218</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.003837642825463933</v>
       </c>
       <c r="W3">
-        <v>0.04741574827761499</v>
+        <v>0.06065091269928763</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.008804220313349856</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.002646728595011475</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.006889802803731029</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3637516440822772</v>
+        <v>0.3073510839212662</v>
       </c>
       <c r="E4">
-        <v>0.1158057575956019</v>
+        <v>0.1152119330904082</v>
       </c>
       <c r="F4">
-        <v>0.3259932501770429</v>
+        <v>0.2780912085327764</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09819501231181592</v>
+        <v>0.1015649486928388</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03957466613784567</v>
+        <v>0.05613865146776713</v>
       </c>
       <c r="M4">
-        <v>0.004805662802673755</v>
+        <v>0.02919532576587364</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -918,28 +918,28 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.006612019163512862</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01433614406694192</v>
+        <v>0.03658072184190128</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0009052588505850816</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.004731757276329008</v>
       </c>
       <c r="W4">
-        <v>0.03753786282580053</v>
+        <v>0.05456028425090723</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -966,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.0007344030203426493</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.008020660491339458</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.0003017436341522518</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3871854289230842</v>
+        <v>0.3000699056459648</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02532621130935597</v>
       </c>
       <c r="F5">
-        <v>0.4304444258622286</v>
+        <v>0.3307099774348472</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00691933352973615</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1007,16 +1007,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1221018189520044</v>
+        <v>0.1123128744092938</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.02346186399730983</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02457533292337483</v>
       </c>
       <c r="M5">
-        <v>0.01551783129289227</v>
+        <v>0.03682011534197862</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1025,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.007476131166931955</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01577484800445179</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.009300588044474714</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.005115597777758535</v>
       </c>
       <c r="W5">
-        <v>0.04475049496979065</v>
+        <v>0.05752542468838939</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000901625148736894</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.002593827725318765</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.02307032673162802</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.0118934095924323</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.006152606528016316</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3592560967633273</v>
+        <v>0.2810248025142754</v>
       </c>
       <c r="E6">
-        <v>0.01799554760185815</v>
+        <v>0.03879180903681526</v>
       </c>
       <c r="F6">
-        <v>0.3761209108356165</v>
+        <v>0.2929957566934486</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0004421881255380727</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1576068496763654</v>
+        <v>0.1378904704786114</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.002916515365691962</v>
       </c>
       <c r="L6">
-        <v>0.01814548946474213</v>
+        <v>0.03889824051969022</v>
       </c>
       <c r="M6">
-        <v>0.01429606174378553</v>
+        <v>0.03616584615909497</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01192854509670463</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.00775419466201685</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.0165132124994658</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.02008716627596442</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.05657904391430506</v>
+        <v>0.06617908199747724</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.002810463972687881</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.002502821822015993</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.01880058575947271</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.007923773511433734</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01637452550959477</v>
       </c>
     </row>
   </sheetData>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2234106312091521</v>
+        <v>0.1840739479045568</v>
       </c>
       <c r="E2">
-        <v>0.2234106312091521</v>
+        <v>0.1889620950606318</v>
       </c>
       <c r="F2">
-        <v>0.7196830983862182</v>
+        <v>0.5654579581734045</v>
       </c>
       <c r="G2">
-        <v>0.7196830983862182</v>
+        <v>0.5720110654889738</v>
       </c>
       <c r="H2">
-        <v>0.7196830983862182</v>
+        <v>0.5720110654889738</v>
       </c>
       <c r="I2">
-        <v>0.7196830983862182</v>
+        <v>0.5843088802757355</v>
       </c>
       <c r="J2">
-        <v>0.809485179599875</v>
+        <v>0.6741622018800681</v>
       </c>
       <c r="K2">
-        <v>0.809485179599875</v>
+        <v>0.6741622018800681</v>
       </c>
       <c r="L2">
-        <v>0.809485179599875</v>
+        <v>0.690291820858802</v>
       </c>
       <c r="M2">
-        <v>0.8904091444972211</v>
+        <v>0.7738843030204701</v>
       </c>
       <c r="N2">
-        <v>0.8904091444972211</v>
+        <v>0.7801704232264837</v>
       </c>
       <c r="O2">
-        <v>0.8904091444972211</v>
+        <v>0.7801704232264837</v>
       </c>
       <c r="P2">
-        <v>0.8904091444972211</v>
+        <v>0.782143974950021</v>
       </c>
       <c r="Q2">
-        <v>0.8955323364342759</v>
+        <v>0.8122818218911096</v>
       </c>
       <c r="R2">
-        <v>0.9186894554339106</v>
+        <v>0.8551371775735636</v>
       </c>
       <c r="S2">
-        <v>0.9186894554339106</v>
+        <v>0.8551371775735636</v>
       </c>
       <c r="T2">
-        <v>0.9403725463326542</v>
+        <v>0.8969530499979866</v>
       </c>
       <c r="U2">
-        <v>0.9403725463326542</v>
+        <v>0.898135357192175</v>
       </c>
       <c r="V2">
-        <v>0.9403725463326542</v>
+        <v>0.898135357192175</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999998</v>
+        <v>0.966709559264971</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999998</v>
+        <v>0.966709559264971</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>0.9704435636017695</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>0.9854120850383117</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>0.9863298000618856</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,97 +1430,97 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2984342965645723</v>
+        <v>0.2467766378573157</v>
       </c>
       <c r="E3">
-        <v>0.3293304085828</v>
+        <v>0.2951785382859629</v>
       </c>
       <c r="F3">
-        <v>0.6735314480761503</v>
+        <v>0.5758903903888886</v>
       </c>
       <c r="G3">
-        <v>0.6735314480761503</v>
+        <v>0.5758903903888886</v>
       </c>
       <c r="H3">
-        <v>0.6735314480761503</v>
+        <v>0.5758903903888886</v>
       </c>
       <c r="I3">
-        <v>0.6735314480761503</v>
+        <v>0.5758903903888886</v>
       </c>
       <c r="J3">
-        <v>0.8368791730677976</v>
+        <v>0.7225027723985461</v>
       </c>
       <c r="K3">
-        <v>0.8368791730677976</v>
+        <v>0.7241977022469248</v>
       </c>
       <c r="L3">
-        <v>0.8816476634024571</v>
+        <v>0.7828857209382778</v>
       </c>
       <c r="M3">
-        <v>0.9335822786427959</v>
+        <v>0.8468872919696665</v>
       </c>
       <c r="N3">
-        <v>0.9335822786427959</v>
+        <v>0.8468872919696665</v>
       </c>
       <c r="O3">
-        <v>0.9335822786427959</v>
+        <v>0.8468872919696665</v>
       </c>
       <c r="P3">
-        <v>0.9335822786427959</v>
+        <v>0.8477171969317177</v>
       </c>
       <c r="Q3">
-        <v>0.9335822786427959</v>
+        <v>0.856120586265002</v>
       </c>
       <c r="R3">
-        <v>0.952584251722385</v>
+        <v>0.8957031972419641</v>
       </c>
       <c r="S3">
-        <v>0.952584251722385</v>
+        <v>0.8957031972419641</v>
       </c>
       <c r="T3">
-        <v>0.952584251722385</v>
+        <v>0.9171706927631563</v>
       </c>
       <c r="U3">
-        <v>0.952584251722385</v>
+        <v>0.9171706927631563</v>
       </c>
       <c r="V3">
-        <v>0.952584251722385</v>
+        <v>0.9210083355886203</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9816592482879078</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9904634686012577</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9931101971962691</v>
       </c>
       <c r="AI3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3637516440822772</v>
+        <v>0.3073510839212662</v>
       </c>
       <c r="E4">
-        <v>0.4795574016778791</v>
+        <v>0.4225630170116744</v>
       </c>
       <c r="F4">
-        <v>0.805550651854922</v>
+        <v>0.7006542255444508</v>
       </c>
       <c r="G4">
-        <v>0.805550651854922</v>
+        <v>0.7006542255444508</v>
       </c>
       <c r="H4">
-        <v>0.805550651854922</v>
+        <v>0.7006542255444508</v>
       </c>
       <c r="I4">
-        <v>0.805550651854922</v>
+        <v>0.7006542255444508</v>
       </c>
       <c r="J4">
-        <v>0.903745664166738</v>
+        <v>0.8022191742372895</v>
       </c>
       <c r="K4">
-        <v>0.903745664166738</v>
+        <v>0.8022191742372895</v>
       </c>
       <c r="L4">
-        <v>0.9433203303045836</v>
+        <v>0.8583578257050566</v>
       </c>
       <c r="M4">
-        <v>0.9481259931072574</v>
+        <v>0.8875531514709303</v>
       </c>
       <c r="N4">
-        <v>0.9481259931072574</v>
+        <v>0.8875531514709303</v>
       </c>
       <c r="O4">
-        <v>0.9481259931072574</v>
+        <v>0.8875531514709303</v>
       </c>
       <c r="P4">
-        <v>0.9481259931072574</v>
+        <v>0.8941651706344431</v>
       </c>
       <c r="Q4">
-        <v>0.9481259931072574</v>
+        <v>0.8941651706344431</v>
       </c>
       <c r="R4">
-        <v>0.9624621371741994</v>
+        <v>0.9307458924763444</v>
       </c>
       <c r="S4">
-        <v>0.9624621371741994</v>
+        <v>0.9307458924763444</v>
       </c>
       <c r="T4">
-        <v>0.9624621371741994</v>
+        <v>0.9316511513269295</v>
       </c>
       <c r="U4">
-        <v>0.9624621371741994</v>
+        <v>0.9316511513269295</v>
       </c>
       <c r="V4">
-        <v>0.9624621371741994</v>
+        <v>0.9363829086032586</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9909431928541658</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9916775958745084</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9996982563658479</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9996982563658479</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,97 +1644,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3871854289230842</v>
+        <v>0.3000699056459648</v>
       </c>
       <c r="E5">
-        <v>0.3871854289230842</v>
+        <v>0.3253961169553208</v>
       </c>
       <c r="F5">
-        <v>0.8176298547853128</v>
+        <v>0.656106094390168</v>
       </c>
       <c r="G5">
-        <v>0.8176298547853128</v>
+        <v>0.6630254279199042</v>
       </c>
       <c r="H5">
-        <v>0.8176298547853128</v>
+        <v>0.6630254279199042</v>
       </c>
       <c r="I5">
-        <v>0.8176298547853128</v>
+        <v>0.6630254279199042</v>
       </c>
       <c r="J5">
-        <v>0.9397316737373171</v>
+        <v>0.775338302329198</v>
       </c>
       <c r="K5">
-        <v>0.9397316737373171</v>
+        <v>0.7988001663265079</v>
       </c>
       <c r="L5">
-        <v>0.9397316737373171</v>
+        <v>0.8233754992498827</v>
       </c>
       <c r="M5">
-        <v>0.9552495050302094</v>
+        <v>0.8601956145918613</v>
       </c>
       <c r="N5">
-        <v>0.9552495050302094</v>
+        <v>0.8601956145918613</v>
       </c>
       <c r="O5">
-        <v>0.9552495050302094</v>
+        <v>0.8601956145918613</v>
       </c>
       <c r="P5">
-        <v>0.9552495050302094</v>
+        <v>0.8676717457587932</v>
       </c>
       <c r="Q5">
-        <v>0.9552495050302094</v>
+        <v>0.8676717457587932</v>
       </c>
       <c r="R5">
-        <v>0.9552495050302094</v>
+        <v>0.8834465937632451</v>
       </c>
       <c r="S5">
-        <v>0.9552495050302094</v>
+        <v>0.8834465937632451</v>
       </c>
       <c r="T5">
-        <v>0.9552495050302094</v>
+        <v>0.8927471818077198</v>
       </c>
       <c r="U5">
-        <v>0.9552495050302094</v>
+        <v>0.8927471818077198</v>
       </c>
       <c r="V5">
-        <v>0.9552495050302094</v>
+        <v>0.8978627795854783</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9553882042738677</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9562898294226047</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9562898294226047</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9562898294226047</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9562898294226047</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9562898294226047</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9588836571479235</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9588836571479235</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9588836571479235</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9588836571479235</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9819539838795515</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9938473934719838</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3592560967633273</v>
+        <v>0.2810248025142754</v>
       </c>
       <c r="E6">
-        <v>0.3772516443651854</v>
+        <v>0.3198166115510907</v>
       </c>
       <c r="F6">
-        <v>0.7533725552008019</v>
+        <v>0.6128123682445392</v>
       </c>
       <c r="G6">
-        <v>0.7533725552008019</v>
+        <v>0.6132545563700773</v>
       </c>
       <c r="H6">
-        <v>0.7533725552008019</v>
+        <v>0.6132545563700773</v>
       </c>
       <c r="I6">
-        <v>0.7533725552008019</v>
+        <v>0.6132545563700773</v>
       </c>
       <c r="J6">
-        <v>0.9109794048771673</v>
+        <v>0.7511450268486887</v>
       </c>
       <c r="K6">
-        <v>0.9109794048771673</v>
+        <v>0.7540615422143806</v>
       </c>
       <c r="L6">
-        <v>0.9291248943419095</v>
+        <v>0.7929597827340709</v>
       </c>
       <c r="M6">
-        <v>0.943420956085695</v>
+        <v>0.8291256288931659</v>
       </c>
       <c r="N6">
-        <v>0.943420956085695</v>
+        <v>0.8291256288931659</v>
       </c>
       <c r="O6">
-        <v>0.943420956085695</v>
+        <v>0.8291256288931659</v>
       </c>
       <c r="P6">
-        <v>0.943420956085695</v>
+        <v>0.8410541739898705</v>
       </c>
       <c r="Q6">
-        <v>0.943420956085695</v>
+        <v>0.8488083686518874</v>
       </c>
       <c r="R6">
-        <v>0.943420956085695</v>
+        <v>0.8653215811513532</v>
       </c>
       <c r="S6">
-        <v>0.943420956085695</v>
+        <v>0.8653215811513532</v>
       </c>
       <c r="T6">
-        <v>0.943420956085695</v>
+        <v>0.8854087474273176</v>
       </c>
       <c r="U6">
-        <v>0.943420956085695</v>
+        <v>0.8854087474273176</v>
       </c>
       <c r="V6">
-        <v>0.943420956085695</v>
+        <v>0.8854087474273176</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9543982933974827</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9543982933974827</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9543982933974827</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9569011152194987</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9757017009789715</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9836254744904052</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7196830983862182</v>
+        <v>0.5654579581734045</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6735314480761503</v>
+        <v>0.5758903903888886</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.805550651854922</v>
+        <v>0.7006542255444508</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8176298547853128</v>
+        <v>0.656106094390168</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7533725552008019</v>
+        <v>0.6128123682445392</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7196830983862182</v>
+        <v>0.7738843030204701</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8368791730677976</v>
+        <v>0.7225027723985461</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.805550651854922</v>
+        <v>0.7006542255444508</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8176298547853128</v>
+        <v>0.775338302329198</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7533725552008019</v>
+        <v>0.7511450268486887</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.809485179599875</v>
+        <v>0.8122818218911096</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8368791730677976</v>
+        <v>0.8468872919696665</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.805550651854922</v>
+        <v>0.8022191742372895</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8176298547853128</v>
+        <v>0.8233754992498827</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9109794048771673</v>
+        <v>0.8291256288931659</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9186894554339106</v>
+        <v>0.966709559264971</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9335822786427959</v>
+        <v>0.9171706927631563</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>6</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.903745664166738</v>
+        <v>0.9307458924763444</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9397316737373171</v>
+        <v>0.9553882042738677</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9109794048771673</v>
+        <v>0.9515878294247948</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>6</v>
